--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2659948F-6873-4A6D-84C1-B14BAA8263E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B9A886-EECD-476B-ADCB-B1512E7562D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="457">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -1375,9 +1375,6 @@
     <t>Day (Integer)</t>
   </si>
   <si>
-    <t>Number to Boost (Integer)</t>
-  </si>
-  <si>
     <t>Subject (Any, Government, Violence, Health, Radicalism)</t>
   </si>
   <si>
@@ -1387,16 +1384,19 @@
     <t>Order Number (Integer)</t>
   </si>
   <si>
-    <t>Type (Primary or Secondary; Primary On First Sticky Note, Secondary on Second)</t>
-  </si>
-  <si>
     <t>Any</t>
   </si>
   <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Secondary</t>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Narrative Subject (Government, Violence, Health, Radicalism)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Number to Boost (Integer; 0 for "Don't Boost")</t>
   </si>
 </sst>
 </file>
@@ -1553,15 +1553,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}" name="Table2" displayName="Table2" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}" name="Table2" displayName="Table2" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7CB3FCC3-F2B4-4036-B5CC-37C665CD7209}" name="Order Number (Integer)"/>
     <tableColumn id="2" xr3:uid="{5D8A83C8-A0F0-4DEF-A5A9-98D66F18D69B}" name="Day (Integer)"/>
-    <tableColumn id="3" xr3:uid="{AD6CED18-8B7C-4BBB-BC26-16CA39F187C5}" name="Number to Boost (Integer)"/>
+    <tableColumn id="3" xr3:uid="{AD6CED18-8B7C-4BBB-BC26-16CA39F187C5}" name="Number to Boost (Integer; 0 for &quot;Don't Boost&quot;)"/>
     <tableColumn id="4" xr3:uid="{11EFE96A-DB45-4AE0-816B-AE577D10326E}" name="Subject (Any, Government, Violence, Health, Radicalism)"/>
     <tableColumn id="5" xr3:uid="{B3D3B5BA-85E2-49E3-A7E1-4F1317297D19}" name="Reaction (Any, Happy, Sad, Angry)"/>
-    <tableColumn id="6" xr3:uid="{D0D4A58C-32DB-4F3D-B9FD-8C3465F8091F}" name="Type (Primary or Secondary; Primary On First Sticky Note, Secondary on Second)"/>
+    <tableColumn id="6" xr3:uid="{D0D4A58C-32DB-4F3D-B9FD-8C3465F8091F}" name="Narrative Subject (Government, Violence, Health, Radicalism)"/>
+    <tableColumn id="7" xr3:uid="{44E759D3-CD71-49DA-8A1C-2BA34FC25D8E}" name="Publisher"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1833,7 +1834,7 @@
   <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -8774,44 +8775,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C29F16F-EAFE-4B18-A8CA-D239C88544B3}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B1" t="s">
         <v>448</v>
       </c>
       <c r="C1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" t="s">
         <v>449</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>450</v>
       </c>
-      <c r="E1" t="s">
-        <v>451</v>
-      </c>
       <c r="F1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8822,16 +8826,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8848,10 +8855,13 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8865,10 +8875,36 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>452</v>
       </c>
       <c r="F4" t="s">
-        <v>456</v>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B9A886-EECD-476B-ADCB-B1512E7562D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD441A6F-D526-4C1B-88A1-C95C629FBE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media Posts" sheetId="1" r:id="rId1"/>
     <sheet name="Boss' Orders" sheetId="2" r:id="rId2"/>
+    <sheet name="Narrative Events" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="465">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -1397,6 +1398,30 @@
   </si>
   <si>
     <t>Number to Boost (Integer; 0 for "Don't Boost")</t>
+  </si>
+  <si>
+    <t>Event Number (Integer)</t>
+  </si>
+  <si>
+    <t>Effect (For Programmer's Reference)</t>
+  </si>
+  <si>
+    <t>None; test event</t>
+  </si>
+  <si>
+    <t>Name (String)</t>
+  </si>
+  <si>
+    <t>First Day</t>
+  </si>
+  <si>
+    <t>Collecting the Band</t>
+  </si>
+  <si>
+    <t>Scheduled Check-Up</t>
+  </si>
+  <si>
+    <t>Anti-Government Protest</t>
   </si>
 </sst>
 </file>
@@ -8777,8 +8802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C29F16F-EAFE-4B18-A8CA-D239C88544B3}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8913,4 +8938,111 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD59F98-9E92-490C-932F-B482BEFC87E4}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD441A6F-D526-4C1B-88A1-C95C629FBE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E24BF80-C4F7-489C-95F6-AB80A9ED9199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media Posts" sheetId="1" r:id="rId1"/>
@@ -1858,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170:J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2928,6 +2928,12 @@
       <c r="H26" t="s">
         <v>22</v>
       </c>
+      <c r="I26">
+        <v>75</v>
+      </c>
+      <c r="J26">
+        <v>16000</v>
+      </c>
       <c r="K26" s="1">
         <v>100</v>
       </c>
@@ -2963,6 +2969,12 @@
       <c r="H27" t="s">
         <v>21</v>
       </c>
+      <c r="I27">
+        <v>117</v>
+      </c>
+      <c r="J27">
+        <v>28000</v>
+      </c>
       <c r="K27" s="1">
         <v>156</v>
       </c>
@@ -2998,6 +3010,12 @@
       <c r="H28" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I28">
+        <v>50</v>
+      </c>
+      <c r="J28">
+        <v>15000</v>
+      </c>
       <c r="K28" s="1">
         <v>80</v>
       </c>
@@ -3033,6 +3051,12 @@
       <c r="H29" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I29">
+        <v>75</v>
+      </c>
+      <c r="J29">
+        <v>16000</v>
+      </c>
       <c r="K29" s="1">
         <v>75</v>
       </c>
@@ -3068,6 +3092,12 @@
       <c r="H30" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I30">
+        <v>117</v>
+      </c>
+      <c r="J30">
+        <v>28000</v>
+      </c>
       <c r="K30" s="1">
         <v>121</v>
       </c>
@@ -3103,6 +3133,12 @@
       <c r="H31" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>15000</v>
+      </c>
       <c r="K31" s="1">
         <v>131</v>
       </c>
@@ -3138,6 +3174,12 @@
       <c r="H32" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I32">
+        <v>75</v>
+      </c>
+      <c r="J32">
+        <v>16000</v>
+      </c>
       <c r="K32" s="1">
         <v>98</v>
       </c>
@@ -3173,6 +3215,12 @@
       <c r="H33" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I33">
+        <v>117</v>
+      </c>
+      <c r="J33">
+        <v>28000</v>
+      </c>
       <c r="K33" s="1">
         <v>132</v>
       </c>
@@ -3208,6 +3256,12 @@
       <c r="H34" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I34">
+        <v>50</v>
+      </c>
+      <c r="J34">
+        <v>15000</v>
+      </c>
       <c r="K34" s="1">
         <v>149</v>
       </c>
@@ -3243,6 +3297,12 @@
       <c r="H35" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I35">
+        <v>75</v>
+      </c>
+      <c r="J35">
+        <v>16000</v>
+      </c>
       <c r="K35" s="1">
         <v>89</v>
       </c>
@@ -3278,6 +3338,12 @@
       <c r="H36" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I36">
+        <v>117</v>
+      </c>
+      <c r="J36">
+        <v>28000</v>
+      </c>
       <c r="K36" s="1">
         <v>69</v>
       </c>
@@ -3313,6 +3379,12 @@
       <c r="H37" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I37">
+        <v>50</v>
+      </c>
+      <c r="J37">
+        <v>15000</v>
+      </c>
       <c r="K37" s="1">
         <v>50</v>
       </c>
@@ -3348,6 +3420,12 @@
       <c r="H38" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I38">
+        <v>75</v>
+      </c>
+      <c r="J38">
+        <v>16000</v>
+      </c>
       <c r="K38" s="1">
         <v>134</v>
       </c>
@@ -3383,6 +3461,12 @@
       <c r="H39" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I39">
+        <v>117</v>
+      </c>
+      <c r="J39">
+        <v>28000</v>
+      </c>
       <c r="K39" s="1">
         <v>78</v>
       </c>
@@ -3418,6 +3502,12 @@
       <c r="H40" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I40">
+        <v>50</v>
+      </c>
+      <c r="J40">
+        <v>15000</v>
+      </c>
       <c r="K40" s="1">
         <v>145</v>
       </c>
@@ -3453,6 +3543,12 @@
       <c r="H41" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I41">
+        <v>75</v>
+      </c>
+      <c r="J41">
+        <v>16000</v>
+      </c>
       <c r="K41" s="1">
         <v>82</v>
       </c>
@@ -3488,6 +3584,12 @@
       <c r="H42" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I42">
+        <v>117</v>
+      </c>
+      <c r="J42">
+        <v>28000</v>
+      </c>
       <c r="K42" s="1">
         <v>175</v>
       </c>
@@ -3523,6 +3625,12 @@
       <c r="H43" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>15000</v>
+      </c>
       <c r="K43" s="1">
         <v>91</v>
       </c>
@@ -3558,6 +3666,12 @@
       <c r="H44" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I44">
+        <v>75</v>
+      </c>
+      <c r="J44">
+        <v>16000</v>
+      </c>
       <c r="K44" s="1">
         <v>150</v>
       </c>
@@ -3593,6 +3707,12 @@
       <c r="H45" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I45">
+        <v>117</v>
+      </c>
+      <c r="J45">
+        <v>28000</v>
+      </c>
       <c r="K45" s="1">
         <v>110</v>
       </c>
@@ -3628,6 +3748,12 @@
       <c r="H46" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I46">
+        <v>50</v>
+      </c>
+      <c r="J46">
+        <v>15000</v>
+      </c>
       <c r="K46" s="1">
         <v>60</v>
       </c>
@@ -3663,6 +3789,12 @@
       <c r="H47" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I47">
+        <v>75</v>
+      </c>
+      <c r="J47">
+        <v>16000</v>
+      </c>
       <c r="K47" s="1">
         <v>70</v>
       </c>
@@ -3698,6 +3830,12 @@
       <c r="H48" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I48">
+        <v>117</v>
+      </c>
+      <c r="J48">
+        <v>28000</v>
+      </c>
       <c r="K48" s="1">
         <v>147</v>
       </c>
@@ -3733,6 +3871,12 @@
       <c r="H49" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I49">
+        <v>50</v>
+      </c>
+      <c r="J49">
+        <v>15000</v>
+      </c>
       <c r="K49" s="1">
         <v>90</v>
       </c>
@@ -3768,6 +3912,12 @@
       <c r="H50" t="s">
         <v>22</v>
       </c>
+      <c r="I50">
+        <v>75</v>
+      </c>
+      <c r="J50">
+        <v>16000</v>
+      </c>
       <c r="K50" s="1">
         <v>100</v>
       </c>
@@ -3803,6 +3953,12 @@
       <c r="H51" t="s">
         <v>21</v>
       </c>
+      <c r="I51">
+        <v>117</v>
+      </c>
+      <c r="J51">
+        <v>28000</v>
+      </c>
       <c r="K51" s="1">
         <v>156</v>
       </c>
@@ -3838,6 +3994,12 @@
       <c r="H52" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I52">
+        <v>50</v>
+      </c>
+      <c r="J52">
+        <v>15000</v>
+      </c>
       <c r="K52" s="1">
         <v>80</v>
       </c>
@@ -3873,6 +4035,12 @@
       <c r="H53" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I53">
+        <v>75</v>
+      </c>
+      <c r="J53">
+        <v>16000</v>
+      </c>
       <c r="K53" s="1">
         <v>75</v>
       </c>
@@ -3908,6 +4076,12 @@
       <c r="H54" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I54">
+        <v>117</v>
+      </c>
+      <c r="J54">
+        <v>28000</v>
+      </c>
       <c r="K54" s="1">
         <v>121</v>
       </c>
@@ -3943,6 +4117,12 @@
       <c r="H55" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55">
+        <v>15000</v>
+      </c>
       <c r="K55" s="1">
         <v>131</v>
       </c>
@@ -3978,6 +4158,12 @@
       <c r="H56" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I56">
+        <v>75</v>
+      </c>
+      <c r="J56">
+        <v>16000</v>
+      </c>
       <c r="K56" s="1">
         <v>98</v>
       </c>
@@ -4013,6 +4199,12 @@
       <c r="H57" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I57">
+        <v>117</v>
+      </c>
+      <c r="J57">
+        <v>28000</v>
+      </c>
       <c r="K57" s="1">
         <v>132</v>
       </c>
@@ -4048,6 +4240,12 @@
       <c r="H58" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I58">
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <v>15000</v>
+      </c>
       <c r="K58" s="1">
         <v>149</v>
       </c>
@@ -4083,6 +4281,12 @@
       <c r="H59" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I59">
+        <v>75</v>
+      </c>
+      <c r="J59">
+        <v>16000</v>
+      </c>
       <c r="K59" s="1">
         <v>89</v>
       </c>
@@ -4118,6 +4322,12 @@
       <c r="H60" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I60">
+        <v>117</v>
+      </c>
+      <c r="J60">
+        <v>28000</v>
+      </c>
       <c r="K60" s="1">
         <v>69</v>
       </c>
@@ -4153,6 +4363,12 @@
       <c r="H61" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I61">
+        <v>50</v>
+      </c>
+      <c r="J61">
+        <v>15000</v>
+      </c>
       <c r="K61" s="1">
         <v>50</v>
       </c>
@@ -4188,6 +4404,12 @@
       <c r="H62" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I62">
+        <v>75</v>
+      </c>
+      <c r="J62">
+        <v>16000</v>
+      </c>
       <c r="K62" s="1">
         <v>134</v>
       </c>
@@ -4223,6 +4445,12 @@
       <c r="H63" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I63">
+        <v>117</v>
+      </c>
+      <c r="J63">
+        <v>28000</v>
+      </c>
       <c r="K63" s="1">
         <v>78</v>
       </c>
@@ -4258,6 +4486,12 @@
       <c r="H64" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I64">
+        <v>50</v>
+      </c>
+      <c r="J64">
+        <v>15000</v>
+      </c>
       <c r="K64" s="1">
         <v>145</v>
       </c>
@@ -4293,6 +4527,12 @@
       <c r="H65" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I65">
+        <v>75</v>
+      </c>
+      <c r="J65">
+        <v>16000</v>
+      </c>
       <c r="K65" s="1">
         <v>82</v>
       </c>
@@ -4328,6 +4568,12 @@
       <c r="H66" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I66">
+        <v>117</v>
+      </c>
+      <c r="J66">
+        <v>28000</v>
+      </c>
       <c r="K66" s="1">
         <v>175</v>
       </c>
@@ -4363,6 +4609,12 @@
       <c r="H67" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I67">
+        <v>50</v>
+      </c>
+      <c r="J67">
+        <v>15000</v>
+      </c>
       <c r="K67" s="1">
         <v>91</v>
       </c>
@@ -4398,6 +4650,12 @@
       <c r="H68" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I68">
+        <v>75</v>
+      </c>
+      <c r="J68">
+        <v>16000</v>
+      </c>
       <c r="K68" s="1">
         <v>150</v>
       </c>
@@ -4433,6 +4691,12 @@
       <c r="H69" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I69">
+        <v>117</v>
+      </c>
+      <c r="J69">
+        <v>28000</v>
+      </c>
       <c r="K69" s="1">
         <v>110</v>
       </c>
@@ -4468,6 +4732,12 @@
       <c r="H70" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I70">
+        <v>50</v>
+      </c>
+      <c r="J70">
+        <v>15000</v>
+      </c>
       <c r="K70" s="1">
         <v>60</v>
       </c>
@@ -4503,6 +4773,12 @@
       <c r="H71" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I71">
+        <v>75</v>
+      </c>
+      <c r="J71">
+        <v>16000</v>
+      </c>
       <c r="K71" s="1">
         <v>70</v>
       </c>
@@ -4538,6 +4814,12 @@
       <c r="H72" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I72">
+        <v>117</v>
+      </c>
+      <c r="J72">
+        <v>28000</v>
+      </c>
       <c r="K72" s="1">
         <v>147</v>
       </c>
@@ -4573,6 +4855,12 @@
       <c r="H73" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I73">
+        <v>50</v>
+      </c>
+      <c r="J73">
+        <v>15000</v>
+      </c>
       <c r="K73" s="1">
         <v>90</v>
       </c>
@@ -4608,6 +4896,12 @@
       <c r="H74" t="s">
         <v>22</v>
       </c>
+      <c r="I74">
+        <v>75</v>
+      </c>
+      <c r="J74">
+        <v>16000</v>
+      </c>
       <c r="K74" s="1">
         <v>100</v>
       </c>
@@ -4643,6 +4937,12 @@
       <c r="H75" t="s">
         <v>21</v>
       </c>
+      <c r="I75">
+        <v>117</v>
+      </c>
+      <c r="J75">
+        <v>28000</v>
+      </c>
       <c r="K75" s="1">
         <v>156</v>
       </c>
@@ -4678,6 +4978,12 @@
       <c r="H76" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I76">
+        <v>50</v>
+      </c>
+      <c r="J76">
+        <v>15000</v>
+      </c>
       <c r="K76" s="1">
         <v>80</v>
       </c>
@@ -4713,6 +5019,12 @@
       <c r="H77" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I77">
+        <v>75</v>
+      </c>
+      <c r="J77">
+        <v>16000</v>
+      </c>
       <c r="K77" s="1">
         <v>75</v>
       </c>
@@ -4748,6 +5060,12 @@
       <c r="H78" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I78">
+        <v>117</v>
+      </c>
+      <c r="J78">
+        <v>28000</v>
+      </c>
       <c r="K78" s="1">
         <v>121</v>
       </c>
@@ -4783,6 +5101,12 @@
       <c r="H79" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I79">
+        <v>50</v>
+      </c>
+      <c r="J79">
+        <v>15000</v>
+      </c>
       <c r="K79" s="1">
         <v>131</v>
       </c>
@@ -4818,6 +5142,12 @@
       <c r="H80" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I80">
+        <v>75</v>
+      </c>
+      <c r="J80">
+        <v>16000</v>
+      </c>
       <c r="K80" s="1">
         <v>98</v>
       </c>
@@ -4853,6 +5183,12 @@
       <c r="H81" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I81">
+        <v>117</v>
+      </c>
+      <c r="J81">
+        <v>28000</v>
+      </c>
       <c r="K81" s="1">
         <v>132</v>
       </c>
@@ -4888,6 +5224,12 @@
       <c r="H82" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I82">
+        <v>50</v>
+      </c>
+      <c r="J82">
+        <v>15000</v>
+      </c>
       <c r="K82" s="1">
         <v>149</v>
       </c>
@@ -4923,6 +5265,12 @@
       <c r="H83" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I83">
+        <v>75</v>
+      </c>
+      <c r="J83">
+        <v>16000</v>
+      </c>
       <c r="K83" s="1">
         <v>89</v>
       </c>
@@ -4958,6 +5306,12 @@
       <c r="H84" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I84">
+        <v>117</v>
+      </c>
+      <c r="J84">
+        <v>28000</v>
+      </c>
       <c r="K84" s="1">
         <v>69</v>
       </c>
@@ -4993,6 +5347,12 @@
       <c r="H85" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I85">
+        <v>50</v>
+      </c>
+      <c r="J85">
+        <v>15000</v>
+      </c>
       <c r="K85" s="1">
         <v>50</v>
       </c>
@@ -5028,6 +5388,12 @@
       <c r="H86" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I86">
+        <v>75</v>
+      </c>
+      <c r="J86">
+        <v>16000</v>
+      </c>
       <c r="K86" s="1">
         <v>134</v>
       </c>
@@ -5063,6 +5429,12 @@
       <c r="H87" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I87">
+        <v>117</v>
+      </c>
+      <c r="J87">
+        <v>28000</v>
+      </c>
       <c r="K87" s="1">
         <v>78</v>
       </c>
@@ -5098,6 +5470,12 @@
       <c r="H88" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I88">
+        <v>50</v>
+      </c>
+      <c r="J88">
+        <v>15000</v>
+      </c>
       <c r="K88" s="1">
         <v>145</v>
       </c>
@@ -5133,6 +5511,12 @@
       <c r="H89" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I89">
+        <v>75</v>
+      </c>
+      <c r="J89">
+        <v>16000</v>
+      </c>
       <c r="K89" s="1">
         <v>82</v>
       </c>
@@ -5168,6 +5552,12 @@
       <c r="H90" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I90">
+        <v>117</v>
+      </c>
+      <c r="J90">
+        <v>28000</v>
+      </c>
       <c r="K90" s="1">
         <v>175</v>
       </c>
@@ -5203,6 +5593,12 @@
       <c r="H91" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I91">
+        <v>50</v>
+      </c>
+      <c r="J91">
+        <v>15000</v>
+      </c>
       <c r="K91" s="1">
         <v>91</v>
       </c>
@@ -5238,6 +5634,12 @@
       <c r="H92" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I92">
+        <v>75</v>
+      </c>
+      <c r="J92">
+        <v>16000</v>
+      </c>
       <c r="K92" s="1">
         <v>150</v>
       </c>
@@ -5273,6 +5675,12 @@
       <c r="H93" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I93">
+        <v>117</v>
+      </c>
+      <c r="J93">
+        <v>28000</v>
+      </c>
       <c r="K93" s="1">
         <v>110</v>
       </c>
@@ -5308,6 +5716,12 @@
       <c r="H94" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I94">
+        <v>50</v>
+      </c>
+      <c r="J94">
+        <v>15000</v>
+      </c>
       <c r="K94" s="1">
         <v>60</v>
       </c>
@@ -5343,6 +5757,12 @@
       <c r="H95" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I95">
+        <v>75</v>
+      </c>
+      <c r="J95">
+        <v>16000</v>
+      </c>
       <c r="K95" s="1">
         <v>70</v>
       </c>
@@ -5378,6 +5798,12 @@
       <c r="H96" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I96">
+        <v>117</v>
+      </c>
+      <c r="J96">
+        <v>28000</v>
+      </c>
       <c r="K96" s="1">
         <v>147</v>
       </c>
@@ -5413,6 +5839,12 @@
       <c r="H97" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I97">
+        <v>50</v>
+      </c>
+      <c r="J97">
+        <v>15000</v>
+      </c>
       <c r="K97" s="1">
         <v>90</v>
       </c>
@@ -5448,6 +5880,12 @@
       <c r="H98" t="s">
         <v>22</v>
       </c>
+      <c r="I98">
+        <v>75</v>
+      </c>
+      <c r="J98">
+        <v>16000</v>
+      </c>
       <c r="K98" s="1">
         <v>100</v>
       </c>
@@ -5483,6 +5921,12 @@
       <c r="H99" t="s">
         <v>21</v>
       </c>
+      <c r="I99">
+        <v>117</v>
+      </c>
+      <c r="J99">
+        <v>28000</v>
+      </c>
       <c r="K99" s="1">
         <v>156</v>
       </c>
@@ -5518,6 +5962,12 @@
       <c r="H100" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I100">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <v>15000</v>
+      </c>
       <c r="K100" s="1">
         <v>80</v>
       </c>
@@ -5553,6 +6003,12 @@
       <c r="H101" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I101">
+        <v>75</v>
+      </c>
+      <c r="J101">
+        <v>16000</v>
+      </c>
       <c r="K101" s="1">
         <v>75</v>
       </c>
@@ -5588,6 +6044,12 @@
       <c r="H102" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I102">
+        <v>117</v>
+      </c>
+      <c r="J102">
+        <v>28000</v>
+      </c>
       <c r="K102" s="1">
         <v>121</v>
       </c>
@@ -5623,6 +6085,12 @@
       <c r="H103" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I103">
+        <v>50</v>
+      </c>
+      <c r="J103">
+        <v>15000</v>
+      </c>
       <c r="K103" s="1">
         <v>131</v>
       </c>
@@ -5658,6 +6126,12 @@
       <c r="H104" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I104">
+        <v>75</v>
+      </c>
+      <c r="J104">
+        <v>16000</v>
+      </c>
       <c r="K104" s="1">
         <v>98</v>
       </c>
@@ -5693,6 +6167,12 @@
       <c r="H105" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I105">
+        <v>117</v>
+      </c>
+      <c r="J105">
+        <v>28000</v>
+      </c>
       <c r="K105" s="1">
         <v>132</v>
       </c>
@@ -5728,6 +6208,12 @@
       <c r="H106" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I106">
+        <v>50</v>
+      </c>
+      <c r="J106">
+        <v>15000</v>
+      </c>
       <c r="K106" s="1">
         <v>149</v>
       </c>
@@ -5763,6 +6249,12 @@
       <c r="H107" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I107">
+        <v>75</v>
+      </c>
+      <c r="J107">
+        <v>16000</v>
+      </c>
       <c r="K107" s="1">
         <v>89</v>
       </c>
@@ -5798,6 +6290,12 @@
       <c r="H108" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I108">
+        <v>117</v>
+      </c>
+      <c r="J108">
+        <v>28000</v>
+      </c>
       <c r="K108" s="1">
         <v>69</v>
       </c>
@@ -5833,6 +6331,12 @@
       <c r="H109" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I109">
+        <v>50</v>
+      </c>
+      <c r="J109">
+        <v>15000</v>
+      </c>
       <c r="K109" s="1">
         <v>50</v>
       </c>
@@ -5868,6 +6372,12 @@
       <c r="H110" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I110">
+        <v>75</v>
+      </c>
+      <c r="J110">
+        <v>16000</v>
+      </c>
       <c r="K110" s="1">
         <v>134</v>
       </c>
@@ -5903,6 +6413,12 @@
       <c r="H111" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I111">
+        <v>117</v>
+      </c>
+      <c r="J111">
+        <v>28000</v>
+      </c>
       <c r="K111" s="1">
         <v>78</v>
       </c>
@@ -5938,6 +6454,12 @@
       <c r="H112" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I112">
+        <v>50</v>
+      </c>
+      <c r="J112">
+        <v>15000</v>
+      </c>
       <c r="K112" s="1">
         <v>145</v>
       </c>
@@ -5973,6 +6495,12 @@
       <c r="H113" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I113">
+        <v>75</v>
+      </c>
+      <c r="J113">
+        <v>16000</v>
+      </c>
       <c r="K113" s="1">
         <v>82</v>
       </c>
@@ -6008,6 +6536,12 @@
       <c r="H114" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I114">
+        <v>117</v>
+      </c>
+      <c r="J114">
+        <v>28000</v>
+      </c>
       <c r="K114" s="1">
         <v>175</v>
       </c>
@@ -6043,6 +6577,12 @@
       <c r="H115" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I115">
+        <v>50</v>
+      </c>
+      <c r="J115">
+        <v>15000</v>
+      </c>
       <c r="K115" s="1">
         <v>91</v>
       </c>
@@ -6078,6 +6618,12 @@
       <c r="H116" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I116">
+        <v>75</v>
+      </c>
+      <c r="J116">
+        <v>16000</v>
+      </c>
       <c r="K116" s="1">
         <v>150</v>
       </c>
@@ -6113,6 +6659,12 @@
       <c r="H117" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I117">
+        <v>117</v>
+      </c>
+      <c r="J117">
+        <v>28000</v>
+      </c>
       <c r="K117" s="1">
         <v>110</v>
       </c>
@@ -6148,6 +6700,12 @@
       <c r="H118" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I118">
+        <v>50</v>
+      </c>
+      <c r="J118">
+        <v>15000</v>
+      </c>
       <c r="K118" s="1">
         <v>60</v>
       </c>
@@ -6183,6 +6741,12 @@
       <c r="H119" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I119">
+        <v>75</v>
+      </c>
+      <c r="J119">
+        <v>16000</v>
+      </c>
       <c r="K119" s="1">
         <v>70</v>
       </c>
@@ -6218,6 +6782,12 @@
       <c r="H120" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I120">
+        <v>117</v>
+      </c>
+      <c r="J120">
+        <v>28000</v>
+      </c>
       <c r="K120" s="1">
         <v>147</v>
       </c>
@@ -6253,6 +6823,12 @@
       <c r="H121" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I121">
+        <v>50</v>
+      </c>
+      <c r="J121">
+        <v>15000</v>
+      </c>
       <c r="K121" s="1">
         <v>90</v>
       </c>
@@ -6288,6 +6864,12 @@
       <c r="H122" t="s">
         <v>22</v>
       </c>
+      <c r="I122">
+        <v>75</v>
+      </c>
+      <c r="J122">
+        <v>16000</v>
+      </c>
       <c r="K122" s="1">
         <v>100</v>
       </c>
@@ -6323,6 +6905,12 @@
       <c r="H123" t="s">
         <v>21</v>
       </c>
+      <c r="I123">
+        <v>117</v>
+      </c>
+      <c r="J123">
+        <v>28000</v>
+      </c>
       <c r="K123" s="1">
         <v>156</v>
       </c>
@@ -6358,6 +6946,12 @@
       <c r="H124" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I124">
+        <v>50</v>
+      </c>
+      <c r="J124">
+        <v>15000</v>
+      </c>
       <c r="K124" s="1">
         <v>80</v>
       </c>
@@ -6393,6 +6987,12 @@
       <c r="H125" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I125">
+        <v>75</v>
+      </c>
+      <c r="J125">
+        <v>16000</v>
+      </c>
       <c r="K125" s="1">
         <v>75</v>
       </c>
@@ -6428,6 +7028,12 @@
       <c r="H126" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I126">
+        <v>117</v>
+      </c>
+      <c r="J126">
+        <v>28000</v>
+      </c>
       <c r="K126" s="1">
         <v>121</v>
       </c>
@@ -6463,6 +7069,12 @@
       <c r="H127" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I127">
+        <v>50</v>
+      </c>
+      <c r="J127">
+        <v>15000</v>
+      </c>
       <c r="K127" s="1">
         <v>131</v>
       </c>
@@ -6498,6 +7110,12 @@
       <c r="H128" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I128">
+        <v>75</v>
+      </c>
+      <c r="J128">
+        <v>16000</v>
+      </c>
       <c r="K128" s="1">
         <v>98</v>
       </c>
@@ -6533,6 +7151,12 @@
       <c r="H129" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I129">
+        <v>117</v>
+      </c>
+      <c r="J129">
+        <v>28000</v>
+      </c>
       <c r="K129" s="1">
         <v>132</v>
       </c>
@@ -6568,6 +7192,12 @@
       <c r="H130" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I130">
+        <v>50</v>
+      </c>
+      <c r="J130">
+        <v>15000</v>
+      </c>
       <c r="K130" s="1">
         <v>149</v>
       </c>
@@ -6603,6 +7233,12 @@
       <c r="H131" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I131">
+        <v>75</v>
+      </c>
+      <c r="J131">
+        <v>16000</v>
+      </c>
       <c r="K131" s="1">
         <v>89</v>
       </c>
@@ -6638,6 +7274,12 @@
       <c r="H132" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I132">
+        <v>117</v>
+      </c>
+      <c r="J132">
+        <v>28000</v>
+      </c>
       <c r="K132" s="1">
         <v>69</v>
       </c>
@@ -6673,6 +7315,12 @@
       <c r="H133" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I133">
+        <v>50</v>
+      </c>
+      <c r="J133">
+        <v>15000</v>
+      </c>
       <c r="K133" s="1">
         <v>50</v>
       </c>
@@ -6708,6 +7356,12 @@
       <c r="H134" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I134">
+        <v>75</v>
+      </c>
+      <c r="J134">
+        <v>16000</v>
+      </c>
       <c r="K134" s="1">
         <v>134</v>
       </c>
@@ -6743,6 +7397,12 @@
       <c r="H135" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I135">
+        <v>117</v>
+      </c>
+      <c r="J135">
+        <v>28000</v>
+      </c>
       <c r="K135" s="1">
         <v>78</v>
       </c>
@@ -6778,6 +7438,12 @@
       <c r="H136" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I136">
+        <v>50</v>
+      </c>
+      <c r="J136">
+        <v>15000</v>
+      </c>
       <c r="K136" s="1">
         <v>145</v>
       </c>
@@ -6813,6 +7479,12 @@
       <c r="H137" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I137">
+        <v>75</v>
+      </c>
+      <c r="J137">
+        <v>16000</v>
+      </c>
       <c r="K137" s="1">
         <v>82</v>
       </c>
@@ -6848,6 +7520,12 @@
       <c r="H138" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I138">
+        <v>117</v>
+      </c>
+      <c r="J138">
+        <v>28000</v>
+      </c>
       <c r="K138" s="1">
         <v>175</v>
       </c>
@@ -6883,6 +7561,12 @@
       <c r="H139" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I139">
+        <v>50</v>
+      </c>
+      <c r="J139">
+        <v>15000</v>
+      </c>
       <c r="K139" s="1">
         <v>91</v>
       </c>
@@ -6918,6 +7602,12 @@
       <c r="H140" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I140">
+        <v>75</v>
+      </c>
+      <c r="J140">
+        <v>16000</v>
+      </c>
       <c r="K140" s="1">
         <v>150</v>
       </c>
@@ -6953,6 +7643,12 @@
       <c r="H141" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I141">
+        <v>117</v>
+      </c>
+      <c r="J141">
+        <v>28000</v>
+      </c>
       <c r="K141" s="1">
         <v>110</v>
       </c>
@@ -6988,6 +7684,12 @@
       <c r="H142" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I142">
+        <v>50</v>
+      </c>
+      <c r="J142">
+        <v>15000</v>
+      </c>
       <c r="K142" s="1">
         <v>60</v>
       </c>
@@ -7023,6 +7725,12 @@
       <c r="H143" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I143">
+        <v>75</v>
+      </c>
+      <c r="J143">
+        <v>16000</v>
+      </c>
       <c r="K143" s="1">
         <v>70</v>
       </c>
@@ -7058,6 +7766,12 @@
       <c r="H144" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I144">
+        <v>117</v>
+      </c>
+      <c r="J144">
+        <v>28000</v>
+      </c>
       <c r="K144" s="1">
         <v>147</v>
       </c>
@@ -7093,6 +7807,12 @@
       <c r="H145" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I145">
+        <v>50</v>
+      </c>
+      <c r="J145">
+        <v>15000</v>
+      </c>
       <c r="K145" s="1">
         <v>90</v>
       </c>
@@ -7128,6 +7848,12 @@
       <c r="H146" t="s">
         <v>22</v>
       </c>
+      <c r="I146">
+        <v>75</v>
+      </c>
+      <c r="J146">
+        <v>16000</v>
+      </c>
       <c r="K146" s="1">
         <v>100</v>
       </c>
@@ -7163,6 +7889,12 @@
       <c r="H147" t="s">
         <v>21</v>
       </c>
+      <c r="I147">
+        <v>117</v>
+      </c>
+      <c r="J147">
+        <v>28000</v>
+      </c>
       <c r="K147" s="1">
         <v>156</v>
       </c>
@@ -7198,6 +7930,12 @@
       <c r="H148" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I148">
+        <v>50</v>
+      </c>
+      <c r="J148">
+        <v>15000</v>
+      </c>
       <c r="K148" s="1">
         <v>80</v>
       </c>
@@ -7233,6 +7971,12 @@
       <c r="H149" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I149">
+        <v>75</v>
+      </c>
+      <c r="J149">
+        <v>16000</v>
+      </c>
       <c r="K149" s="1">
         <v>75</v>
       </c>
@@ -7268,6 +8012,12 @@
       <c r="H150" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I150">
+        <v>117</v>
+      </c>
+      <c r="J150">
+        <v>28000</v>
+      </c>
       <c r="K150" s="1">
         <v>121</v>
       </c>
@@ -7303,6 +8053,12 @@
       <c r="H151" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I151">
+        <v>50</v>
+      </c>
+      <c r="J151">
+        <v>15000</v>
+      </c>
       <c r="K151" s="1">
         <v>131</v>
       </c>
@@ -7338,6 +8094,12 @@
       <c r="H152" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I152">
+        <v>75</v>
+      </c>
+      <c r="J152">
+        <v>16000</v>
+      </c>
       <c r="K152" s="1">
         <v>98</v>
       </c>
@@ -7373,6 +8135,12 @@
       <c r="H153" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I153">
+        <v>117</v>
+      </c>
+      <c r="J153">
+        <v>28000</v>
+      </c>
       <c r="K153" s="1">
         <v>132</v>
       </c>
@@ -7408,6 +8176,12 @@
       <c r="H154" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I154">
+        <v>50</v>
+      </c>
+      <c r="J154">
+        <v>15000</v>
+      </c>
       <c r="K154" s="1">
         <v>149</v>
       </c>
@@ -7443,6 +8217,12 @@
       <c r="H155" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I155">
+        <v>75</v>
+      </c>
+      <c r="J155">
+        <v>16000</v>
+      </c>
       <c r="K155" s="1">
         <v>89</v>
       </c>
@@ -7478,6 +8258,12 @@
       <c r="H156" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I156">
+        <v>117</v>
+      </c>
+      <c r="J156">
+        <v>28000</v>
+      </c>
       <c r="K156" s="1">
         <v>69</v>
       </c>
@@ -7513,6 +8299,12 @@
       <c r="H157" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I157">
+        <v>50</v>
+      </c>
+      <c r="J157">
+        <v>15000</v>
+      </c>
       <c r="K157" s="1">
         <v>50</v>
       </c>
@@ -7548,6 +8340,12 @@
       <c r="H158" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I158">
+        <v>75</v>
+      </c>
+      <c r="J158">
+        <v>16000</v>
+      </c>
       <c r="K158" s="1">
         <v>134</v>
       </c>
@@ -7583,6 +8381,12 @@
       <c r="H159" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I159">
+        <v>117</v>
+      </c>
+      <c r="J159">
+        <v>28000</v>
+      </c>
       <c r="K159" s="1">
         <v>78</v>
       </c>
@@ -7618,6 +8422,12 @@
       <c r="H160" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I160">
+        <v>50</v>
+      </c>
+      <c r="J160">
+        <v>15000</v>
+      </c>
       <c r="K160" s="1">
         <v>145</v>
       </c>
@@ -7653,6 +8463,12 @@
       <c r="H161" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I161">
+        <v>75</v>
+      </c>
+      <c r="J161">
+        <v>16000</v>
+      </c>
       <c r="K161" s="1">
         <v>82</v>
       </c>
@@ -7688,6 +8504,12 @@
       <c r="H162" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I162">
+        <v>117</v>
+      </c>
+      <c r="J162">
+        <v>28000</v>
+      </c>
       <c r="K162" s="1">
         <v>175</v>
       </c>
@@ -7723,6 +8545,12 @@
       <c r="H163" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I163">
+        <v>50</v>
+      </c>
+      <c r="J163">
+        <v>15000</v>
+      </c>
       <c r="K163" s="1">
         <v>91</v>
       </c>
@@ -7758,6 +8586,12 @@
       <c r="H164" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I164">
+        <v>75</v>
+      </c>
+      <c r="J164">
+        <v>16000</v>
+      </c>
       <c r="K164" s="1">
         <v>150</v>
       </c>
@@ -7793,6 +8627,12 @@
       <c r="H165" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I165">
+        <v>117</v>
+      </c>
+      <c r="J165">
+        <v>28000</v>
+      </c>
       <c r="K165" s="1">
         <v>110</v>
       </c>
@@ -7828,6 +8668,12 @@
       <c r="H166" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I166">
+        <v>50</v>
+      </c>
+      <c r="J166">
+        <v>15000</v>
+      </c>
       <c r="K166" s="1">
         <v>60</v>
       </c>
@@ -7863,6 +8709,12 @@
       <c r="H167" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I167">
+        <v>75</v>
+      </c>
+      <c r="J167">
+        <v>16000</v>
+      </c>
       <c r="K167" s="1">
         <v>70</v>
       </c>
@@ -7898,6 +8750,12 @@
       <c r="H168" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I168">
+        <v>117</v>
+      </c>
+      <c r="J168">
+        <v>28000</v>
+      </c>
       <c r="K168" s="1">
         <v>147</v>
       </c>
@@ -7933,6 +8791,12 @@
       <c r="H169" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I169">
+        <v>50</v>
+      </c>
+      <c r="J169">
+        <v>15000</v>
+      </c>
       <c r="K169" s="1">
         <v>90</v>
       </c>
@@ -7968,6 +8832,12 @@
       <c r="H170" t="s">
         <v>22</v>
       </c>
+      <c r="I170">
+        <v>75</v>
+      </c>
+      <c r="J170">
+        <v>16000</v>
+      </c>
       <c r="K170" s="1">
         <v>100</v>
       </c>
@@ -8003,6 +8873,12 @@
       <c r="H171" t="s">
         <v>21</v>
       </c>
+      <c r="I171">
+        <v>117</v>
+      </c>
+      <c r="J171">
+        <v>28000</v>
+      </c>
       <c r="K171" s="1">
         <v>156</v>
       </c>
@@ -8038,6 +8914,12 @@
       <c r="H172" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I172">
+        <v>50</v>
+      </c>
+      <c r="J172">
+        <v>15000</v>
+      </c>
       <c r="K172" s="1">
         <v>80</v>
       </c>
@@ -8073,6 +8955,12 @@
       <c r="H173" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I173">
+        <v>75</v>
+      </c>
+      <c r="J173">
+        <v>16000</v>
+      </c>
       <c r="K173" s="1">
         <v>75</v>
       </c>
@@ -8108,6 +8996,12 @@
       <c r="H174" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I174">
+        <v>117</v>
+      </c>
+      <c r="J174">
+        <v>28000</v>
+      </c>
       <c r="K174" s="1">
         <v>121</v>
       </c>
@@ -8143,6 +9037,12 @@
       <c r="H175" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="I175">
+        <v>50</v>
+      </c>
+      <c r="J175">
+        <v>15000</v>
+      </c>
       <c r="K175" s="1">
         <v>131</v>
       </c>
@@ -8178,6 +9078,12 @@
       <c r="H176" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I176">
+        <v>75</v>
+      </c>
+      <c r="J176">
+        <v>16000</v>
+      </c>
       <c r="K176" s="1">
         <v>98</v>
       </c>
@@ -8213,6 +9119,12 @@
       <c r="H177" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I177">
+        <v>117</v>
+      </c>
+      <c r="J177">
+        <v>28000</v>
+      </c>
       <c r="K177" s="1">
         <v>132</v>
       </c>
@@ -8248,6 +9160,12 @@
       <c r="H178" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I178">
+        <v>50</v>
+      </c>
+      <c r="J178">
+        <v>15000</v>
+      </c>
       <c r="K178" s="1">
         <v>149</v>
       </c>
@@ -8283,6 +9201,12 @@
       <c r="H179" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="I179">
+        <v>75</v>
+      </c>
+      <c r="J179">
+        <v>16000</v>
+      </c>
       <c r="K179" s="1">
         <v>89</v>
       </c>
@@ -8318,6 +9242,12 @@
       <c r="H180" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I180">
+        <v>117</v>
+      </c>
+      <c r="J180">
+        <v>28000</v>
+      </c>
       <c r="K180" s="1">
         <v>69</v>
       </c>
@@ -8353,6 +9283,12 @@
       <c r="H181" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I181">
+        <v>50</v>
+      </c>
+      <c r="J181">
+        <v>15000</v>
+      </c>
       <c r="K181" s="1">
         <v>50</v>
       </c>
@@ -8388,6 +9324,12 @@
       <c r="H182" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I182">
+        <v>75</v>
+      </c>
+      <c r="J182">
+        <v>16000</v>
+      </c>
       <c r="K182" s="1">
         <v>134</v>
       </c>
@@ -8423,6 +9365,12 @@
       <c r="H183" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I183">
+        <v>117</v>
+      </c>
+      <c r="J183">
+        <v>28000</v>
+      </c>
       <c r="K183" s="1">
         <v>78</v>
       </c>
@@ -8458,6 +9406,12 @@
       <c r="H184" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I184">
+        <v>50</v>
+      </c>
+      <c r="J184">
+        <v>15000</v>
+      </c>
       <c r="K184" s="1">
         <v>145</v>
       </c>
@@ -8493,6 +9447,12 @@
       <c r="H185" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I185">
+        <v>75</v>
+      </c>
+      <c r="J185">
+        <v>16000</v>
+      </c>
       <c r="K185" s="1">
         <v>82</v>
       </c>
@@ -8528,6 +9488,12 @@
       <c r="H186" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I186">
+        <v>117</v>
+      </c>
+      <c r="J186">
+        <v>28000</v>
+      </c>
       <c r="K186" s="1">
         <v>175</v>
       </c>
@@ -8563,6 +9529,12 @@
       <c r="H187" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="I187">
+        <v>50</v>
+      </c>
+      <c r="J187">
+        <v>15000</v>
+      </c>
       <c r="K187" s="1">
         <v>91</v>
       </c>
@@ -8598,6 +9570,12 @@
       <c r="H188" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I188">
+        <v>75</v>
+      </c>
+      <c r="J188">
+        <v>16000</v>
+      </c>
       <c r="K188" s="1">
         <v>150</v>
       </c>
@@ -8633,6 +9611,12 @@
       <c r="H189" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I189">
+        <v>117</v>
+      </c>
+      <c r="J189">
+        <v>28000</v>
+      </c>
       <c r="K189" s="1">
         <v>110</v>
       </c>
@@ -8668,6 +9652,12 @@
       <c r="H190" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I190">
+        <v>50</v>
+      </c>
+      <c r="J190">
+        <v>15000</v>
+      </c>
       <c r="K190" s="1">
         <v>60</v>
       </c>
@@ -8703,6 +9693,12 @@
       <c r="H191" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I191">
+        <v>75</v>
+      </c>
+      <c r="J191">
+        <v>16000</v>
+      </c>
       <c r="K191" s="1">
         <v>70</v>
       </c>
@@ -8738,6 +9734,12 @@
       <c r="H192" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I192">
+        <v>117</v>
+      </c>
+      <c r="J192">
+        <v>28000</v>
+      </c>
       <c r="K192" s="1">
         <v>147</v>
       </c>
@@ -8772,6 +9774,12 @@
       </c>
       <c r="H193" s="7" t="s">
         <v>106</v>
+      </c>
+      <c r="I193">
+        <v>50</v>
+      </c>
+      <c r="J193">
+        <v>15000</v>
       </c>
       <c r="K193" s="1">
         <v>90</v>
@@ -8944,7 +9952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD59F98-9E92-490C-932F-B482BEFC87E4}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD441A6F-D526-4C1B-88A1-C95C629FBE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E6F5A-200F-4101-923E-2D28D3E0C45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1588,6 +1588,20 @@
     <tableColumn id="5" xr3:uid="{B3D3B5BA-85E2-49E3-A7E1-4F1317297D19}" name="Reaction (Any, Happy, Sad, Angry)"/>
     <tableColumn id="6" xr3:uid="{D0D4A58C-32DB-4F3D-B9FD-8C3465F8091F}" name="Narrative Subject (Government, Violence, Health, Radicalism)"/>
     <tableColumn id="7" xr3:uid="{44E759D3-CD71-49DA-8A1C-2BA34FC25D8E}" name="Publisher"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{103D08C7-DA4C-4F8C-80F6-5AFBF17EA556}" name="Table3" displayName="Table3" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{103D08C7-DA4C-4F8C-80F6-5AFBF17EA556}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{956ED486-AE82-4146-8CAD-99FBC1A02515}" name="Event Number (Integer)"/>
+    <tableColumn id="2" xr3:uid="{4EB92006-B123-4256-A786-0CF66AAAAD0E}" name="Day (Integer)"/>
+    <tableColumn id="3" xr3:uid="{70BC3B0A-D17B-46D4-8874-9C419DE11175}" name="Subject (Government, Violence, Health, Radicalism)"/>
+    <tableColumn id="4" xr3:uid="{98C7CB3D-0E3A-4329-8B8B-6DCE1B3ED87E}" name="Name (String)"/>
+    <tableColumn id="5" xr3:uid="{7D95D3ED-985E-4F7F-9C74-42E195DD8145}" name="Effect (For Programmer's Reference)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1858,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -1873,7 +1887,7 @@
     <col min="9" max="9" width="27.5703125" customWidth="1" outlineLevel="2"/>
     <col min="10" max="10" width="30.85546875" customWidth="1" outlineLevel="2"/>
     <col min="11" max="11" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8945,16 +8959,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9044,5 +9058,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E6F5A-200F-4101-923E-2D28D3E0C45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388345A3-6677-4015-8BAF-BD3A85FB0F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media Posts" sheetId="1" r:id="rId1"/>
     <sheet name="Boss' Orders" sheetId="2" r:id="rId2"/>
     <sheet name="Narrative Events" sheetId="3" r:id="rId3"/>
+    <sheet name="Text Messages" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="504">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -1403,12 +1404,6 @@
     <t>Event Number (Integer)</t>
   </si>
   <si>
-    <t>Effect (For Programmer's Reference)</t>
-  </si>
-  <si>
-    <t>None; test event</t>
-  </si>
-  <si>
     <t>Name (String)</t>
   </si>
   <si>
@@ -1422,6 +1417,129 @@
   </si>
   <si>
     <t>Anti-Government Protest</t>
+  </si>
+  <si>
+    <t>Message Number (Integer)</t>
+  </si>
+  <si>
+    <t>Corresponding Event Number (Integer)</t>
+  </si>
+  <si>
+    <t>Character/Sender (String)</t>
+  </si>
+  <si>
+    <t>Message (String)</t>
+  </si>
+  <si>
+    <t>Alexandre Reis</t>
+  </si>
+  <si>
+    <t>Meet Your Contacts</t>
+  </si>
+  <si>
+    <t>Braga Filha</t>
+  </si>
+  <si>
+    <t>Augusto Carreira</t>
+  </si>
+  <si>
+    <t>Patricia Jequitinda</t>
+  </si>
+  <si>
+    <t>Mc Leqkin</t>
+  </si>
+  <si>
+    <t>Doctor's Visit</t>
+  </si>
+  <si>
+    <t>Initial Epidemic Report</t>
+  </si>
+  <si>
+    <t>Public Speech</t>
+  </si>
+  <si>
+    <t>Separational Protests</t>
+  </si>
+  <si>
+    <t>Protestors Riot</t>
+  </si>
+  <si>
+    <t>News Station Hijack</t>
+  </si>
+  <si>
+    <t>News Station Hijack 2</t>
+  </si>
+  <si>
+    <t>Hijack</t>
+  </si>
+  <si>
+    <t>Effect (None, Hijack, Riot)</t>
+  </si>
+  <si>
+    <t>Heyo Moleque.|It's your uncle Alex; trying to figure out how to use this new texting thing on this phone.|Heard you got that new job at that fancy news company. Proud of ya!</t>
+  </si>
+  <si>
+    <t>Good Morning. This is your boss Braga Filha.|I hope to further speak with you as you work in our news department.</t>
+  </si>
+  <si>
+    <t>E ai pivetão! It's your old pal Augusto; still sitting back home with the rest of your buddies.|How's my favourite debtor doing now that you're sitting pretty working for the biggest company in the country eh!|Looking like a good opportunity for you to start making up some of those promises huh? We'll be in touch.</t>
+  </si>
+  <si>
+    <t>Hey cara; it's Patricia from college!|Just got some work as a freelance journalist and I'm looking for some help with my stories.|I figured since me and you are old pals that you could send me over a few scoops from the company pot for me to use.|I'll let you know if you can help me out. Anything you send helps a lot!</t>
+  </si>
+  <si>
+    <t>It's your old boy Leqkin!|Heard that you landed a job working at UCE! That's insane dude!|Listen; me and you got together some time chat about the grind you know?|I personally got some funky tunes I'd love to share with you over a Super Bock or two. Can't wait to chat!</t>
+  </si>
+  <si>
+    <t>Hello; and welcome to your first day working for us at Under Choices Entertainment.|I've added your personal number to allow for more direct communication if necessary.|I hope that you enjoy your time working for us and that you abide by our expectations.|I'll be in touch if you should need extra guidance.</t>
+  </si>
+  <si>
+    <t>As you may have heard from recent news; the country takes loyalty and obedience very seriously.|I'd like this to be a reminder to do your job properly; lest the U.S.A.R. hear about your potentially criminal behaviour.</t>
+  </si>
+  <si>
+    <t>Did you hear about what the U.S.A.R. has been doing to people that "disobey"?|It's ludicrous! People shouldn't have to stand for this!</t>
+  </si>
+  <si>
+    <t>Heyo Moleque; I know you're busy; but I need a ride to an apointment with the doc.|Nothing serious; just a check up. Apointment's tomorrow; just before you get on the clock.|I hope it's not too much trouble. I'll see you then.</t>
+  </si>
+  <si>
+    <t>Heyo there Moleque! Still at the doctor's office.|They're saying I'm fine; but they wanna have me back in in a few days for some blood tests.|Don't worry; they say it's just to make sure I'm in tip top shape. Loves ya!</t>
+  </si>
+  <si>
+    <t>Heyo Moleque! You been seeing this crazy stuff about that new flu they're talking about?|Got my neighbours going nuts about locking up the house. I told em that I am confident the govs got it all locked up.|Either way Moleque; hope you're staying safe and healthy!</t>
+  </si>
+  <si>
+    <t>I figured I'd issue a warning to certain staff members to try and stay inside your homes for the time being.|We don't want to risk our vital employess getting sick at this point in time.</t>
+  </si>
+  <si>
+    <t>Yo man! How you feeling? This flu stuff is kinda crazy right?|Some people back here have started to get sick. Hope you're staying healthy!</t>
+  </si>
+  <si>
+    <t>Ey; pivete. I got a favor I need done.|Me and my boys are looking to start a little trouble for the government; ya hear?|An' where there's trouble; there's money to be made; capiche?|If you could put in a few good words to spread around for your ole pal here; you'd be doing all the people back home a BIG favor eh?|I know you won't dissapoint.</t>
+  </si>
+  <si>
+    <t>Hey; hey; hey! Looking like the people have finally come to their senses eh?|You've done a good thing getting the ball rolling her pal.|Now just keep on feeding the people more stuff like that. Keep it up pivete.</t>
+  </si>
+  <si>
+    <t>You see the news about the separatists? Crazy huh?|It's really strange that this came out of the blue like this.|Such an organized group suddenly appearing in the heart of the country isn't exactly likely.|I wonder who could be organizing this?</t>
+  </si>
+  <si>
+    <t>You been seeing this news stuff?!|The public are really giving the gov something to worry about now huh? You're doing great work pivete.|The beginnings gonna be rough; but no one ever said things like this blew over easy.|Now; I need you to keep doing what you're doing; but start leading em my way now eh?|The folks are gonna need someone to buy from that ain't gonna check their ID's you know?|Thanks pal; I'll be sure to send you something pricy in the mail.</t>
+  </si>
+  <si>
+    <t>Hey meu irmão; aren't those riots that have been going on like down the street from you?!|I'm not saying to bounce outta there or anything; but man you gotta be careful!</t>
+  </si>
+  <si>
+    <t>Hey; you hear about the protests going on?|Sounds like people are starting to question the U.S.A.R. and how much they really stand for us.|Listen; I know you shouldn't be doing this; but I could really use your help in proving the people right. Could you help me?</t>
+  </si>
+  <si>
+    <t>You hear that broadcast. People are starting to speak up about what they believe in!|It's amazing. But... I would be lying if I said I wasn't a part of it.|Listen; this government is only using you to control the people. Don't let them!|There's more you can do to help not only me; but the whole country!</t>
+  </si>
+  <si>
+    <t>Yes! The broadcast went out without a hitch this time.|Listen; you've been doing wonders for helping us spread the truth about the U.S.A.R.|People are actually beginning to think for themselves instead of being brainwashed by their postings.|I've got some more things you could do to help buy us more time to get set up.</t>
+  </si>
+  <si>
+    <t>I am sending this under the suspicion that someone in our company has been intentionally sending out postings to help with the anti government movement.|UCE has reasons to believe you may be the culprit; as your recent chosen postings have been linked back to some anti government propaganda.|If you are doing this on purpose; this is the one and final warning to stop before we take action.</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1492,6 +1610,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1594,14 +1715,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{103D08C7-DA4C-4F8C-80F6-5AFBF17EA556}" name="Table3" displayName="Table3" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{103D08C7-DA4C-4F8C-80F6-5AFBF17EA556}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{103D08C7-DA4C-4F8C-80F6-5AFBF17EA556}" name="Table3" displayName="Table3" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{103D08C7-DA4C-4F8C-80F6-5AFBF17EA556}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{956ED486-AE82-4146-8CAD-99FBC1A02515}" name="Event Number (Integer)"/>
     <tableColumn id="2" xr3:uid="{4EB92006-B123-4256-A786-0CF66AAAAD0E}" name="Day (Integer)"/>
     <tableColumn id="3" xr3:uid="{70BC3B0A-D17B-46D4-8874-9C419DE11175}" name="Subject (Government, Violence, Health, Radicalism)"/>
     <tableColumn id="4" xr3:uid="{98C7CB3D-0E3A-4329-8B8B-6DCE1B3ED87E}" name="Name (String)"/>
-    <tableColumn id="5" xr3:uid="{7D95D3ED-985E-4F7F-9C74-42E195DD8145}" name="Effect (For Programmer's Reference)"/>
+    <tableColumn id="5" xr3:uid="{7D95D3ED-985E-4F7F-9C74-42E195DD8145}" name="Effect (None, Hijack, Riot)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{921C5637-9706-4446-8320-CB558172A517}" name="Table4" displayName="Table4" ref="A1:D24" totalsRowShown="0">
+  <autoFilter ref="A1:D24" xr:uid="{921C5637-9706-4446-8320-CB558172A517}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CE39192F-B6D7-4472-B374-5DB97162C254}" name="Message Number (Integer)"/>
+    <tableColumn id="2" xr3:uid="{9A040216-C5C8-466F-8EBF-534FF35CCBF5}" name="Corresponding Event Number (Integer)"/>
+    <tableColumn id="3" xr3:uid="{B8C33A95-6F65-491F-9F1C-B66B7AD93EFB}" name="Character/Sender (String)"/>
+    <tableColumn id="4" xr3:uid="{509029CE-C095-4CD6-96BD-167AD61AC54C}" name="Message (String)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8956,10 +9090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD59F98-9E92-490C-932F-B482BEFC87E4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8968,7 +9102,7 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8982,15 +9116,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E1" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8999,61 +9133,543 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>476</v>
+      </c>
+      <c r="E9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>478</v>
+      </c>
+      <c r="E12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53B4979-BA2F-42C6-BF9E-77AF10AFAE50}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="146.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" t="s">
         <v>464</v>
       </c>
-      <c r="E5" t="s">
-        <v>459</v>
+      <c r="C1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>470</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>472</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>471</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>471</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>471</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C621174-6426-425D-B318-5EEE9FDD1236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8233D2E9-CFE6-4171-B018-232C2BC1FF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media Posts" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="514">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -1567,6 +1567,9 @@
   </si>
   <si>
     <t>media_post_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violence </t>
   </si>
 </sst>
 </file>
@@ -1726,8 +1729,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}" name="Table2" displayName="Table2" ref="A1:G34" totalsRowShown="0">
-  <autoFilter ref="A1:G34" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}" name="Table2" displayName="Table2" ref="A1:G46" totalsRowShown="0">
+  <autoFilter ref="A1:G46" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7CB3FCC3-F2B4-4036-B5CC-37C665CD7209}" name="Order Number (Integer)"/>
     <tableColumn id="2" xr3:uid="{5D8A83C8-A0F0-4DEF-A5A9-98D66F18D69B}" name="Day (Integer)"/>
@@ -2033,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -9983,10 +9986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C29F16F-EAFE-4B18-A8CA-D239C88544B3}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10031,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>446</v>
@@ -10074,13 +10077,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>446</v>
@@ -10097,10 +10100,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -10120,16 +10123,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="E6" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -10143,7 +10146,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -10152,7 +10155,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -10166,16 +10169,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>446</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -10189,16 +10192,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -10212,10 +10215,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -10235,19 +10238,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>449</v>
@@ -10258,19 +10261,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>449</v>
@@ -10281,19 +10284,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="E13" t="s">
         <v>446</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>449</v>
@@ -10304,19 +10307,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>449</v>
@@ -10330,16 +10333,16 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
         <v>449</v>
@@ -10350,19 +10353,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>446</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>449</v>
@@ -10373,19 +10376,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
         <v>449</v>
@@ -10396,19 +10399,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
         <v>449</v>
@@ -10419,19 +10422,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>446</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>449</v>
@@ -10442,19 +10445,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>449</v>
@@ -10465,19 +10468,19 @@
         <v>20</v>
       </c>
       <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>446</v>
       </c>
       <c r="E21" t="s">
         <v>446</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>449</v>
@@ -10488,19 +10491,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>446</v>
       </c>
       <c r="E22" t="s">
         <v>446</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
         <v>449</v>
@@ -10511,19 +10514,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>446</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
         <v>449</v>
@@ -10534,19 +10537,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>446</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
         <v>449</v>
@@ -10557,19 +10560,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>446</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
         <v>449</v>
@@ -10580,19 +10583,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
         <v>446</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
         <v>449</v>
@@ -10603,19 +10606,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>446</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
         <v>449</v>
@@ -10626,19 +10629,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>446</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
         <v>449</v>
@@ -10649,19 +10652,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
         <v>446</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
         <v>449</v>
@@ -10672,19 +10675,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>446</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
         <v>449</v>
@@ -10695,19 +10698,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
         <v>446</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
         <v>449</v>
@@ -10718,19 +10721,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>446</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
         <v>449</v>
@@ -10741,19 +10744,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>446</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
         <v>449</v>
@@ -10764,21 +10767,297 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
         <v>446</v>
       </c>
       <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>446</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>446</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>446</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>446</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>32</v>
       </c>
-      <c r="G34" t="s">
+      <c r="E39" t="s">
+        <v>446</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>446</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>446</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>446</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>446</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>446</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>446</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>446</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
         <v>449</v>
       </c>
     </row>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8233D2E9-CFE6-4171-B018-232C2BC1FF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C7A99A-BB70-4F8B-825D-925226CF8AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="514">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -1729,8 +1729,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}" name="Table2" displayName="Table2" ref="A1:G46" totalsRowShown="0">
-  <autoFilter ref="A1:G46" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}" name="Table2" displayName="Table2" ref="A1:G62" totalsRowShown="0">
+  <autoFilter ref="A1:G62" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7CB3FCC3-F2B4-4036-B5CC-37C665CD7209}" name="Order Number (Integer)"/>
     <tableColumn id="2" xr3:uid="{5D8A83C8-A0F0-4DEF-A5A9-98D66F18D69B}" name="Day (Integer)"/>
@@ -9986,10 +9986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C29F16F-EAFE-4B18-A8CA-D239C88544B3}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10537,13 +10537,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
         <v>446</v>
@@ -10560,7 +10560,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -10569,7 +10569,7 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -10583,13 +10583,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>446</v>
@@ -10606,7 +10606,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10615,7 +10615,7 @@
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -10629,16 +10629,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -10652,10 +10652,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -10675,16 +10675,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -10698,7 +10698,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -10707,10 +10707,10 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
         <v>449</v>
@@ -10721,19 +10721,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>446</v>
       </c>
       <c r="E32" t="s">
         <v>446</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
         <v>449</v>
@@ -10744,19 +10744,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
         <v>449</v>
@@ -10767,19 +10767,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
         <v>449</v>
@@ -10793,16 +10793,16 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
         <v>449</v>
@@ -10813,19 +10813,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>446</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
         <v>449</v>
@@ -10836,19 +10836,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
         <v>449</v>
@@ -10859,19 +10859,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>446</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
         <v>449</v>
@@ -10882,19 +10882,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
         <v>449</v>
@@ -10905,19 +10905,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>446</v>
       </c>
       <c r="E40" t="s">
         <v>446</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
         <v>449</v>
@@ -10928,19 +10928,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
         <v>446</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
         <v>449</v>
@@ -10951,19 +10951,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
         <v>446</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
         <v>449</v>
@@ -10974,19 +10974,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
         <v>446</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
         <v>449</v>
@@ -10997,19 +10997,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>446</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
         <v>449</v>
@@ -11020,19 +11020,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
         <v>446</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
         <v>449</v>
@@ -11043,21 +11043,299 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
         <v>446</v>
       </c>
       <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>446</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>446</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>32</v>
       </c>
-      <c r="G46" t="s">
+      <c r="E49" t="s">
+        <v>446</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>446</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>446</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>446</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>446</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>446</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>446</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>446</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="G58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="G59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
         <v>449</v>
       </c>
     </row>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C7A99A-BB70-4F8B-825D-925226CF8AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E04A19-207D-4E55-A282-1E14B3804981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="514">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -1729,8 +1729,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}" name="Table2" displayName="Table2" ref="A1:G62" totalsRowShown="0">
-  <autoFilter ref="A1:G62" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}" name="Table2" displayName="Table2" ref="A1:G69" totalsRowShown="0">
+  <autoFilter ref="A1:G69" xr:uid="{9749EADB-2B48-4CF4-B2E3-4572522BED0C}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7CB3FCC3-F2B4-4036-B5CC-37C665CD7209}" name="Order Number (Integer)"/>
     <tableColumn id="2" xr3:uid="{5D8A83C8-A0F0-4DEF-A5A9-98D66F18D69B}" name="Day (Integer)"/>
@@ -9986,10 +9986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C29F16F-EAFE-4B18-A8CA-D239C88544B3}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10951,13 +10951,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
         <v>446</v>
@@ -10974,7 +10974,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -10983,7 +10983,7 @@
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -10997,7 +10997,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -11020,7 +11020,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -11029,7 +11029,7 @@
         <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>446</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -11043,16 +11043,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -11066,10 +11066,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -11089,16 +11089,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>446</v>
+        <v>23</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -11112,19 +11112,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
         <v>446</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
         <v>449</v>
@@ -11135,19 +11135,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
         <v>449</v>
@@ -11158,19 +11158,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
         <v>449</v>
@@ -11181,19 +11181,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>446</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
         <v>449</v>
@@ -11204,19 +11204,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
         <v>449</v>
@@ -11233,13 +11233,13 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
         <v>449</v>
@@ -11253,16 +11253,16 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>446</v>
       </c>
       <c r="E55" t="s">
         <v>446</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
         <v>449</v>
@@ -11273,19 +11273,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>446</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
         <v>449</v>
@@ -11295,6 +11295,21 @@
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>446</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
       <c r="G57" t="s">
         <v>449</v>
       </c>
@@ -11303,6 +11318,21 @@
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>446</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
       <c r="G58" t="s">
         <v>449</v>
       </c>
@@ -11311,6 +11341,21 @@
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
       <c r="G59" t="s">
         <v>449</v>
       </c>
@@ -11319,6 +11364,21 @@
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
       <c r="G60" t="s">
         <v>449</v>
       </c>
@@ -11327,6 +11387,21 @@
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
       <c r="G61" t="s">
         <v>449</v>
       </c>
@@ -11335,7 +11410,183 @@
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
       <c r="G62" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>446</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>446</v>
+      </c>
+      <c r="E69" t="s">
+        <v>446</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
         <v>449</v>
       </c>
     </row>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E04A19-207D-4E55-A282-1E14B3804981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523FD847-4FC0-4622-A5EA-0C65E563476D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media Posts" sheetId="1" r:id="rId1"/>
@@ -9988,8 +9988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C29F16F-EAFE-4B18-A8CA-D239C88544B3}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523FD847-4FC0-4622-A5EA-0C65E563476D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB081C-D511-4052-AA32-ACC0EBC10AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media Posts" sheetId="1" r:id="rId1"/>
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J170" sqref="J170:J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2126,7 +2126,7 @@
         <v>75</v>
       </c>
       <c r="J2">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
@@ -2170,7 +2170,7 @@
         <v>28000</v>
       </c>
       <c r="K3" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>33</v>
@@ -2211,7 +2211,7 @@
         <v>15000</v>
       </c>
       <c r="K4" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>34</v>
@@ -2252,7 +2252,7 @@
         <v>16000</v>
       </c>
       <c r="K5" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>35</v>
@@ -2290,10 +2290,10 @@
         <v>117</v>
       </c>
       <c r="J6">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="K6" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>36</v>
@@ -2334,7 +2334,7 @@
         <v>15000</v>
       </c>
       <c r="K7" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s">
         <v>107</v>
@@ -2372,10 +2372,10 @@
         <v>75</v>
       </c>
       <c r="J8">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="K8" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
         <v>108</v>
@@ -2416,7 +2416,7 @@
         <v>28000</v>
       </c>
       <c r="K9" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
         <v>109</v>
@@ -2454,10 +2454,10 @@
         <v>50</v>
       </c>
       <c r="J10">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="K10" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L10" t="s">
         <v>110</v>
@@ -2495,10 +2495,10 @@
         <v>75</v>
       </c>
       <c r="J11">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K11" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
         <v>111</v>
@@ -2536,10 +2536,10 @@
         <v>117</v>
       </c>
       <c r="J12">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="K12" s="1">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s">
         <v>230</v>
@@ -2577,10 +2577,10 @@
         <v>50</v>
       </c>
       <c r="J13">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="K13" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
         <v>112</v>
@@ -2618,10 +2618,10 @@
         <v>75</v>
       </c>
       <c r="J14">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="K14" s="1">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>44</v>
@@ -2662,7 +2662,7 @@
         <v>28000</v>
       </c>
       <c r="K15" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>45</v>
@@ -2703,7 +2703,7 @@
         <v>15000</v>
       </c>
       <c r="K16" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
         <v>113</v>
@@ -2744,7 +2744,7 @@
         <v>16000</v>
       </c>
       <c r="K17" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>47</v>
@@ -2782,10 +2782,10 @@
         <v>117</v>
       </c>
       <c r="J18">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="K18" s="1">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
         <v>114</v>
@@ -2826,7 +2826,7 @@
         <v>15000</v>
       </c>
       <c r="K19" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s">
         <v>115</v>
@@ -2864,7 +2864,7 @@
         <v>75</v>
       </c>
       <c r="J20">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="K20" s="1">
         <v>150</v>
@@ -2908,7 +2908,7 @@
         <v>28000</v>
       </c>
       <c r="K21" s="1">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>50</v>
@@ -2949,7 +2949,7 @@
         <v>15000</v>
       </c>
       <c r="K22" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>51</v>
@@ -2990,7 +2990,7 @@
         <v>16000</v>
       </c>
       <c r="K23" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>52</v>
@@ -3028,10 +3028,10 @@
         <v>117</v>
       </c>
       <c r="J24">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="K24" s="1">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>53</v>
@@ -3069,10 +3069,10 @@
         <v>50</v>
       </c>
       <c r="J25">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="K25" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>54</v>
@@ -3110,7 +3110,7 @@
         <v>100</v>
       </c>
       <c r="J26">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K26" s="1">
         <v>100</v>
@@ -3151,10 +3151,10 @@
         <v>100</v>
       </c>
       <c r="J27">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K27" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>117</v>
@@ -3192,10 +3192,10 @@
         <v>100</v>
       </c>
       <c r="J28">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K28" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>118</v>
@@ -3233,10 +3233,10 @@
         <v>100</v>
       </c>
       <c r="J29">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K29" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>55</v>
@@ -3274,10 +3274,10 @@
         <v>100</v>
       </c>
       <c r="J30">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K30" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>56</v>
@@ -3315,10 +3315,10 @@
         <v>100</v>
       </c>
       <c r="J31">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K31" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>119</v>
@@ -3356,10 +3356,10 @@
         <v>100</v>
       </c>
       <c r="J32">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K32" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>57</v>
@@ -3397,10 +3397,10 @@
         <v>100</v>
       </c>
       <c r="J33">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K33" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>58</v>
@@ -3438,10 +3438,10 @@
         <v>100</v>
       </c>
       <c r="J34">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K34" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>59</v>
@@ -3479,10 +3479,10 @@
         <v>100</v>
       </c>
       <c r="J35">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K35" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>60</v>
@@ -3523,7 +3523,7 @@
         <v>10000</v>
       </c>
       <c r="K36" s="1">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>61</v>
@@ -3561,10 +3561,10 @@
         <v>100</v>
       </c>
       <c r="J37">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K37" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>62</v>
@@ -3602,10 +3602,10 @@
         <v>100</v>
       </c>
       <c r="J38">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K38" s="1">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>63</v>
@@ -3643,10 +3643,10 @@
         <v>100</v>
       </c>
       <c r="J39">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K39" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>64</v>
@@ -3684,10 +3684,10 @@
         <v>100</v>
       </c>
       <c r="J40">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K40" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>65</v>
@@ -3725,10 +3725,10 @@
         <v>100</v>
       </c>
       <c r="J41">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K41" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>66</v>
@@ -3766,10 +3766,10 @@
         <v>100</v>
       </c>
       <c r="J42">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K42" s="1">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>67</v>
@@ -3807,10 +3807,10 @@
         <v>100</v>
       </c>
       <c r="J43">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K43" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>68</v>
@@ -3848,7 +3848,7 @@
         <v>100</v>
       </c>
       <c r="J44">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K44" s="1">
         <v>150</v>
@@ -3889,10 +3889,10 @@
         <v>100</v>
       </c>
       <c r="J45">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K45" s="1">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>73</v>
@@ -3930,10 +3930,10 @@
         <v>100</v>
       </c>
       <c r="J46">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K46" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>69</v>
@@ -3971,10 +3971,10 @@
         <v>100</v>
       </c>
       <c r="J47">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K47" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>70</v>
@@ -4012,10 +4012,10 @@
         <v>100</v>
       </c>
       <c r="J48">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K48" s="1">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>71</v>
@@ -4053,10 +4053,10 @@
         <v>100</v>
       </c>
       <c r="J49">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K49" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>72</v>
@@ -4094,7 +4094,7 @@
         <v>100</v>
       </c>
       <c r="J50">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K50" s="1">
         <v>100</v>
@@ -4135,10 +4135,10 @@
         <v>100</v>
       </c>
       <c r="J51">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K51" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>122</v>
@@ -4176,10 +4176,10 @@
         <v>100</v>
       </c>
       <c r="J52">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K52" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L52" t="s">
         <v>123</v>
@@ -4217,10 +4217,10 @@
         <v>100</v>
       </c>
       <c r="J53">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K53" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>124</v>
@@ -4258,10 +4258,10 @@
         <v>100</v>
       </c>
       <c r="J54">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K54" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>125</v>
@@ -4299,10 +4299,10 @@
         <v>100</v>
       </c>
       <c r="J55">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K55" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>126</v>
@@ -4340,10 +4340,10 @@
         <v>100</v>
       </c>
       <c r="J56">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K56" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>127</v>
@@ -4381,10 +4381,10 @@
         <v>100</v>
       </c>
       <c r="J57">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K57" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>128</v>
@@ -4422,10 +4422,10 @@
         <v>100</v>
       </c>
       <c r="J58">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K58" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>129</v>
@@ -4463,10 +4463,10 @@
         <v>100</v>
       </c>
       <c r="J59">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K59" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>40</v>
@@ -4507,7 +4507,7 @@
         <v>10000</v>
       </c>
       <c r="K60" s="1">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>130</v>
@@ -4545,10 +4545,10 @@
         <v>100</v>
       </c>
       <c r="J61">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K61" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>231</v>
@@ -4586,10 +4586,10 @@
         <v>100</v>
       </c>
       <c r="J62">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K62" s="1">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>131</v>
@@ -4627,10 +4627,10 @@
         <v>100</v>
       </c>
       <c r="J63">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K63" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>132</v>
@@ -4668,10 +4668,10 @@
         <v>100</v>
       </c>
       <c r="J64">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K64" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>133</v>
@@ -4709,10 +4709,10 @@
         <v>100</v>
       </c>
       <c r="J65">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K65" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>134</v>
@@ -4750,10 +4750,10 @@
         <v>100</v>
       </c>
       <c r="J66">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K66" s="1">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>135</v>
@@ -4791,10 +4791,10 @@
         <v>100</v>
       </c>
       <c r="J67">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K67" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L67" t="s">
         <v>136</v>
@@ -4832,7 +4832,7 @@
         <v>100</v>
       </c>
       <c r="J68">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K68" s="1">
         <v>150</v>
@@ -4873,10 +4873,10 @@
         <v>100</v>
       </c>
       <c r="J69">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K69" s="1">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>138</v>
@@ -4914,10 +4914,10 @@
         <v>100</v>
       </c>
       <c r="J70">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K70" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>139</v>
@@ -4955,10 +4955,10 @@
         <v>100</v>
       </c>
       <c r="J71">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K71" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>140</v>
@@ -4996,10 +4996,10 @@
         <v>100</v>
       </c>
       <c r="J72">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K72" s="1">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>141</v>
@@ -5037,10 +5037,10 @@
         <v>100</v>
       </c>
       <c r="J73">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K73" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>142</v>
@@ -5078,7 +5078,7 @@
         <v>100</v>
       </c>
       <c r="J74">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K74" s="1">
         <v>100</v>
@@ -5119,10 +5119,10 @@
         <v>100</v>
       </c>
       <c r="J75">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K75" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>122</v>
@@ -5160,10 +5160,10 @@
         <v>100</v>
       </c>
       <c r="J76">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K76" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>144</v>
@@ -5201,10 +5201,10 @@
         <v>100</v>
       </c>
       <c r="J77">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K77" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>145</v>
@@ -5242,10 +5242,10 @@
         <v>100</v>
       </c>
       <c r="J78">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K78" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>146</v>
@@ -5283,10 +5283,10 @@
         <v>100</v>
       </c>
       <c r="J79">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K79" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>147</v>
@@ -5324,10 +5324,10 @@
         <v>100</v>
       </c>
       <c r="J80">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K80" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>148</v>
@@ -5365,10 +5365,10 @@
         <v>100</v>
       </c>
       <c r="J81">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K81" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>149</v>
@@ -5406,10 +5406,10 @@
         <v>100</v>
       </c>
       <c r="J82">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K82" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>150</v>
@@ -5447,10 +5447,10 @@
         <v>100</v>
       </c>
       <c r="J83">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K83" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>41</v>
@@ -5491,7 +5491,7 @@
         <v>10000</v>
       </c>
       <c r="K84" s="1">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>151</v>
@@ -5529,10 +5529,10 @@
         <v>100</v>
       </c>
       <c r="J85">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K85" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>152</v>
@@ -5570,10 +5570,10 @@
         <v>100</v>
       </c>
       <c r="J86">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K86" s="1">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>153</v>
@@ -5611,10 +5611,10 @@
         <v>100</v>
       </c>
       <c r="J87">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K87" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>154</v>
@@ -5652,10 +5652,10 @@
         <v>100</v>
       </c>
       <c r="J88">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K88" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>155</v>
@@ -5693,10 +5693,10 @@
         <v>100</v>
       </c>
       <c r="J89">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K89" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>156</v>
@@ -5734,10 +5734,10 @@
         <v>100</v>
       </c>
       <c r="J90">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K90" s="1">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>157</v>
@@ -5775,10 +5775,10 @@
         <v>100</v>
       </c>
       <c r="J91">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K91" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>158</v>
@@ -5816,7 +5816,7 @@
         <v>100</v>
       </c>
       <c r="J92">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K92" s="1">
         <v>150</v>
@@ -5857,10 +5857,10 @@
         <v>100</v>
       </c>
       <c r="J93">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K93" s="1">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>160</v>
@@ -5898,10 +5898,10 @@
         <v>100</v>
       </c>
       <c r="J94">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K94" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>161</v>
@@ -5939,10 +5939,10 @@
         <v>100</v>
       </c>
       <c r="J95">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K95" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>162</v>
@@ -5980,10 +5980,10 @@
         <v>100</v>
       </c>
       <c r="J96">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K96" s="1">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>163</v>
@@ -6021,10 +6021,10 @@
         <v>100</v>
       </c>
       <c r="J97">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K97" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>164</v>
@@ -6062,7 +6062,7 @@
         <v>100</v>
       </c>
       <c r="J98">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K98" s="1">
         <v>100</v>
@@ -6103,10 +6103,10 @@
         <v>100</v>
       </c>
       <c r="J99">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K99" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>166</v>
@@ -6144,10 +6144,10 @@
         <v>100</v>
       </c>
       <c r="J100">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K100" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>167</v>
@@ -6185,10 +6185,10 @@
         <v>100</v>
       </c>
       <c r="J101">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K101" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L101" s="7" t="s">
         <v>168</v>
@@ -6226,10 +6226,10 @@
         <v>100</v>
       </c>
       <c r="J102">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K102" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>169</v>
@@ -6267,10 +6267,10 @@
         <v>100</v>
       </c>
       <c r="J103">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K103" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L103" s="7" t="s">
         <v>170</v>
@@ -6308,10 +6308,10 @@
         <v>100</v>
       </c>
       <c r="J104">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K104" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L104" s="7" t="s">
         <v>38</v>
@@ -6349,10 +6349,10 @@
         <v>100</v>
       </c>
       <c r="J105">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K105" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>171</v>
@@ -6390,10 +6390,10 @@
         <v>100</v>
       </c>
       <c r="J106">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K106" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L106" s="7" t="s">
         <v>46</v>
@@ -6431,10 +6431,10 @@
         <v>100</v>
       </c>
       <c r="J107">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K107" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>172</v>
@@ -6475,7 +6475,7 @@
         <v>10000</v>
       </c>
       <c r="K108" s="1">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>42</v>
@@ -6513,10 +6513,10 @@
         <v>100</v>
       </c>
       <c r="J109">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K109" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L109" s="7" t="s">
         <v>232</v>
@@ -6554,10 +6554,10 @@
         <v>100</v>
       </c>
       <c r="J110">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K110" s="1">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>173</v>
@@ -6595,10 +6595,10 @@
         <v>100</v>
       </c>
       <c r="J111">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K111" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>174</v>
@@ -6636,10 +6636,10 @@
         <v>100</v>
       </c>
       <c r="J112">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K112" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L112" s="7" t="s">
         <v>175</v>
@@ -6677,10 +6677,10 @@
         <v>100</v>
       </c>
       <c r="J113">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K113" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>176</v>
@@ -6718,10 +6718,10 @@
         <v>100</v>
       </c>
       <c r="J114">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K114" s="1">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>48</v>
@@ -6759,10 +6759,10 @@
         <v>100</v>
       </c>
       <c r="J115">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K115" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>177</v>
@@ -6800,7 +6800,7 @@
         <v>100</v>
       </c>
       <c r="J116">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K116" s="1">
         <v>150</v>
@@ -6841,10 +6841,10 @@
         <v>100</v>
       </c>
       <c r="J117">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K117" s="1">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>179</v>
@@ -6882,10 +6882,10 @@
         <v>100</v>
       </c>
       <c r="J118">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K118" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L118" s="7" t="s">
         <v>180</v>
@@ -6923,10 +6923,10 @@
         <v>100</v>
       </c>
       <c r="J119">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K119" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L119" s="7" t="s">
         <v>181</v>
@@ -6964,10 +6964,10 @@
         <v>100</v>
       </c>
       <c r="J120">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K120" s="1">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="L120" s="7" t="s">
         <v>182</v>
@@ -7005,10 +7005,10 @@
         <v>100</v>
       </c>
       <c r="J121">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K121" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>183</v>
@@ -7046,7 +7046,7 @@
         <v>100</v>
       </c>
       <c r="J122">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K122" s="1">
         <v>100</v>
@@ -7087,10 +7087,10 @@
         <v>100</v>
       </c>
       <c r="J123">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K123" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L123" s="8" t="s">
         <v>185</v>
@@ -7128,10 +7128,10 @@
         <v>100</v>
       </c>
       <c r="J124">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K124" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L124" s="7" t="s">
         <v>186</v>
@@ -7169,10 +7169,10 @@
         <v>100</v>
       </c>
       <c r="J125">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K125" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L125" s="7" t="s">
         <v>187</v>
@@ -7210,10 +7210,10 @@
         <v>100</v>
       </c>
       <c r="J126">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K126" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L126" s="7" t="s">
         <v>188</v>
@@ -7251,10 +7251,10 @@
         <v>100</v>
       </c>
       <c r="J127">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K127" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L127" s="7" t="s">
         <v>189</v>
@@ -7292,10 +7292,10 @@
         <v>100</v>
       </c>
       <c r="J128">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K128" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L128" s="7" t="s">
         <v>190</v>
@@ -7333,10 +7333,10 @@
         <v>100</v>
       </c>
       <c r="J129">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K129" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L129" s="7" t="s">
         <v>191</v>
@@ -7374,10 +7374,10 @@
         <v>100</v>
       </c>
       <c r="J130">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K130" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L130" s="7" t="s">
         <v>192</v>
@@ -7415,10 +7415,10 @@
         <v>100</v>
       </c>
       <c r="J131">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K131" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>193</v>
@@ -7459,7 +7459,7 @@
         <v>10000</v>
       </c>
       <c r="K132" s="1">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L132" s="7" t="s">
         <v>37</v>
@@ -7497,10 +7497,10 @@
         <v>100</v>
       </c>
       <c r="J133">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K133" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L133" s="7" t="s">
         <v>194</v>
@@ -7538,10 +7538,10 @@
         <v>100</v>
       </c>
       <c r="J134">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K134" s="1">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L134" s="7" t="s">
         <v>195</v>
@@ -7579,10 +7579,10 @@
         <v>100</v>
       </c>
       <c r="J135">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K135" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L135" s="7" t="s">
         <v>196</v>
@@ -7620,10 +7620,10 @@
         <v>100</v>
       </c>
       <c r="J136">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K136" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>197</v>
@@ -7661,10 +7661,10 @@
         <v>100</v>
       </c>
       <c r="J137">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K137" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L137" s="7" t="s">
         <v>198</v>
@@ -7702,10 +7702,10 @@
         <v>100</v>
       </c>
       <c r="J138">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K138" s="1">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L138" s="7" t="s">
         <v>199</v>
@@ -7743,10 +7743,10 @@
         <v>100</v>
       </c>
       <c r="J139">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K139" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L139" s="7" t="s">
         <v>200</v>
@@ -7784,7 +7784,7 @@
         <v>100</v>
       </c>
       <c r="J140">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K140" s="1">
         <v>150</v>
@@ -7825,10 +7825,10 @@
         <v>100</v>
       </c>
       <c r="J141">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K141" s="1">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L141" s="7" t="s">
         <v>202</v>
@@ -7866,10 +7866,10 @@
         <v>100</v>
       </c>
       <c r="J142">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K142" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L142" s="7" t="s">
         <v>203</v>
@@ -7907,10 +7907,10 @@
         <v>100</v>
       </c>
       <c r="J143">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K143" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L143" s="7" t="s">
         <v>204</v>
@@ -7948,10 +7948,10 @@
         <v>100</v>
       </c>
       <c r="J144">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K144" s="1">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="L144" s="7" t="s">
         <v>205</v>
@@ -7989,10 +7989,10 @@
         <v>100</v>
       </c>
       <c r="J145">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K145" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L145" s="7" t="s">
         <v>215</v>
@@ -8030,7 +8030,7 @@
         <v>100</v>
       </c>
       <c r="J146">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K146" s="1">
         <v>100</v>
@@ -8071,10 +8071,10 @@
         <v>100</v>
       </c>
       <c r="J147">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K147" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L147" s="7" t="s">
         <v>207</v>
@@ -8112,10 +8112,10 @@
         <v>100</v>
       </c>
       <c r="J148">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K148" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L148" s="7" t="s">
         <v>208</v>
@@ -8153,10 +8153,10 @@
         <v>100</v>
       </c>
       <c r="J149">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K149" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L149" s="7" t="s">
         <v>209</v>
@@ -8194,10 +8194,10 @@
         <v>100</v>
       </c>
       <c r="J150">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K150" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L150" s="7" t="s">
         <v>210</v>
@@ -8235,10 +8235,10 @@
         <v>100</v>
       </c>
       <c r="J151">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K151" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L151" s="7" t="s">
         <v>211</v>
@@ -8276,10 +8276,10 @@
         <v>100</v>
       </c>
       <c r="J152">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K152" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L152" s="7" t="s">
         <v>212</v>
@@ -8317,10 +8317,10 @@
         <v>100</v>
       </c>
       <c r="J153">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K153" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L153" s="7" t="s">
         <v>39</v>
@@ -8358,10 +8358,10 @@
         <v>100</v>
       </c>
       <c r="J154">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K154" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L154" s="7" t="s">
         <v>213</v>
@@ -8399,10 +8399,10 @@
         <v>100</v>
       </c>
       <c r="J155">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K155" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L155" s="7" t="s">
         <v>214</v>
@@ -8443,7 +8443,7 @@
         <v>10000</v>
       </c>
       <c r="K156" s="1">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L156" s="7" t="s">
         <v>216</v>
@@ -8481,10 +8481,10 @@
         <v>100</v>
       </c>
       <c r="J157">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K157" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L157" s="7" t="s">
         <v>217</v>
@@ -8522,10 +8522,10 @@
         <v>100</v>
       </c>
       <c r="J158">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K158" s="1">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L158" s="7" t="s">
         <v>218</v>
@@ -8563,10 +8563,10 @@
         <v>100</v>
       </c>
       <c r="J159">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K159" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L159" s="7" t="s">
         <v>219</v>
@@ -8604,10 +8604,10 @@
         <v>100</v>
       </c>
       <c r="J160">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K160" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L160" s="7" t="s">
         <v>220</v>
@@ -8645,10 +8645,10 @@
         <v>100</v>
       </c>
       <c r="J161">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K161" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L161" s="7" t="s">
         <v>221</v>
@@ -8686,10 +8686,10 @@
         <v>100</v>
       </c>
       <c r="J162">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K162" s="1">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L162" s="7" t="s">
         <v>222</v>
@@ -8727,10 +8727,10 @@
         <v>100</v>
       </c>
       <c r="J163">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K163" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L163" s="7" t="s">
         <v>223</v>
@@ -8768,7 +8768,7 @@
         <v>100</v>
       </c>
       <c r="J164">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K164" s="1">
         <v>150</v>
@@ -8809,10 +8809,10 @@
         <v>100</v>
       </c>
       <c r="J165">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K165" s="1">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L165" s="7" t="s">
         <v>226</v>
@@ -8850,10 +8850,10 @@
         <v>100</v>
       </c>
       <c r="J166">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K166" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L166" s="7" t="s">
         <v>227</v>
@@ -8891,10 +8891,10 @@
         <v>100</v>
       </c>
       <c r="J167">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K167" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L167" s="7" t="s">
         <v>229</v>
@@ -8932,10 +8932,10 @@
         <v>100</v>
       </c>
       <c r="J168">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K168" s="1">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="L168" s="7" t="s">
         <v>228</v>
@@ -8973,10 +8973,10 @@
         <v>100</v>
       </c>
       <c r="J169">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K169" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L169" s="7" t="s">
         <v>224</v>
@@ -9014,7 +9014,7 @@
         <v>100</v>
       </c>
       <c r="J170">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K170" s="1">
         <v>100</v>
@@ -9055,10 +9055,10 @@
         <v>100</v>
       </c>
       <c r="J171">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K171" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L171" s="7" t="s">
         <v>233</v>
@@ -9096,10 +9096,10 @@
         <v>100</v>
       </c>
       <c r="J172">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K172" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L172" s="7" t="s">
         <v>234</v>
@@ -9137,10 +9137,10 @@
         <v>100</v>
       </c>
       <c r="J173">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K173" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L173" s="7" t="s">
         <v>235</v>
@@ -9178,10 +9178,10 @@
         <v>100</v>
       </c>
       <c r="J174">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K174" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L174" s="7" t="s">
         <v>236</v>
@@ -9219,10 +9219,10 @@
         <v>100</v>
       </c>
       <c r="J175">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K175" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L175" s="7" t="s">
         <v>237</v>
@@ -9260,10 +9260,10 @@
         <v>100</v>
       </c>
       <c r="J176">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K176" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L176" s="7" t="s">
         <v>240</v>
@@ -9301,10 +9301,10 @@
         <v>100</v>
       </c>
       <c r="J177">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K177" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L177" s="7" t="s">
         <v>242</v>
@@ -9342,10 +9342,10 @@
         <v>100</v>
       </c>
       <c r="J178">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K178" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L178" s="7" t="s">
         <v>238</v>
@@ -9383,10 +9383,10 @@
         <v>100</v>
       </c>
       <c r="J179">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K179" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L179" s="7" t="s">
         <v>239</v>
@@ -9427,7 +9427,7 @@
         <v>10000</v>
       </c>
       <c r="K180" s="1">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L180" s="7" t="s">
         <v>43</v>
@@ -9465,10 +9465,10 @@
         <v>100</v>
       </c>
       <c r="J181">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K181" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L181" s="7" t="s">
         <v>241</v>
@@ -9506,10 +9506,10 @@
         <v>100</v>
       </c>
       <c r="J182">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K182" s="1">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L182" s="7" t="s">
         <v>243</v>
@@ -9547,10 +9547,10 @@
         <v>100</v>
       </c>
       <c r="J183">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K183" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L183" s="7" t="s">
         <v>244</v>
@@ -9588,10 +9588,10 @@
         <v>100</v>
       </c>
       <c r="J184">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K184" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L184" s="7" t="s">
         <v>245</v>
@@ -9629,10 +9629,10 @@
         <v>100</v>
       </c>
       <c r="J185">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K185" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L185" s="7" t="s">
         <v>246</v>
@@ -9670,10 +9670,10 @@
         <v>100</v>
       </c>
       <c r="J186">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K186" s="1">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L186" s="7" t="s">
         <v>247</v>
@@ -9711,10 +9711,10 @@
         <v>100</v>
       </c>
       <c r="J187">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K187" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L187" s="7" t="s">
         <v>248</v>
@@ -9752,7 +9752,7 @@
         <v>100</v>
       </c>
       <c r="J188">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K188" s="1">
         <v>150</v>
@@ -9793,10 +9793,10 @@
         <v>100</v>
       </c>
       <c r="J189">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K189" s="1">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L189" s="7" t="s">
         <v>250</v>
@@ -9834,10 +9834,10 @@
         <v>100</v>
       </c>
       <c r="J190">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K190" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L190" s="7" t="s">
         <v>251</v>
@@ -9875,10 +9875,10 @@
         <v>100</v>
       </c>
       <c r="J191">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K191" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L191" s="7" t="s">
         <v>252</v>
@@ -9916,10 +9916,10 @@
         <v>100</v>
       </c>
       <c r="J192">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K192" s="1">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="L192" s="7" t="s">
         <v>253</v>
@@ -9957,10 +9957,10 @@
         <v>100</v>
       </c>
       <c r="J193">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K193" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L193" s="7" t="s">
         <v>254</v>
@@ -9988,7 +9988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C29F16F-EAFE-4B18-A8CA-D239C88544B3}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptun\Desktop\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4ACDA8-0FC6-47CC-9660-F82DD1F108CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73689B42-8DF5-473F-86E8-853E6C36264C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media Posts" sheetId="1" r:id="rId1"/>
@@ -1467,9 +1467,6 @@
     <t>Heyo Moleque.|It's your uncle Alex; trying to figure out how to use this new texting thing on this phone.|Heard you got that new job at that fancy news company. Proud of ya!</t>
   </si>
   <si>
-    <t>Good Morning. This is your boss Braga Filha.|I hope to further speak with you as you work in our news department.</t>
-  </si>
-  <si>
     <t>E ai pivetão! It's your old pal Augusto; still sitting back home with the rest of your buddies.|How's my favourite debtor doing now that you're sitting pretty working for the biggest company in the country eh!|Looking like a good opportunity for you to start making up some of those promises huh? We'll be in touch.</t>
   </si>
   <si>
@@ -1479,12 +1476,6 @@
     <t>It's your old boy Leqkin!|Heard that you landed a job working at UCE! That's insane dude!|Listen; me and you got together some time chat about the grind you know?|I personally got some funky tunes I'd love to share with you over a Super Bock or two. Can't wait to chat!</t>
   </si>
   <si>
-    <t>Hello; and welcome to your first day working for us at Under Choices Entertainment.|I've added your personal number to allow for more direct communication if necessary.|I hope that you enjoy your time working for us and that you abide by our expectations.|I'll be in touch if you should need extra guidance.</t>
-  </si>
-  <si>
-    <t>As you may have heard from recent news; the country takes loyalty and obedience very seriously.|I'd like this to be a reminder to do your job properly; lest the U.S.A.R. hear about your potentially criminal behaviour.</t>
-  </si>
-  <si>
     <t>Did you hear about what the U.S.A.R. has been doing to people that "disobey"?|It's ludicrous! People shouldn't have to stand for this!</t>
   </si>
   <si>
@@ -1497,9 +1488,6 @@
     <t>Heyo Moleque! You been seeing this crazy stuff about that new flu they're talking about?|Got my neighbours going nuts about locking up the house. I told em that I am confident the govs got it all locked up.|Either way Moleque; hope you're staying safe and healthy!</t>
   </si>
   <si>
-    <t>I figured I'd issue a warning to certain staff members to try and stay inside your homes for the time being.|We don't want to risk our vital employess getting sick at this point in time.</t>
-  </si>
-  <si>
     <t>Yo man! How you feeling? This flu stuff is kinda crazy right?|Some people back here have started to get sick. Hope you're staying healthy!</t>
   </si>
   <si>
@@ -1527,9 +1515,6 @@
     <t>Yes! The broadcast went out without a hitch this time.|Listen; you've been doing wonders for helping us spread the truth about the U.S.A.R.|People are actually beginning to think for themselves instead of being brainwashed by their postings.|I've got some more things you could do to help buy us more time to get set up.</t>
   </si>
   <si>
-    <t>I am sending this under the suspicion that someone in our company has been intentionally sending out postings to help with the anti government movement.|UCE has reasons to believe you may be the culprit; as your recent chosen postings have been linked back to some anti government propaganda.|If you are doing this on purpose; this is the one and final warning to stop before we take action.</t>
-  </si>
-  <si>
     <t>Day (Integer, 0-8)</t>
   </si>
   <si>
@@ -1560,9 +1545,6 @@
     <t>Well done. So far you have done as expected of you on your first shift.|I hope you are prepared to continue your work and support our efforts.|Keep up the good work and expect to see more messages from me in the following days.</t>
   </si>
   <si>
-    <t>I take pleasure in informing you that you have no orders today; as we have discerned the source of our inapropriately posted news adverts.|You. Your work term has been terminated and company officials are on route to retrieve company property from your home.|You will no longer be able to injure and herd the people of our glorious country. Good night and good riddance.</t>
-  </si>
-  <si>
     <t>media_post_05</t>
   </si>
   <si>
@@ -1774,6 +1756,24 @@
   </si>
   <si>
     <t>NecessaryEvil</t>
+  </si>
+  <si>
+    <t>Good Morning. I am Braga Filha, your boss.|I will further speak with you as you work in our news department.</t>
+  </si>
+  <si>
+    <t>Welcome to your first day working for us at Under Choices Entertainment.|I've added your personal number to allow for more direct communication if necessary.|I hope that you enjoy your time working for us and that you abide by our expectations.|Contact me if you need extra guidance.</t>
+  </si>
+  <si>
+    <t>This is a warning to certain staff members to stay inside your homes for the time being.|We don't want to risk our vital employees getting sick at this point in time.</t>
+  </si>
+  <si>
+    <t>As you may have heard from recent news; the country takes loyalty and obedience very seriously.|I'd like to remind you to do your job properly; lest the U.S.A.R. hear about your potentially criminal behaviour.</t>
+  </si>
+  <si>
+    <t>I take pleasure in informing you that you have no orders today; as we have discerned the source of our inappropriately posted news adverts.|You. Your work term has been terminated and company officials are on route to retrieve company property from your home.|You will no longer be able to injure and herd the people of our glorious country. Good night and good riddance.</t>
+  </si>
+  <si>
+    <t>Someone in our company has been intentionally sending out postings to help with the anti-government movement.|UCE has reasons to believe you may be the culprit; as your recent chosen postings have been linked back to some anti-government propaganda.|If you are doing this on purpose; this is your only warning to stop before we take action.</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2342,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2394,11 +2394,11 @@
       </c>
       <c r="G2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>VoteAgain</v>
       </c>
       <c r="H2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="I2">
         <v>75</v>
@@ -2434,15 +2434,15 @@
       </c>
       <c r="F3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="G3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="H3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>People'sVoice</v>
       </c>
       <c r="I3">
         <v>117</v>
@@ -2478,15 +2478,15 @@
       </c>
       <c r="F4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -2526,11 +2526,11 @@
       </c>
       <c r="G5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>ItsOver</v>
       </c>
       <c r="H5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>NoFaith</v>
       </c>
       <c r="I5">
         <v>75</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="F6" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="G6" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="H6" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="I6">
         <v>117</v>
@@ -2610,15 +2610,15 @@
       </c>
       <c r="F7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="G7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>RiotTIME</v>
       </c>
       <c r="H7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>RaidingNight</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -2633,7 +2633,7 @@
         <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2654,15 +2654,15 @@
       </c>
       <c r="F8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Hero</v>
       </c>
       <c r="G8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="H8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Justice</v>
       </c>
       <c r="I8">
         <v>75</v>
@@ -2677,7 +2677,7 @@
         <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2698,11 +2698,11 @@
       </c>
       <c r="F9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>Justice</v>
       </c>
       <c r="G9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Justice</v>
       </c>
       <c r="H9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -2721,7 +2721,7 @@
         <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2742,15 +2742,15 @@
       </c>
       <c r="F10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>TooSoon</v>
       </c>
       <c r="H10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>WhatAShame</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -2765,7 +2765,7 @@
         <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2786,15 +2786,15 @@
       </c>
       <c r="F11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>Pathetic</v>
       </c>
       <c r="G11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>WhatAShame</v>
       </c>
       <c r="H11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>PrayForThem</v>
       </c>
       <c r="I11">
         <v>75</v>
@@ -2809,7 +2809,7 @@
         <v>103</v>
       </c>
       <c r="M11" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2830,15 +2830,15 @@
       </c>
       <c r="F12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>Despicable!</v>
       </c>
       <c r="G12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="H12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="I12">
         <v>117</v>
@@ -2874,15 +2874,15 @@
       </c>
       <c r="F13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="G13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>Despicable!</v>
       </c>
       <c r="H13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="F14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>BestWishes</v>
       </c>
       <c r="G14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="H14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>BackToUs</v>
       </c>
       <c r="I14">
         <v>75</v>
@@ -2962,15 +2962,15 @@
       </c>
       <c r="F15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Recovered:)</v>
       </c>
       <c r="G15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>BackToUs</v>
       </c>
       <c r="H15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>ThankGod</v>
       </c>
       <c r="I15">
         <v>117</v>
@@ -3006,15 +3006,15 @@
       </c>
       <c r="F16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="G16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>HardTimes</v>
       </c>
       <c r="H16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>WeLostThem</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -3050,15 +3050,15 @@
       </c>
       <c r="F17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>WeLostThem</v>
       </c>
       <c r="G17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>HELPME</v>
       </c>
       <c r="H17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>God'sPlan</v>
       </c>
       <c r="I17">
         <v>75</v>
@@ -3094,15 +3094,15 @@
       </c>
       <c r="F18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="G18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="H18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="I18">
         <v>117</v>
@@ -3138,15 +3138,15 @@
       </c>
       <c r="F19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="G19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="H19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -3186,11 +3186,11 @@
       </c>
       <c r="G20" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="H20" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="I20">
         <v>75</v>
@@ -3226,11 +3226,11 @@
       </c>
       <c r="F21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="G21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="H21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -3270,11 +3270,11 @@
       </c>
       <c r="F22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="H22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -3314,15 +3314,15 @@
       </c>
       <c r="F23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="G23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="H23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>Outcast</v>
       </c>
       <c r="I23">
         <v>75</v>
@@ -3358,15 +3358,15 @@
       </c>
       <c r="F24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="G24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>OurLastHope</v>
       </c>
       <c r="I24">
         <v>117</v>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="F25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="G25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="H25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>OurLastHope</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="G26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="H26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -3490,15 +3490,15 @@
       </c>
       <c r="F27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>RepeatElection</v>
       </c>
       <c r="G27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="H27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="I27">
         <v>100</v>
@@ -3534,15 +3534,15 @@
       </c>
       <c r="F28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="G28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>ItsOver</v>
       </c>
       <c r="H28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="I28">
         <v>100</v>
@@ -3578,15 +3578,15 @@
       </c>
       <c r="F29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="G29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="I29">
         <v>100</v>
@@ -3622,15 +3622,15 @@
       </c>
       <c r="F30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="G30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="H30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="I30">
         <v>100</v>
@@ -3666,15 +3666,15 @@
       </c>
       <c r="F31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="G31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="H31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="I31">
         <v>100</v>
@@ -3710,15 +3710,15 @@
       </c>
       <c r="F32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>BeSafe</v>
       </c>
       <c r="G32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="H32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>Justice</v>
       </c>
       <c r="I32">
         <v>100</v>
@@ -3754,15 +3754,15 @@
       </c>
       <c r="F33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>BeSafe</v>
       </c>
       <c r="G33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Hero</v>
       </c>
       <c r="H33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>Justice</v>
       </c>
       <c r="I33">
         <v>100</v>
@@ -3798,15 +3798,15 @@
       </c>
       <c r="F34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>TooSoon</v>
       </c>
       <c r="G34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>Lowlife</v>
       </c>
       <c r="H34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>TooSoon</v>
       </c>
       <c r="I34">
         <v>100</v>
@@ -3842,15 +3842,15 @@
       </c>
       <c r="F35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>WhatAShame</v>
       </c>
       <c r="G35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>TooSoon</v>
       </c>
       <c r="H35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>PrayForThem</v>
       </c>
       <c r="I35">
         <v>100</v>
@@ -3886,15 +3886,15 @@
       </c>
       <c r="F36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="G36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>DeathCollection</v>
       </c>
       <c r="I36">
         <v>100</v>
@@ -3930,15 +3930,15 @@
       </c>
       <c r="F37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>PaybackTime</v>
       </c>
       <c r="G37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="H37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="I37">
         <v>100</v>
@@ -3974,15 +3974,15 @@
       </c>
       <c r="F38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>MadeIt</v>
       </c>
       <c r="G38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="H38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>Recovered:)</v>
       </c>
       <c r="I38">
         <v>100</v>
@@ -4018,15 +4018,15 @@
       </c>
       <c r="F39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>100Sober</v>
       </c>
       <c r="G39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>MadeIt</v>
       </c>
       <c r="H39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>ThankGod</v>
       </c>
       <c r="I39">
         <v>100</v>
@@ -4062,15 +4062,15 @@
       </c>
       <c r="F40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>HELPME</v>
       </c>
       <c r="G40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>Drained</v>
       </c>
       <c r="H40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>God'sPlan</v>
       </c>
       <c r="I40">
         <v>100</v>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="G41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>Depressing</v>
       </c>
       <c r="H41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -4154,11 +4154,11 @@
       </c>
       <c r="G42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>CrapStaff</v>
       </c>
       <c r="I42">
         <v>100</v>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="H43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="I43">
         <v>100</v>
@@ -4238,11 +4238,11 @@
       </c>
       <c r="F44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="G44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="H44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -4282,15 +4282,15 @@
       </c>
       <c r="F45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>WEStrong</v>
       </c>
       <c r="G45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="I45">
         <v>100</v>
@@ -4326,15 +4326,15 @@
       </c>
       <c r="F46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="G46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>SplitUp</v>
       </c>
       <c r="H46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>SplitUp</v>
       </c>
       <c r="I46">
         <v>100</v>
@@ -4370,15 +4370,15 @@
       </c>
       <c r="F47" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>Desperate</v>
       </c>
       <c r="G47" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="H47" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>SplitUp</v>
       </c>
       <c r="I47">
         <v>100</v>
@@ -4414,15 +4414,15 @@
       </c>
       <c r="F48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Messiah</v>
       </c>
       <c r="H48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I48">
         <v>100</v>
@@ -4458,15 +4458,15 @@
       </c>
       <c r="F49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="H49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>OurLastHope</v>
       </c>
       <c r="I49">
         <v>100</v>
@@ -4502,15 +4502,15 @@
       </c>
       <c r="F50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="G50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="H50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>VoteAgain</v>
       </c>
       <c r="I50">
         <v>100</v>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="F51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="G51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -4590,15 +4590,15 @@
       </c>
       <c r="F52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="G52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="H52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="I52">
         <v>100</v>
@@ -4634,15 +4634,15 @@
       </c>
       <c r="F53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="G53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="H53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="I53">
         <v>100</v>
@@ -4678,15 +4678,15 @@
       </c>
       <c r="F54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="H54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>RaidingNight</v>
       </c>
       <c r="I54">
         <v>100</v>
@@ -4722,15 +4722,15 @@
       </c>
       <c r="F55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>RiotTIME</v>
       </c>
       <c r="G55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="H55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="I55">
         <v>100</v>
@@ -4770,11 +4770,11 @@
       </c>
       <c r="G56" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="H56" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>Justice</v>
       </c>
       <c r="I56">
         <v>100</v>
@@ -4810,15 +4810,15 @@
       </c>
       <c r="F57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>BeSafe</v>
       </c>
       <c r="G57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Justice</v>
       </c>
       <c r="H57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>BeSafe</v>
       </c>
       <c r="I57">
         <v>100</v>
@@ -4854,15 +4854,15 @@
       </c>
       <c r="F58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>WhatAShame</v>
       </c>
       <c r="G58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>SoTragic</v>
       </c>
       <c r="H58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>Pathetic</v>
       </c>
       <c r="I58">
         <v>100</v>
@@ -4898,15 +4898,15 @@
       </c>
       <c r="F59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>Pathetic</v>
       </c>
       <c r="G59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>PrayForThem</v>
       </c>
       <c r="H59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="I59">
         <v>100</v>
@@ -4942,15 +4942,15 @@
       </c>
       <c r="F60" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="G60" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="H60" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>DeathCollection</v>
       </c>
       <c r="I60">
         <v>100</v>
@@ -4986,15 +4986,15 @@
       </c>
       <c r="F61" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="G61" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="H61" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>Despicable!</v>
       </c>
       <c r="I61">
         <v>100</v>
@@ -5030,15 +5030,15 @@
       </c>
       <c r="F62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="G62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="H62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="I62">
         <v>100</v>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="F63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>MadeIt</v>
       </c>
       <c r="G63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="H63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>Recovered:)</v>
       </c>
       <c r="I63">
         <v>100</v>
@@ -5122,11 +5122,11 @@
       </c>
       <c r="G64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>Drained</v>
       </c>
       <c r="H64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="I64">
         <v>100</v>
@@ -5166,11 +5166,11 @@
       </c>
       <c r="G65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>WeLostThem</v>
       </c>
       <c r="H65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>God'sPlan</v>
       </c>
       <c r="I65">
         <v>100</v>
@@ -5210,11 +5210,11 @@
       </c>
       <c r="G66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="H66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>Refund</v>
       </c>
       <c r="I66">
         <v>100</v>
@@ -5250,15 +5250,15 @@
       </c>
       <c r="F67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="G67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="H67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I67">
         <v>100</v>
@@ -5294,15 +5294,15 @@
       </c>
       <c r="F68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="G68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="H68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="I68">
         <v>100</v>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="F69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="G69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="H69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="I69">
         <v>100</v>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="H70" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>Desperate</v>
       </c>
       <c r="I70">
         <v>100</v>
@@ -5426,15 +5426,15 @@
       </c>
       <c r="F71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>Outcast</v>
       </c>
       <c r="G71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>Outcast</v>
       </c>
       <c r="H71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="I71">
         <v>100</v>
@@ -5470,15 +5470,15 @@
       </c>
       <c r="F72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="G72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="I72">
         <v>100</v>
@@ -5514,15 +5514,15 @@
       </c>
       <c r="F73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>Messiah</v>
       </c>
       <c r="H73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>Messiah</v>
       </c>
       <c r="I73">
         <v>100</v>
@@ -5558,15 +5558,15 @@
       </c>
       <c r="F74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="G74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>RepeatElection</v>
       </c>
       <c r="H74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>ReElect!!!</v>
       </c>
       <c r="I74">
         <v>100</v>
@@ -5602,15 +5602,15 @@
       </c>
       <c r="F75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="G75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>VoteAgain</v>
       </c>
       <c r="H75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="I75">
         <v>100</v>
@@ -5646,15 +5646,15 @@
       </c>
       <c r="F76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="G76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>ItsOver</v>
       </c>
       <c r="H76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="I76">
         <v>100</v>
@@ -5690,15 +5690,15 @@
       </c>
       <c r="F77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="G77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>ItsOver</v>
       </c>
       <c r="H77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="I77">
         <v>100</v>
@@ -5734,15 +5734,15 @@
       </c>
       <c r="F78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>RaidingNight</v>
       </c>
       <c r="G78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>RiotTIME</v>
       </c>
       <c r="H78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="I78">
         <v>100</v>
@@ -5778,15 +5778,15 @@
       </c>
       <c r="F79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="G79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="H79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="I79">
         <v>100</v>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="F80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>BeSafe</v>
       </c>
       <c r="G80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="H80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>Hero</v>
       </c>
       <c r="I80">
         <v>100</v>
@@ -5870,11 +5870,11 @@
       </c>
       <c r="G81" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="H81" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H81" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="I81">
         <v>100</v>
@@ -5910,15 +5910,15 @@
       </c>
       <c r="F82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>PrayForThem</v>
       </c>
       <c r="G82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>TooSoon</v>
       </c>
       <c r="H82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>SoTragic</v>
       </c>
       <c r="I82">
         <v>100</v>
@@ -5954,15 +5954,15 @@
       </c>
       <c r="F83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>SoTragic</v>
       </c>
       <c r="G83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>TooSoon</v>
       </c>
       <c r="H83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>TooSoon</v>
       </c>
       <c r="I83">
         <v>100</v>
@@ -5998,15 +5998,15 @@
       </c>
       <c r="F84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="G84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>Despicable!</v>
       </c>
       <c r="I84">
         <v>100</v>
@@ -6042,11 +6042,11 @@
       </c>
       <c r="F85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>Despicable!</v>
       </c>
       <c r="G85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>AskingForIt</v>
       </c>
       <c r="H85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -6086,15 +6086,15 @@
       </c>
       <c r="F86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>BestWishes</v>
       </c>
       <c r="G86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>MadeIt</v>
       </c>
       <c r="H86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>BestWishes</v>
       </c>
       <c r="I86">
         <v>100</v>
@@ -6130,15 +6130,15 @@
       </c>
       <c r="F87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>BestWishes</v>
       </c>
       <c r="G87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>100Sober</v>
       </c>
       <c r="H87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>BackToUs</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -6178,11 +6178,11 @@
       </c>
       <c r="G88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="H88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>God'sPlan</v>
       </c>
       <c r="I88">
         <v>100</v>
@@ -6218,11 +6218,11 @@
       </c>
       <c r="F89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>HardTimes</v>
       </c>
       <c r="G89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="H89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -6262,15 +6262,15 @@
       </c>
       <c r="F90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>Refund</v>
       </c>
       <c r="G90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="H90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I90">
         <v>100</v>
@@ -6306,15 +6306,15 @@
       </c>
       <c r="F91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>Refund</v>
       </c>
       <c r="G91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="H91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>Refund</v>
       </c>
       <c r="I91">
         <v>100</v>
@@ -6350,15 +6350,15 @@
       </c>
       <c r="F92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="G92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="I92">
         <v>100</v>
@@ -6394,15 +6394,15 @@
       </c>
       <c r="F93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="G93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="I93">
         <v>100</v>
@@ -6438,15 +6438,15 @@
       </c>
       <c r="F94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="G94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="H94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="I94">
         <v>100</v>
@@ -6482,15 +6482,15 @@
       </c>
       <c r="F95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>SplitUp</v>
       </c>
       <c r="G95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>SplitUp</v>
       </c>
       <c r="H95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="I95">
         <v>100</v>
@@ -6526,15 +6526,15 @@
       </c>
       <c r="F96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="G96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="H96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>OurLastHope</v>
       </c>
       <c r="I96">
         <v>100</v>
@@ -6570,11 +6570,11 @@
       </c>
       <c r="F97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="G97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="H97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -6614,15 +6614,15 @@
       </c>
       <c r="F98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>RepeatElection</v>
       </c>
       <c r="G98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>RepeatElection</v>
       </c>
       <c r="H98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>RepeatElection</v>
       </c>
       <c r="I98">
         <v>100</v>
@@ -6658,15 +6658,15 @@
       </c>
       <c r="F99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="G99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>InGoodHands</v>
       </c>
       <c r="H99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="I99">
         <v>100</v>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="F100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="G100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="H100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="I100">
         <v>100</v>
@@ -6746,11 +6746,11 @@
       </c>
       <c r="F101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="G101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="H101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -6790,15 +6790,15 @@
       </c>
       <c r="F102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="G102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="H102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="I102">
         <v>100</v>
@@ -6834,15 +6834,15 @@
       </c>
       <c r="F103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="G103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="H103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>RaidingNight</v>
       </c>
       <c r="I103">
         <v>100</v>
@@ -6878,15 +6878,15 @@
       </c>
       <c r="F104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>Justified!</v>
       </c>
       <c r="G104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>Hero</v>
       </c>
       <c r="H104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="I104">
         <v>100</v>
@@ -6922,15 +6922,15 @@
       </c>
       <c r="F105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="G105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>BeSafe</v>
       </c>
       <c r="H105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>Justice</v>
       </c>
       <c r="I105">
         <v>100</v>
@@ -6966,15 +6966,15 @@
       </c>
       <c r="F106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>TooSoon</v>
       </c>
       <c r="G106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>PrayForThem</v>
       </c>
       <c r="H106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>TooSoon</v>
       </c>
       <c r="I106">
         <v>100</v>
@@ -7058,11 +7058,11 @@
       </c>
       <c r="G108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="H108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="I108">
         <v>100</v>
@@ -7098,15 +7098,15 @@
       </c>
       <c r="F109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>AskingForIt</v>
       </c>
       <c r="G109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="H109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I109">
         <v>100</v>
@@ -7146,11 +7146,11 @@
       </c>
       <c r="G110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>BackToUs</v>
       </c>
       <c r="H110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="I110">
         <v>100</v>
@@ -7186,15 +7186,15 @@
       </c>
       <c r="F111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>Recovered:)</v>
       </c>
       <c r="G111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="H111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>Recovered:)</v>
       </c>
       <c r="I111">
         <v>100</v>
@@ -7230,11 +7230,11 @@
       </c>
       <c r="F112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>God'sPlan</v>
       </c>
       <c r="G112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>HardTimes</v>
       </c>
       <c r="H112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="F113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="G113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="H113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>HELPME</v>
       </c>
       <c r="I113">
         <v>100</v>
@@ -7318,15 +7318,15 @@
       </c>
       <c r="F114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>Refund</v>
       </c>
       <c r="G114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>Refund</v>
       </c>
       <c r="H114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="I114">
         <v>100</v>
@@ -7362,15 +7362,15 @@
       </c>
       <c r="F115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>Refund</v>
       </c>
       <c r="G115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I115">
         <v>100</v>
@@ -7406,15 +7406,15 @@
       </c>
       <c r="F116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="G116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="I116">
         <v>100</v>
@@ -7450,15 +7450,15 @@
       </c>
       <c r="F117" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F117" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="G117" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G117" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H117" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H117" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="I117">
         <v>100</v>
@@ -7494,15 +7494,15 @@
       </c>
       <c r="F118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>Outcast</v>
       </c>
       <c r="H118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>Desperate</v>
       </c>
       <c r="I118">
         <v>100</v>
@@ -7538,15 +7538,15 @@
       </c>
       <c r="F119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>Outcast</v>
       </c>
       <c r="G119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="H119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="I119">
         <v>100</v>
@@ -7582,15 +7582,15 @@
       </c>
       <c r="F120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>Messiah</v>
       </c>
       <c r="H120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>OurLastHope</v>
       </c>
       <c r="I120">
         <v>100</v>
@@ -7630,11 +7630,11 @@
       </c>
       <c r="G121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>OurLastHope</v>
       </c>
       <c r="I121">
         <v>100</v>
@@ -7670,15 +7670,15 @@
       </c>
       <c r="F122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="G122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>VoteAgain</v>
       </c>
       <c r="H122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="I122">
         <v>100</v>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="F123" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F123" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>RepeatElection</v>
       </c>
       <c r="G123" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="H123" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H123" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="I123">
         <v>100</v>
@@ -7762,11 +7762,11 @@
       </c>
       <c r="G124" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G124" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H124" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H124" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="I124">
         <v>100</v>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="F125" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F125" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G125" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G125" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="H125" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H125" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>NoFaith</v>
       </c>
       <c r="I125">
         <v>100</v>
@@ -7846,15 +7846,15 @@
       </c>
       <c r="F126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>RaidingNight</v>
       </c>
       <c r="H126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="I126">
         <v>100</v>
@@ -7890,15 +7890,15 @@
       </c>
       <c r="F127" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F127" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="G127" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G127" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="H127" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H127" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="I127">
         <v>100</v>
@@ -7938,11 +7938,11 @@
       </c>
       <c r="G128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>BeSafe</v>
       </c>
       <c r="H128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="I128">
         <v>100</v>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="G129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>Hero</v>
       </c>
       <c r="H129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -8022,15 +8022,15 @@
       </c>
       <c r="F130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>FreeThem</v>
       </c>
       <c r="H130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="I130">
         <v>100</v>
@@ -8070,11 +8070,11 @@
       </c>
       <c r="G131" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G131" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>FreeThem</v>
       </c>
       <c r="H131" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H131" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>FreeThem</v>
       </c>
       <c r="I131">
         <v>100</v>
@@ -8110,11 +8110,11 @@
       </c>
       <c r="F132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="G132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>DeathCollection</v>
       </c>
       <c r="H132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -8154,15 +8154,15 @@
       </c>
       <c r="F133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="G133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>AskingForIt</v>
       </c>
       <c r="I133">
         <v>100</v>
@@ -8202,11 +8202,11 @@
       </c>
       <c r="G134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>MadeIt</v>
       </c>
       <c r="H134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>ThankGod</v>
       </c>
       <c r="I134">
         <v>100</v>
@@ -8242,15 +8242,15 @@
       </c>
       <c r="F135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="G135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="H135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>ThankGod</v>
       </c>
       <c r="I135">
         <v>100</v>
@@ -8286,15 +8286,15 @@
       </c>
       <c r="F136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="G136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>HardTimes</v>
       </c>
       <c r="H136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>Depressing</v>
       </c>
       <c r="I136">
         <v>100</v>
@@ -8330,11 +8330,11 @@
       </c>
       <c r="F137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>Drained</v>
       </c>
       <c r="G137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>HardTimes</v>
       </c>
       <c r="H137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -8374,15 +8374,15 @@
       </c>
       <c r="F138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="G138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I138">
         <v>100</v>
@@ -8418,15 +8418,15 @@
       </c>
       <c r="F139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="G139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>Refund</v>
       </c>
       <c r="H139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="I139">
         <v>100</v>
@@ -8462,15 +8462,15 @@
       </c>
       <c r="F140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="G140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="H140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I140">
         <v>100</v>
@@ -8510,11 +8510,11 @@
       </c>
       <c r="G141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="H141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="I141">
         <v>100</v>
@@ -8550,15 +8550,15 @@
       </c>
       <c r="F142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>Desperate</v>
       </c>
       <c r="H142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="I142">
         <v>100</v>
@@ -8594,11 +8594,11 @@
       </c>
       <c r="F143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="G143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>Outcast</v>
       </c>
       <c r="H143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -8638,15 +8638,15 @@
       </c>
       <c r="F144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="H144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="I144">
         <v>100</v>
@@ -8682,11 +8682,11 @@
       </c>
       <c r="F145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="H145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -8726,15 +8726,15 @@
       </c>
       <c r="F146" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F146" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="G146" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G146" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="H146" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H146" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>RepeatElection</v>
       </c>
       <c r="I146">
         <v>100</v>
@@ -8770,11 +8770,11 @@
       </c>
       <c r="F147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="G147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="H147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -8814,15 +8814,15 @@
       </c>
       <c r="F148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="H148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="I148">
         <v>100</v>
@@ -8858,15 +8858,15 @@
       </c>
       <c r="F149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="H149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>ItsOver</v>
       </c>
       <c r="I149">
         <v>100</v>
@@ -8902,15 +8902,15 @@
       </c>
       <c r="F150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>RaidingNight</v>
       </c>
       <c r="G150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>RiotTIME</v>
       </c>
       <c r="H150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>RaidingNight</v>
       </c>
       <c r="I150">
         <v>100</v>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="F151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="H151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="I151">
         <v>100</v>
@@ -8990,11 +8990,11 @@
       </c>
       <c r="F152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="G152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>Justified!</v>
       </c>
       <c r="H152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -9034,15 +9034,15 @@
       </c>
       <c r="F153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>BeSafe</v>
       </c>
       <c r="G153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Hero</v>
       </c>
       <c r="H153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Justice</v>
       </c>
       <c r="I153">
         <v>100</v>
@@ -9078,15 +9078,15 @@
       </c>
       <c r="F154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>SoTragic</v>
       </c>
       <c r="H154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>PrayForThem</v>
       </c>
       <c r="I154">
         <v>100</v>
@@ -9122,15 +9122,15 @@
       </c>
       <c r="F155" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F155" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>PrayForThem</v>
       </c>
       <c r="G155" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G155" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>Lowlife</v>
       </c>
       <c r="H155" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H155" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>TooSoon</v>
       </c>
       <c r="I155">
         <v>100</v>
@@ -9166,15 +9166,15 @@
       </c>
       <c r="F156" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F156" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="G156" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G156" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H156" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H156" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>Despicable!</v>
       </c>
       <c r="I156">
         <v>100</v>
@@ -9210,15 +9210,15 @@
       </c>
       <c r="F157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>Despicable!</v>
       </c>
       <c r="G157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>DeathCollection</v>
       </c>
       <c r="I157">
         <v>100</v>
@@ -9254,15 +9254,15 @@
       </c>
       <c r="F158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>BestWishes</v>
       </c>
       <c r="G158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>100Sober</v>
       </c>
       <c r="H158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>BackToUs</v>
       </c>
       <c r="I158">
         <v>100</v>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="F159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>BestWishes</v>
       </c>
       <c r="G159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="H159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>ThankGod</v>
       </c>
       <c r="I159">
         <v>100</v>
@@ -9342,15 +9342,15 @@
       </c>
       <c r="F160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>Depressing</v>
       </c>
       <c r="G160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>HELPME</v>
       </c>
       <c r="H160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="I160">
         <v>100</v>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="F161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>WeLostThem</v>
       </c>
       <c r="G161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="H161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>HardTimes</v>
       </c>
       <c r="I161">
         <v>100</v>
@@ -9430,15 +9430,15 @@
       </c>
       <c r="F162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="G162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I162">
         <v>100</v>
@@ -9474,11 +9474,11 @@
       </c>
       <c r="F163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>CrapStaff</v>
       </c>
       <c r="G163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="H163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -9518,15 +9518,15 @@
       </c>
       <c r="F164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="G164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="H164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="I164">
         <v>100</v>
@@ -9562,15 +9562,15 @@
       </c>
       <c r="F165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="G165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="H165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="I165">
         <v>100</v>
@@ -9610,11 +9610,11 @@
       </c>
       <c r="G166" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G166" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>Desperate</v>
       </c>
       <c r="H166" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H166" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="I166">
         <v>100</v>
@@ -9654,11 +9654,11 @@
       </c>
       <c r="G167" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G167" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="H167" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H167" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="I167">
         <v>100</v>
@@ -9694,15 +9694,15 @@
       </c>
       <c r="F168" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F168" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="G168" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G168" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>OurLastHope</v>
       </c>
       <c r="H168" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H168" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Messiah</v>
       </c>
       <c r="I168">
         <v>100</v>
@@ -9738,15 +9738,15 @@
       </c>
       <c r="F169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>Messiah</v>
       </c>
       <c r="G169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="H169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I169">
         <v>100</v>
@@ -9786,11 +9786,11 @@
       </c>
       <c r="G170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="H170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>People'sVoice</v>
       </c>
       <c r="I170">
         <v>100</v>
@@ -9826,15 +9826,15 @@
       </c>
       <c r="F171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>People'sVoice</v>
       </c>
       <c r="G171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>RepeatElection</v>
       </c>
       <c r="H171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>InGoodHands</v>
       </c>
       <c r="I171">
         <v>100</v>
@@ -9870,15 +9870,15 @@
       </c>
       <c r="F172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>ItsOver</v>
       </c>
       <c r="G172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>ItsOver</v>
       </c>
       <c r="H172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="I172">
         <v>100</v>
@@ -9914,15 +9914,15 @@
       </c>
       <c r="F173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="G173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="H173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>NoFaith</v>
       </c>
       <c r="I173">
         <v>100</v>
@@ -9958,15 +9958,15 @@
       </c>
       <c r="F174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>RiotTIME</v>
       </c>
       <c r="G174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="H174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I174">
         <v>100</v>
@@ -10002,15 +10002,15 @@
       </c>
       <c r="F175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="G175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="H175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="I175">
         <v>100</v>
@@ -10046,15 +10046,15 @@
       </c>
       <c r="F176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Justified!</v>
       </c>
       <c r="G176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="H176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>Hero</v>
       </c>
       <c r="I176">
         <v>100</v>
@@ -10094,11 +10094,11 @@
       </c>
       <c r="G177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Hero</v>
       </c>
       <c r="H177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="I177">
         <v>100</v>
@@ -10134,15 +10134,15 @@
       </c>
       <c r="F178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>SoTragic</v>
       </c>
       <c r="G178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>TooSoon</v>
       </c>
       <c r="H178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>Pathetic</v>
       </c>
       <c r="I178">
         <v>100</v>
@@ -10178,11 +10178,11 @@
       </c>
       <c r="F179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>FreeThem</v>
       </c>
       <c r="G179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>TooSoon</v>
       </c>
       <c r="H179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -10222,15 +10222,15 @@
       </c>
       <c r="F180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="G180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>AskingForIt</v>
       </c>
       <c r="I180">
         <v>100</v>
@@ -10266,15 +10266,15 @@
       </c>
       <c r="F181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>Despicable!</v>
       </c>
       <c r="G181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="H181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I181">
         <v>100</v>
@@ -10310,15 +10310,15 @@
       </c>
       <c r="F182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>MadeIt</v>
       </c>
       <c r="G182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>ThankGod</v>
       </c>
       <c r="H182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>100Sober</v>
       </c>
       <c r="I182">
         <v>100</v>
@@ -10354,15 +10354,15 @@
       </c>
       <c r="F183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>100Sober</v>
       </c>
       <c r="G183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>BestWishes</v>
       </c>
       <c r="H183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>BackToUs</v>
       </c>
       <c r="I183">
         <v>100</v>
@@ -10398,15 +10398,15 @@
       </c>
       <c r="F184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>God'sPlan</v>
       </c>
       <c r="G184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>WeLostThem</v>
       </c>
       <c r="H184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>Depressing</v>
       </c>
       <c r="I184">
         <v>100</v>
@@ -10442,15 +10442,15 @@
       </c>
       <c r="F185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>Depressing</v>
       </c>
       <c r="G185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="H185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>HardTimes</v>
       </c>
       <c r="I185">
         <v>100</v>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="F186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="G186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="H186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="I186">
         <v>100</v>
@@ -10530,15 +10530,15 @@
       </c>
       <c r="F187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>Refund</v>
       </c>
       <c r="G187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="H187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="I187">
         <v>100</v>
@@ -10574,15 +10574,15 @@
       </c>
       <c r="F188" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F188" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="G188" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G188" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="H188" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H188" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="I188">
         <v>100</v>
@@ -10618,15 +10618,15 @@
       </c>
       <c r="F189" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F189" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="G189" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G189" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H189" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H189" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="I189">
         <v>100</v>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="F190" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F190" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>SplitUp</v>
       </c>
       <c r="G190" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G190" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -10706,15 +10706,15 @@
       </c>
       <c r="F191" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F191" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="G191" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G191" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>Outcast</v>
       </c>
       <c r="H191" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H191" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="I191">
         <v>100</v>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="F192" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F192" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="G192" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G192" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="H192" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H192" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Messiah</v>
       </c>
       <c r="I192">
         <v>100</v>
@@ -10794,7 +10794,7 @@
       </c>
       <c r="F193" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F193" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G193" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G193" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="H193" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H193" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="I193">
         <v>100</v>
@@ -10853,7 +10853,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>18</v>
@@ -10873,7 +10873,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>76</v>
@@ -10884,13 +10884,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -10898,13 +10898,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10915,10 +10915,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10926,13 +10926,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10943,10 +10943,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -10954,7 +10954,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -10968,7 +10968,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>75</v>
@@ -10985,10 +10985,10 @@
         <v>80</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -10996,13 +10996,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -11010,13 +11010,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -11030,7 +11030,7 @@
         <v>82</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11038,13 +11038,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -11052,13 +11052,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -11069,10 +11069,10 @@
         <v>79</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11080,13 +11080,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11094,13 +11094,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11108,10 +11108,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>25</v>
@@ -11122,13 +11122,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -11139,10 +11139,10 @@
         <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11153,10 +11153,10 @@
         <v>85</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -11164,13 +11164,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -11178,10 +11178,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>89</v>
@@ -11195,10 +11195,10 @@
         <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -11206,7 +11206,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>92</v>
@@ -11220,10 +11220,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>96</v>
@@ -11240,7 +11240,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -11248,13 +11248,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -11265,7 +11265,7 @@
         <v>91</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>97</v>
@@ -11276,13 +11276,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -11290,13 +11290,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -11449,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -12949,7 +12949,7 @@
         <v>444</v>
       </c>
       <c r="E1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12997,7 +12997,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E4" t="s">
         <v>441</v>
@@ -13031,7 +13031,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E6" t="s">
         <v>441</v>
@@ -13048,7 +13048,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E7" t="s">
         <v>441</v>
@@ -13065,7 +13065,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E8" t="s">
         <v>441</v>
@@ -13082,7 +13082,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E9" t="s">
         <v>441</v>
@@ -13099,7 +13099,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E10" t="s">
         <v>441</v>
@@ -13167,7 +13167,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E14" t="s">
         <v>441</v>
@@ -13184,7 +13184,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E15" t="s">
         <v>441</v>
@@ -13201,7 +13201,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E16" t="s">
         <v>441</v>
@@ -13218,7 +13218,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E17" t="s">
         <v>441</v>
@@ -13235,7 +13235,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E18" t="s">
         <v>441</v>
@@ -13303,7 +13303,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E22" t="s">
         <v>441</v>
@@ -13320,7 +13320,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E23" t="s">
         <v>441</v>
@@ -13337,7 +13337,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E24" t="s">
         <v>441</v>
@@ -13354,7 +13354,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E25" t="s">
         <v>441</v>
@@ -13371,7 +13371,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E26" t="s">
         <v>441</v>
@@ -13439,7 +13439,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E30" t="s">
         <v>441</v>
@@ -13456,7 +13456,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E31" t="s">
         <v>441</v>
@@ -13473,7 +13473,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E32" t="s">
         <v>441</v>
@@ -13490,7 +13490,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E33" t="s">
         <v>441</v>
@@ -13507,7 +13507,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E34" t="s">
         <v>441</v>
@@ -13524,10 +13524,10 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E35" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -13541,10 +13541,10 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E36" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -13558,10 +13558,10 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E37" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -13576,8 +13576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53B4979-BA2F-42C6-BF9E-77AF10AFAE50}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13627,7 +13627,7 @@
         <v>455</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>468</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13641,7 +13641,7 @@
         <v>456</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13655,7 +13655,7 @@
         <v>457</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13669,7 +13669,7 @@
         <v>458</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13683,7 +13683,7 @@
         <v>455</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>472</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13697,7 +13697,7 @@
         <v>455</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13711,7 +13711,7 @@
         <v>455</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>473</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -13725,7 +13725,7 @@
         <v>457</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13739,7 +13739,7 @@
         <v>453</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13753,7 +13753,7 @@
         <v>453</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13767,7 +13767,7 @@
         <v>453</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13781,7 +13781,7 @@
         <v>455</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13795,7 +13795,7 @@
         <v>458</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -13809,7 +13809,7 @@
         <v>456</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13823,7 +13823,7 @@
         <v>456</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13837,7 +13837,7 @@
         <v>457</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -13851,7 +13851,7 @@
         <v>456</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13865,7 +13865,7 @@
         <v>458</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13879,7 +13879,7 @@
         <v>457</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13893,7 +13893,7 @@
         <v>457</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -13907,7 +13907,7 @@
         <v>457</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -13921,7 +13921,7 @@
         <v>455</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>488</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13935,7 +13935,7 @@
         <v>455</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>473</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -13949,7 +13949,7 @@
         <v>455</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB081C-D511-4052-AA32-ACC0EBC10AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0682701D-5531-482C-A055-69D0735A5B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J170" sqref="J170:J193"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170:I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2126,7 +2126,7 @@
         <v>75</v>
       </c>
       <c r="J2">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
@@ -2164,10 +2164,10 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="K3" s="1">
         <v>150</v>
@@ -2205,7 +2205,7 @@
         <v>77</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J4">
         <v>15000</v>
@@ -2246,7 +2246,7 @@
         <v>77</v>
       </c>
       <c r="I5">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="J5">
         <v>16000</v>
@@ -2287,10 +2287,10 @@
         <v>80</v>
       </c>
       <c r="I6">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="K6" s="1">
         <v>125</v>
@@ -2328,10 +2328,10 @@
         <v>80</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="J7">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K7" s="1">
         <v>125</v>
@@ -2372,7 +2372,7 @@
         <v>75</v>
       </c>
       <c r="J8">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="K8" s="1">
         <v>100</v>
@@ -2410,10 +2410,10 @@
         <v>83</v>
       </c>
       <c r="I9">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K9" s="1">
         <v>125</v>
@@ -2451,7 +2451,7 @@
         <v>85</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="J10">
         <v>16000</v>
@@ -2492,7 +2492,7 @@
         <v>85</v>
       </c>
       <c r="I11">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="J11">
         <v>12000</v>
@@ -2533,10 +2533,10 @@
         <v>88</v>
       </c>
       <c r="I12">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="J12">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K12" s="1">
         <v>100</v>
@@ -2574,10 +2574,10 @@
         <v>88</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J13">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K13" s="1">
         <v>100</v>
@@ -2618,7 +2618,7 @@
         <v>75</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="K14" s="1">
         <v>125</v>
@@ -2656,10 +2656,10 @@
         <v>91</v>
       </c>
       <c r="I15">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J15">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="K15" s="1">
         <v>100</v>
@@ -2697,7 +2697,7 @@
         <v>94</v>
       </c>
       <c r="I16">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J16">
         <v>15000</v>
@@ -2738,7 +2738,7 @@
         <v>94</v>
       </c>
       <c r="I17">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="J17">
         <v>16000</v>
@@ -2779,10 +2779,10 @@
         <v>96</v>
       </c>
       <c r="I18">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="J18">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K18" s="1">
         <v>150</v>
@@ -2820,10 +2820,10 @@
         <v>96</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J19">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K19" s="1">
         <v>100</v>
@@ -2864,7 +2864,7 @@
         <v>75</v>
       </c>
       <c r="J20">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="K20" s="1">
         <v>150</v>
@@ -2902,10 +2902,10 @@
         <v>99</v>
       </c>
       <c r="I21">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K21" s="1">
         <v>125</v>
@@ -2943,7 +2943,7 @@
         <v>102</v>
       </c>
       <c r="I22">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J22">
         <v>15000</v>
@@ -2984,7 +2984,7 @@
         <v>102</v>
       </c>
       <c r="I23">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="J23">
         <v>16000</v>
@@ -3025,10 +3025,10 @@
         <v>105</v>
       </c>
       <c r="I24">
-        <v>117</v>
+        <v>400</v>
       </c>
       <c r="J24">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="K24" s="1">
         <v>125</v>
@@ -3066,10 +3066,10 @@
         <v>105</v>
       </c>
       <c r="I25">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J25">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K25" s="1">
         <v>100</v>
@@ -3107,10 +3107,10 @@
         <v>21</v>
       </c>
       <c r="I26">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J26">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K26" s="1">
         <v>100</v>
@@ -3148,10 +3148,10 @@
         <v>20</v>
       </c>
       <c r="I27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J27">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="K27" s="1">
         <v>150</v>
@@ -3230,7 +3230,7 @@
         <v>77</v>
       </c>
       <c r="I29">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J29">
         <v>16000</v>
@@ -3271,10 +3271,10 @@
         <v>80</v>
       </c>
       <c r="I30">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J30">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="K30" s="1">
         <v>125</v>
@@ -3312,10 +3312,10 @@
         <v>80</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J31">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K31" s="1">
         <v>125</v>
@@ -3353,10 +3353,10 @@
         <v>83</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J32">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="K32" s="1">
         <v>100</v>
@@ -3397,7 +3397,7 @@
         <v>100</v>
       </c>
       <c r="J33">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K33" s="1">
         <v>125</v>
@@ -3435,7 +3435,7 @@
         <v>85</v>
       </c>
       <c r="I34">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J34">
         <v>16000</v>
@@ -3476,7 +3476,7 @@
         <v>85</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J35">
         <v>12000</v>
@@ -3517,10 +3517,10 @@
         <v>88</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J36">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K36" s="1">
         <v>100</v>
@@ -3558,10 +3558,10 @@
         <v>88</v>
       </c>
       <c r="I37">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J37">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K37" s="1">
         <v>100</v>
@@ -3599,10 +3599,10 @@
         <v>91</v>
       </c>
       <c r="I38">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J38">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="K38" s="1">
         <v>125</v>
@@ -3643,7 +3643,7 @@
         <v>100</v>
       </c>
       <c r="J39">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="K39" s="1">
         <v>100</v>
@@ -3681,7 +3681,7 @@
         <v>94</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J40">
         <v>15000</v>
@@ -3722,7 +3722,7 @@
         <v>94</v>
       </c>
       <c r="I41">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J41">
         <v>16000</v>
@@ -3763,10 +3763,10 @@
         <v>96</v>
       </c>
       <c r="I42">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J42">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K42" s="1">
         <v>150</v>
@@ -3804,10 +3804,10 @@
         <v>96</v>
       </c>
       <c r="I43">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J43">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K43" s="1">
         <v>100</v>
@@ -3845,10 +3845,10 @@
         <v>99</v>
       </c>
       <c r="I44">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J44">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="K44" s="1">
         <v>150</v>
@@ -3886,10 +3886,10 @@
         <v>99</v>
       </c>
       <c r="I45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J45">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K45" s="1">
         <v>125</v>
@@ -3927,7 +3927,7 @@
         <v>102</v>
       </c>
       <c r="I46">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J46">
         <v>15000</v>
@@ -3968,7 +3968,7 @@
         <v>102</v>
       </c>
       <c r="I47">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J47">
         <v>16000</v>
@@ -4009,10 +4009,10 @@
         <v>105</v>
       </c>
       <c r="I48">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J48">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="K48" s="1">
         <v>125</v>
@@ -4050,10 +4050,10 @@
         <v>105</v>
       </c>
       <c r="I49">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J49">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K49" s="1">
         <v>100</v>
@@ -4091,10 +4091,10 @@
         <v>21</v>
       </c>
       <c r="I50">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J50">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K50" s="1">
         <v>100</v>
@@ -4132,10 +4132,10 @@
         <v>20</v>
       </c>
       <c r="I51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J51">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="K51" s="1">
         <v>150</v>
@@ -4214,7 +4214,7 @@
         <v>77</v>
       </c>
       <c r="I53">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J53">
         <v>16000</v>
@@ -4255,10 +4255,10 @@
         <v>80</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J54">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="K54" s="1">
         <v>125</v>
@@ -4296,10 +4296,10 @@
         <v>80</v>
       </c>
       <c r="I55">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J55">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K55" s="1">
         <v>125</v>
@@ -4337,10 +4337,10 @@
         <v>83</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J56">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="K56" s="1">
         <v>100</v>
@@ -4381,7 +4381,7 @@
         <v>100</v>
       </c>
       <c r="J57">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K57" s="1">
         <v>125</v>
@@ -4419,7 +4419,7 @@
         <v>85</v>
       </c>
       <c r="I58">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J58">
         <v>16000</v>
@@ -4460,7 +4460,7 @@
         <v>85</v>
       </c>
       <c r="I59">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J59">
         <v>12000</v>
@@ -4501,10 +4501,10 @@
         <v>88</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J60">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K60" s="1">
         <v>100</v>
@@ -4542,10 +4542,10 @@
         <v>88</v>
       </c>
       <c r="I61">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J61">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K61" s="1">
         <v>100</v>
@@ -4583,10 +4583,10 @@
         <v>91</v>
       </c>
       <c r="I62">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J62">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="K62" s="1">
         <v>125</v>
@@ -4627,7 +4627,7 @@
         <v>100</v>
       </c>
       <c r="J63">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="K63" s="1">
         <v>100</v>
@@ -4665,7 +4665,7 @@
         <v>94</v>
       </c>
       <c r="I64">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J64">
         <v>15000</v>
@@ -4706,7 +4706,7 @@
         <v>94</v>
       </c>
       <c r="I65">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J65">
         <v>16000</v>
@@ -4747,10 +4747,10 @@
         <v>96</v>
       </c>
       <c r="I66">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J66">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K66" s="1">
         <v>150</v>
@@ -4788,10 +4788,10 @@
         <v>96</v>
       </c>
       <c r="I67">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J67">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K67" s="1">
         <v>100</v>
@@ -4829,10 +4829,10 @@
         <v>99</v>
       </c>
       <c r="I68">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J68">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="K68" s="1">
         <v>150</v>
@@ -4870,10 +4870,10 @@
         <v>99</v>
       </c>
       <c r="I69">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J69">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K69" s="1">
         <v>125</v>
@@ -4911,7 +4911,7 @@
         <v>102</v>
       </c>
       <c r="I70">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J70">
         <v>15000</v>
@@ -4952,7 +4952,7 @@
         <v>102</v>
       </c>
       <c r="I71">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J71">
         <v>16000</v>
@@ -4993,10 +4993,10 @@
         <v>105</v>
       </c>
       <c r="I72">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J72">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="K72" s="1">
         <v>125</v>
@@ -5034,10 +5034,10 @@
         <v>105</v>
       </c>
       <c r="I73">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J73">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K73" s="1">
         <v>100</v>
@@ -5075,10 +5075,10 @@
         <v>21</v>
       </c>
       <c r="I74">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J74">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K74" s="1">
         <v>100</v>
@@ -5116,10 +5116,10 @@
         <v>20</v>
       </c>
       <c r="I75">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J75">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="K75" s="1">
         <v>150</v>
@@ -5198,7 +5198,7 @@
         <v>77</v>
       </c>
       <c r="I77">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J77">
         <v>16000</v>
@@ -5239,10 +5239,10 @@
         <v>80</v>
       </c>
       <c r="I78">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J78">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="K78" s="1">
         <v>125</v>
@@ -5280,10 +5280,10 @@
         <v>80</v>
       </c>
       <c r="I79">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J79">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K79" s="1">
         <v>125</v>
@@ -5321,10 +5321,10 @@
         <v>83</v>
       </c>
       <c r="I80">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J80">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="K80" s="1">
         <v>100</v>
@@ -5365,7 +5365,7 @@
         <v>100</v>
       </c>
       <c r="J81">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K81" s="1">
         <v>125</v>
@@ -5403,7 +5403,7 @@
         <v>85</v>
       </c>
       <c r="I82">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J82">
         <v>16000</v>
@@ -5444,7 +5444,7 @@
         <v>85</v>
       </c>
       <c r="I83">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J83">
         <v>12000</v>
@@ -5485,10 +5485,10 @@
         <v>88</v>
       </c>
       <c r="I84">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J84">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K84" s="1">
         <v>100</v>
@@ -5526,10 +5526,10 @@
         <v>88</v>
       </c>
       <c r="I85">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J85">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K85" s="1">
         <v>100</v>
@@ -5567,10 +5567,10 @@
         <v>91</v>
       </c>
       <c r="I86">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J86">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="K86" s="1">
         <v>125</v>
@@ -5611,7 +5611,7 @@
         <v>100</v>
       </c>
       <c r="J87">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="K87" s="1">
         <v>100</v>
@@ -5649,7 +5649,7 @@
         <v>94</v>
       </c>
       <c r="I88">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J88">
         <v>15000</v>
@@ -5690,7 +5690,7 @@
         <v>94</v>
       </c>
       <c r="I89">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J89">
         <v>16000</v>
@@ -5731,10 +5731,10 @@
         <v>96</v>
       </c>
       <c r="I90">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J90">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K90" s="1">
         <v>150</v>
@@ -5772,10 +5772,10 @@
         <v>96</v>
       </c>
       <c r="I91">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J91">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K91" s="1">
         <v>100</v>
@@ -5813,10 +5813,10 @@
         <v>99</v>
       </c>
       <c r="I92">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J92">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="K92" s="1">
         <v>150</v>
@@ -5854,10 +5854,10 @@
         <v>99</v>
       </c>
       <c r="I93">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J93">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K93" s="1">
         <v>125</v>
@@ -5895,7 +5895,7 @@
         <v>102</v>
       </c>
       <c r="I94">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J94">
         <v>15000</v>
@@ -5936,7 +5936,7 @@
         <v>102</v>
       </c>
       <c r="I95">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J95">
         <v>16000</v>
@@ -5977,10 +5977,10 @@
         <v>105</v>
       </c>
       <c r="I96">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J96">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="K96" s="1">
         <v>125</v>
@@ -6018,10 +6018,10 @@
         <v>105</v>
       </c>
       <c r="I97">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J97">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K97" s="1">
         <v>100</v>
@@ -6059,10 +6059,10 @@
         <v>21</v>
       </c>
       <c r="I98">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J98">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K98" s="1">
         <v>100</v>
@@ -6100,10 +6100,10 @@
         <v>20</v>
       </c>
       <c r="I99">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J99">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="K99" s="1">
         <v>150</v>
@@ -6182,7 +6182,7 @@
         <v>77</v>
       </c>
       <c r="I101">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J101">
         <v>16000</v>
@@ -6223,10 +6223,10 @@
         <v>80</v>
       </c>
       <c r="I102">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J102">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="K102" s="1">
         <v>125</v>
@@ -6264,10 +6264,10 @@
         <v>80</v>
       </c>
       <c r="I103">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J103">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K103" s="1">
         <v>125</v>
@@ -6305,10 +6305,10 @@
         <v>83</v>
       </c>
       <c r="I104">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J104">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="K104" s="1">
         <v>100</v>
@@ -6349,7 +6349,7 @@
         <v>100</v>
       </c>
       <c r="J105">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K105" s="1">
         <v>125</v>
@@ -6387,7 +6387,7 @@
         <v>85</v>
       </c>
       <c r="I106">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J106">
         <v>16000</v>
@@ -6428,7 +6428,7 @@
         <v>85</v>
       </c>
       <c r="I107">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J107">
         <v>12000</v>
@@ -6469,10 +6469,10 @@
         <v>88</v>
       </c>
       <c r="I108">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J108">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K108" s="1">
         <v>100</v>
@@ -6510,10 +6510,10 @@
         <v>88</v>
       </c>
       <c r="I109">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J109">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K109" s="1">
         <v>100</v>
@@ -6551,10 +6551,10 @@
         <v>91</v>
       </c>
       <c r="I110">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J110">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="K110" s="1">
         <v>125</v>
@@ -6595,7 +6595,7 @@
         <v>100</v>
       </c>
       <c r="J111">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="K111" s="1">
         <v>100</v>
@@ -6633,7 +6633,7 @@
         <v>94</v>
       </c>
       <c r="I112">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J112">
         <v>15000</v>
@@ -6674,7 +6674,7 @@
         <v>94</v>
       </c>
       <c r="I113">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J113">
         <v>16000</v>
@@ -6715,10 +6715,10 @@
         <v>96</v>
       </c>
       <c r="I114">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J114">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K114" s="1">
         <v>150</v>
@@ -6756,10 +6756,10 @@
         <v>96</v>
       </c>
       <c r="I115">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J115">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K115" s="1">
         <v>100</v>
@@ -6797,10 +6797,10 @@
         <v>99</v>
       </c>
       <c r="I116">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J116">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="K116" s="1">
         <v>150</v>
@@ -6838,10 +6838,10 @@
         <v>99</v>
       </c>
       <c r="I117">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J117">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K117" s="1">
         <v>125</v>
@@ -6879,7 +6879,7 @@
         <v>102</v>
       </c>
       <c r="I118">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J118">
         <v>15000</v>
@@ -6920,7 +6920,7 @@
         <v>102</v>
       </c>
       <c r="I119">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J119">
         <v>16000</v>
@@ -6961,10 +6961,10 @@
         <v>105</v>
       </c>
       <c r="I120">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J120">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="K120" s="1">
         <v>125</v>
@@ -7002,10 +7002,10 @@
         <v>105</v>
       </c>
       <c r="I121">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J121">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K121" s="1">
         <v>100</v>
@@ -7043,10 +7043,10 @@
         <v>21</v>
       </c>
       <c r="I122">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J122">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K122" s="1">
         <v>100</v>
@@ -7084,10 +7084,10 @@
         <v>20</v>
       </c>
       <c r="I123">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J123">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="K123" s="1">
         <v>150</v>
@@ -7166,7 +7166,7 @@
         <v>77</v>
       </c>
       <c r="I125">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J125">
         <v>16000</v>
@@ -7207,10 +7207,10 @@
         <v>80</v>
       </c>
       <c r="I126">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J126">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="K126" s="1">
         <v>125</v>
@@ -7248,10 +7248,10 @@
         <v>80</v>
       </c>
       <c r="I127">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J127">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K127" s="1">
         <v>125</v>
@@ -7289,10 +7289,10 @@
         <v>83</v>
       </c>
       <c r="I128">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J128">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="K128" s="1">
         <v>100</v>
@@ -7333,7 +7333,7 @@
         <v>100</v>
       </c>
       <c r="J129">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K129" s="1">
         <v>125</v>
@@ -7371,7 +7371,7 @@
         <v>85</v>
       </c>
       <c r="I130">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J130">
         <v>16000</v>
@@ -7412,7 +7412,7 @@
         <v>85</v>
       </c>
       <c r="I131">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J131">
         <v>12000</v>
@@ -7453,10 +7453,10 @@
         <v>88</v>
       </c>
       <c r="I132">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J132">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K132" s="1">
         <v>100</v>
@@ -7494,10 +7494,10 @@
         <v>88</v>
       </c>
       <c r="I133">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J133">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K133" s="1">
         <v>100</v>
@@ -7535,10 +7535,10 @@
         <v>91</v>
       </c>
       <c r="I134">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J134">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="K134" s="1">
         <v>125</v>
@@ -7579,7 +7579,7 @@
         <v>100</v>
       </c>
       <c r="J135">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="K135" s="1">
         <v>100</v>
@@ -7617,7 +7617,7 @@
         <v>94</v>
       </c>
       <c r="I136">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J136">
         <v>15000</v>
@@ -7658,7 +7658,7 @@
         <v>94</v>
       </c>
       <c r="I137">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J137">
         <v>16000</v>
@@ -7699,10 +7699,10 @@
         <v>96</v>
       </c>
       <c r="I138">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J138">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K138" s="1">
         <v>150</v>
@@ -7740,10 +7740,10 @@
         <v>96</v>
       </c>
       <c r="I139">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J139">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K139" s="1">
         <v>100</v>
@@ -7781,10 +7781,10 @@
         <v>99</v>
       </c>
       <c r="I140">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J140">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="K140" s="1">
         <v>150</v>
@@ -7822,10 +7822,10 @@
         <v>99</v>
       </c>
       <c r="I141">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J141">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K141" s="1">
         <v>125</v>
@@ -7863,7 +7863,7 @@
         <v>102</v>
       </c>
       <c r="I142">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J142">
         <v>15000</v>
@@ -7904,7 +7904,7 @@
         <v>102</v>
       </c>
       <c r="I143">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J143">
         <v>16000</v>
@@ -7945,10 +7945,10 @@
         <v>105</v>
       </c>
       <c r="I144">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J144">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="K144" s="1">
         <v>125</v>
@@ -7986,10 +7986,10 @@
         <v>105</v>
       </c>
       <c r="I145">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J145">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K145" s="1">
         <v>100</v>
@@ -8027,10 +8027,10 @@
         <v>21</v>
       </c>
       <c r="I146">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J146">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K146" s="1">
         <v>100</v>
@@ -8068,10 +8068,10 @@
         <v>20</v>
       </c>
       <c r="I147">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J147">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="K147" s="1">
         <v>150</v>
@@ -8150,7 +8150,7 @@
         <v>77</v>
       </c>
       <c r="I149">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J149">
         <v>16000</v>
@@ -8191,10 +8191,10 @@
         <v>80</v>
       </c>
       <c r="I150">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J150">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="K150" s="1">
         <v>125</v>
@@ -8232,10 +8232,10 @@
         <v>80</v>
       </c>
       <c r="I151">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J151">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K151" s="1">
         <v>125</v>
@@ -8273,10 +8273,10 @@
         <v>83</v>
       </c>
       <c r="I152">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J152">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="K152" s="1">
         <v>100</v>
@@ -8317,7 +8317,7 @@
         <v>100</v>
       </c>
       <c r="J153">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K153" s="1">
         <v>125</v>
@@ -8355,7 +8355,7 @@
         <v>85</v>
       </c>
       <c r="I154">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J154">
         <v>16000</v>
@@ -8396,7 +8396,7 @@
         <v>85</v>
       </c>
       <c r="I155">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J155">
         <v>12000</v>
@@ -8437,10 +8437,10 @@
         <v>88</v>
       </c>
       <c r="I156">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J156">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K156" s="1">
         <v>100</v>
@@ -8478,10 +8478,10 @@
         <v>88</v>
       </c>
       <c r="I157">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J157">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K157" s="1">
         <v>100</v>
@@ -8519,10 +8519,10 @@
         <v>91</v>
       </c>
       <c r="I158">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J158">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="K158" s="1">
         <v>125</v>
@@ -8563,7 +8563,7 @@
         <v>100</v>
       </c>
       <c r="J159">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="K159" s="1">
         <v>100</v>
@@ -8601,7 +8601,7 @@
         <v>94</v>
       </c>
       <c r="I160">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J160">
         <v>15000</v>
@@ -8642,7 +8642,7 @@
         <v>94</v>
       </c>
       <c r="I161">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J161">
         <v>16000</v>
@@ -8683,10 +8683,10 @@
         <v>96</v>
       </c>
       <c r="I162">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J162">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K162" s="1">
         <v>150</v>
@@ -8724,10 +8724,10 @@
         <v>96</v>
       </c>
       <c r="I163">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J163">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K163" s="1">
         <v>100</v>
@@ -8765,10 +8765,10 @@
         <v>99</v>
       </c>
       <c r="I164">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J164">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="K164" s="1">
         <v>150</v>
@@ -8806,10 +8806,10 @@
         <v>99</v>
       </c>
       <c r="I165">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J165">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K165" s="1">
         <v>125</v>
@@ -8847,7 +8847,7 @@
         <v>102</v>
       </c>
       <c r="I166">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J166">
         <v>15000</v>
@@ -8888,7 +8888,7 @@
         <v>102</v>
       </c>
       <c r="I167">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J167">
         <v>16000</v>
@@ -8929,10 +8929,10 @@
         <v>105</v>
       </c>
       <c r="I168">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J168">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="K168" s="1">
         <v>125</v>
@@ -8970,10 +8970,10 @@
         <v>105</v>
       </c>
       <c r="I169">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J169">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K169" s="1">
         <v>100</v>
@@ -9011,10 +9011,10 @@
         <v>21</v>
       </c>
       <c r="I170">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J170">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K170" s="1">
         <v>100</v>
@@ -9052,10 +9052,10 @@
         <v>20</v>
       </c>
       <c r="I171">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J171">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="K171" s="1">
         <v>150</v>
@@ -9134,7 +9134,7 @@
         <v>77</v>
       </c>
       <c r="I173">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J173">
         <v>16000</v>
@@ -9175,10 +9175,10 @@
         <v>80</v>
       </c>
       <c r="I174">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J174">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="K174" s="1">
         <v>125</v>
@@ -9216,10 +9216,10 @@
         <v>80</v>
       </c>
       <c r="I175">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J175">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K175" s="1">
         <v>125</v>
@@ -9257,10 +9257,10 @@
         <v>83</v>
       </c>
       <c r="I176">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J176">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="K176" s="1">
         <v>100</v>
@@ -9301,7 +9301,7 @@
         <v>100</v>
       </c>
       <c r="J177">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K177" s="1">
         <v>125</v>
@@ -9339,7 +9339,7 @@
         <v>85</v>
       </c>
       <c r="I178">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J178">
         <v>16000</v>
@@ -9380,7 +9380,7 @@
         <v>85</v>
       </c>
       <c r="I179">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J179">
         <v>12000</v>
@@ -9421,10 +9421,10 @@
         <v>88</v>
       </c>
       <c r="I180">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J180">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K180" s="1">
         <v>100</v>
@@ -9462,10 +9462,10 @@
         <v>88</v>
       </c>
       <c r="I181">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J181">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K181" s="1">
         <v>100</v>
@@ -9503,10 +9503,10 @@
         <v>91</v>
       </c>
       <c r="I182">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J182">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="K182" s="1">
         <v>125</v>
@@ -9547,7 +9547,7 @@
         <v>100</v>
       </c>
       <c r="J183">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="K183" s="1">
         <v>100</v>
@@ -9585,7 +9585,7 @@
         <v>94</v>
       </c>
       <c r="I184">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J184">
         <v>15000</v>
@@ -9626,7 +9626,7 @@
         <v>94</v>
       </c>
       <c r="I185">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J185">
         <v>16000</v>
@@ -9667,10 +9667,10 @@
         <v>96</v>
       </c>
       <c r="I186">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J186">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K186" s="1">
         <v>150</v>
@@ -9708,10 +9708,10 @@
         <v>96</v>
       </c>
       <c r="I187">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J187">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K187" s="1">
         <v>100</v>
@@ -9749,10 +9749,10 @@
         <v>99</v>
       </c>
       <c r="I188">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J188">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="K188" s="1">
         <v>150</v>
@@ -9790,10 +9790,10 @@
         <v>99</v>
       </c>
       <c r="I189">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J189">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K189" s="1">
         <v>125</v>
@@ -9831,7 +9831,7 @@
         <v>102</v>
       </c>
       <c r="I190">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J190">
         <v>15000</v>
@@ -9872,7 +9872,7 @@
         <v>102</v>
       </c>
       <c r="I191">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J191">
         <v>16000</v>
@@ -9913,10 +9913,10 @@
         <v>105</v>
       </c>
       <c r="I192">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J192">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="K192" s="1">
         <v>125</v>
@@ -9954,10 +9954,10 @@
         <v>105</v>
       </c>
       <c r="I193">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J193">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="K193" s="1">
         <v>100</v>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptun\Desktop\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73689B42-8DF5-473F-86E8-853E6C36264C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE6B87-B967-400E-8219-715BC03CD529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media Posts" sheetId="1" r:id="rId1"/>
@@ -2311,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2394,17 +2394,17 @@
       </c>
       <c r="G2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="H2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>InGoodHands</v>
       </c>
       <c r="I2">
         <v>75</v>
       </c>
       <c r="J2">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
@@ -2434,21 +2434,21 @@
       </c>
       <c r="F3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>RepeatElection</v>
       </c>
       <c r="G3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="H3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="I3">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="K3" s="1">
         <v>156</v>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="F4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="G4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -2489,7 +2489,7 @@
         <v>I'maSitDown</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J4">
         <v>15000</v>
@@ -2522,18 +2522,18 @@
       </c>
       <c r="F5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="H5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
         <v>NoFaith</v>
       </c>
       <c r="I5">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="J5">
         <v>16000</v>
@@ -2566,21 +2566,21 @@
       </c>
       <c r="F6" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G6" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="H6" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="I6">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="J6">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="K6" s="1">
         <v>121</v>
@@ -2610,21 +2610,21 @@
       </c>
       <c r="F7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="G7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="H7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="J7">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K7" s="1">
         <v>131</v>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="F8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>Justified!</v>
       </c>
       <c r="G8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -2662,13 +2662,13 @@
       </c>
       <c r="H8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="I8">
         <v>75</v>
       </c>
       <c r="J8">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="K8" s="1">
         <v>98</v>
@@ -2698,21 +2698,21 @@
       </c>
       <c r="F9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="G9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="H9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>Hero</v>
       </c>
       <c r="I9">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K9" s="1">
         <v>132</v>
@@ -2742,21 +2742,21 @@
       </c>
       <c r="F10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>PrayForThem</v>
       </c>
       <c r="G10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>FreeThem</v>
       </c>
       <c r="H10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>Lowlife</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="J10">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="K10" s="1">
         <v>149</v>
@@ -2786,21 +2786,21 @@
       </c>
       <c r="F11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>TooSoon</v>
       </c>
       <c r="H11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>SoTragic</v>
       </c>
       <c r="I11">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="J11">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K11" s="1">
         <v>89</v>
@@ -2830,21 +2830,21 @@
       </c>
       <c r="F12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>DeathCollection</v>
       </c>
       <c r="G12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>AskingForIt</v>
       </c>
       <c r="H12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="I12">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="J12">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="K12" s="1">
         <v>69</v>
@@ -2874,21 +2874,21 @@
       </c>
       <c r="F13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="G13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>AskingForIt</v>
       </c>
       <c r="H13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J13">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
@@ -2918,21 +2918,21 @@
       </c>
       <c r="F14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>100Sober</v>
       </c>
       <c r="G14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="H14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Recovered:)</v>
       </c>
       <c r="I14">
         <v>75</v>
       </c>
       <c r="J14">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="K14" s="1">
         <v>134</v>
@@ -2966,17 +2966,17 @@
       </c>
       <c r="G15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="H15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>BestWishes</v>
       </c>
       <c r="I15">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J15">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="K15" s="1">
         <v>78</v>
@@ -3006,18 +3006,18 @@
       </c>
       <c r="F16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>Drained</v>
       </c>
       <c r="G16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="H16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
         <v>WeLostThem</v>
       </c>
       <c r="I16">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J16">
         <v>15000</v>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="F17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>God'sPlan</v>
       </c>
       <c r="G17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -3058,10 +3058,10 @@
       </c>
       <c r="H17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="I17">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="J17">
         <v>16000</v>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="F18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="G18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -3102,13 +3102,13 @@
       </c>
       <c r="H18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="I18">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="J18">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="K18" s="1">
         <v>175</v>
@@ -3138,21 +3138,21 @@
       </c>
       <c r="F19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>Refund</v>
       </c>
       <c r="G19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>CrapStaff</v>
       </c>
       <c r="H19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J19">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K19" s="1">
         <v>91</v>
@@ -3182,21 +3182,21 @@
       </c>
       <c r="F20" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="G20" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>WEStrong</v>
       </c>
       <c r="H20" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="I20">
         <v>75</v>
       </c>
       <c r="J20">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="K20" s="1">
         <v>150</v>
@@ -3226,21 +3226,21 @@
       </c>
       <c r="F21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="G21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="I21">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="K21" s="1">
         <v>110</v>
@@ -3270,18 +3270,18 @@
       </c>
       <c r="F22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>Outcast</v>
       </c>
       <c r="G22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>SplitUp</v>
       </c>
       <c r="H22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>SplitUp</v>
       </c>
       <c r="I22">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J22">
         <v>15000</v>
@@ -3314,18 +3314,18 @@
       </c>
       <c r="F23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>SplitUp</v>
       </c>
       <c r="G23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="H23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="I23">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="J23">
         <v>16000</v>
@@ -3358,21 +3358,21 @@
       </c>
       <c r="F24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>OurLastHope</v>
       </c>
       <c r="G24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="H24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="I24">
-        <v>117</v>
+        <v>400</v>
       </c>
       <c r="J24">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="K24" s="1">
         <v>147</v>
@@ -3402,21 +3402,21 @@
       </c>
       <c r="F25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>Messiah</v>
       </c>
       <c r="G25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>OurLastHope</v>
       </c>
       <c r="H25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
         <v>OurLastHope</v>
       </c>
       <c r="I25">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J25">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="K25" s="1">
         <v>90</v>
@@ -3450,17 +3450,17 @@
       </c>
       <c r="G26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>People'sVoice</v>
       </c>
       <c r="H26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
         <v>InGoodHands</v>
       </c>
       <c r="I26">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J26">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K26" s="1">
         <v>100</v>
@@ -3490,21 +3490,21 @@
       </c>
       <c r="F27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="G27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="H27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
         <v xml:space="preserve">Saviours </v>
       </c>
       <c r="I27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J27">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K27" s="1">
         <v>156</v>
@@ -3534,21 +3534,21 @@
       </c>
       <c r="F28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="G28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="H28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>NoFaith</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K28" s="1">
         <v>80</v>
@@ -3578,21 +3578,21 @@
       </c>
       <c r="F29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>ItsOver</v>
       </c>
       <c r="H29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="I29">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J29">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K29" s="1">
         <v>75</v>
@@ -3622,21 +3622,21 @@
       </c>
       <c r="F30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="H30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
         <v>ToTheTorches!</v>
       </c>
       <c r="I30">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J30">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K30" s="1">
         <v>121</v>
@@ -3666,21 +3666,21 @@
       </c>
       <c r="F31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>RaidingNight</v>
       </c>
       <c r="G31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="H31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J31">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K31" s="1">
         <v>131</v>
@@ -3714,14 +3714,14 @@
       </c>
       <c r="G32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>BeSafe</v>
       </c>
       <c r="H32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>BeSafe</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J32">
         <v>10000</v>
@@ -3754,11 +3754,11 @@
       </c>
       <c r="F33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>Justice</v>
       </c>
       <c r="G33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>Justice</v>
       </c>
       <c r="H33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -3768,7 +3768,7 @@
         <v>100</v>
       </c>
       <c r="J33">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K33" s="1">
         <v>132</v>
@@ -3798,21 +3798,21 @@
       </c>
       <c r="F34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>SoTragic</v>
       </c>
       <c r="G34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>PrayForThem</v>
       </c>
       <c r="H34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>Lowlife</v>
       </c>
       <c r="I34">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J34">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K34" s="1">
         <v>149</v>
@@ -3842,21 +3842,21 @@
       </c>
       <c r="F35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>FreeThem</v>
       </c>
       <c r="G35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>WhatAShame</v>
       </c>
       <c r="H35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>TooSoon</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J35">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K35" s="1">
         <v>89</v>
@@ -3886,21 +3886,21 @@
       </c>
       <c r="F36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="G36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>AskingForIt</v>
       </c>
       <c r="H36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
         <v>DeathCollection</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J36">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K36" s="1">
         <v>69</v>
@@ -3930,21 +3930,21 @@
       </c>
       <c r="F37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>Despicable!</v>
       </c>
       <c r="G37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>Despicable!</v>
       </c>
       <c r="H37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>DeathCollection</v>
       </c>
       <c r="I37">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J37">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K37" s="1">
         <v>50</v>
@@ -3974,21 +3974,21 @@
       </c>
       <c r="F38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>100Sober</v>
       </c>
       <c r="G38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>BestWishes</v>
       </c>
       <c r="H38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>BackToUs</v>
       </c>
       <c r="I38">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J38">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K38" s="1">
         <v>134</v>
@@ -4018,21 +4018,21 @@
       </c>
       <c r="F39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>BestWishes</v>
       </c>
       <c r="G39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="H39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="J39">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K39" s="1">
         <v>78</v>
@@ -4066,17 +4066,17 @@
       </c>
       <c r="G40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="H40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>Depressing</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J40">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K40" s="1">
         <v>145</v>
@@ -4106,21 +4106,21 @@
       </c>
       <c r="F41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="G41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>God'sPlan</v>
       </c>
       <c r="H41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="I41">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J41">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K41" s="1">
         <v>82</v>
@@ -4154,17 +4154,17 @@
       </c>
       <c r="G42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>Refund</v>
       </c>
       <c r="H42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
         <v>CrapStaff</v>
       </c>
       <c r="I42">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J42">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K42" s="1">
         <v>175</v>
@@ -4194,21 +4194,21 @@
       </c>
       <c r="F43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>CrapStaff</v>
       </c>
       <c r="G43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I43">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J43">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K43" s="1">
         <v>91</v>
@@ -4238,21 +4238,21 @@
       </c>
       <c r="F44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>WEStrong</v>
       </c>
       <c r="G44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="H44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="I44">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J44">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K44" s="1">
         <v>150</v>
@@ -4286,17 +4286,17 @@
       </c>
       <c r="G45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="H45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
         <v>JoinTheCAUSE</v>
       </c>
       <c r="I45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J45">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K45" s="1">
         <v>110</v>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="F46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>SplitUp</v>
       </c>
       <c r="G46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -4334,13 +4334,13 @@
       </c>
       <c r="H46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>Outcast</v>
       </c>
       <c r="I46">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J46">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K46" s="1">
         <v>60</v>
@@ -4374,17 +4374,17 @@
       </c>
       <c r="G47" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="H47" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
         <v>SplitUp</v>
       </c>
       <c r="I47">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J47">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K47" s="1">
         <v>70</v>
@@ -4414,21 +4414,21 @@
       </c>
       <c r="F48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>OurLastHope</v>
       </c>
       <c r="H48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>Messiah</v>
       </c>
       <c r="I48">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J48">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K48" s="1">
         <v>147</v>
@@ -4458,21 +4458,21 @@
       </c>
       <c r="F49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>OurLastHope</v>
       </c>
       <c r="G49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>Messiah</v>
       </c>
       <c r="I49">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J49">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K49" s="1">
         <v>90</v>
@@ -4502,21 +4502,21 @@
       </c>
       <c r="F50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="G50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>People'sVoice</v>
       </c>
       <c r="H50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
         <v>VoteAgain</v>
       </c>
       <c r="I50">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J50">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K50" s="1">
         <v>100</v>
@@ -4546,21 +4546,21 @@
       </c>
       <c r="F51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="G51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>People'sVoice</v>
       </c>
       <c r="H51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H51" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="I51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J51">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K51" s="1">
         <v>156</v>
@@ -4590,11 +4590,11 @@
       </c>
       <c r="F52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>ItsOver</v>
       </c>
       <c r="H52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -4604,7 +4604,7 @@
         <v>100</v>
       </c>
       <c r="J52">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K52" s="1">
         <v>80</v>
@@ -4634,21 +4634,21 @@
       </c>
       <c r="F53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>NoFaith</v>
       </c>
       <c r="G53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>NoFaith</v>
       </c>
       <c r="H53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>NoFaith</v>
       </c>
       <c r="I53">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J53">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K53" s="1">
         <v>75</v>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="G54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>RaidingNight</v>
       </c>
       <c r="H54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J54">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K54" s="1">
         <v>121</v>
@@ -4722,21 +4722,21 @@
       </c>
       <c r="F55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="G55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="H55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I55">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J55">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K55" s="1">
         <v>131</v>
@@ -4766,18 +4766,18 @@
       </c>
       <c r="F56" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="G56" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="H56" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
         <v>Justice</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J56">
         <v>10000</v>
@@ -4810,21 +4810,21 @@
       </c>
       <c r="F57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="G57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>Justified!</v>
       </c>
       <c r="H57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="I57">
         <v>100</v>
       </c>
       <c r="J57">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K57" s="1">
         <v>132</v>
@@ -4854,21 +4854,21 @@
       </c>
       <c r="F58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>SoTragic</v>
       </c>
       <c r="G58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>Lowlife</v>
       </c>
       <c r="H58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>FreeThem</v>
       </c>
       <c r="I58">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J58">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K58" s="1">
         <v>149</v>
@@ -4898,21 +4898,21 @@
       </c>
       <c r="F59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>SoTragic</v>
       </c>
       <c r="G59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>Pathetic</v>
       </c>
       <c r="H59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>PrayForThem</v>
       </c>
       <c r="I59">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J59">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K59" s="1">
         <v>89</v>
@@ -4946,17 +4946,17 @@
       </c>
       <c r="G60" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H60" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
         <v>DeathCollection</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J60">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K60" s="1">
         <v>69</v>
@@ -4986,21 +4986,21 @@
       </c>
       <c r="F61" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>Despicable!</v>
       </c>
       <c r="G61" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="H61" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="I61">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J61">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K61" s="1">
         <v>50</v>
@@ -5030,21 +5030,21 @@
       </c>
       <c r="F62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="G62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>MadeIt</v>
       </c>
       <c r="H62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
         <v>Hugs&amp;Kisses</v>
       </c>
       <c r="I62">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J62">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K62" s="1">
         <v>134</v>
@@ -5074,21 +5074,21 @@
       </c>
       <c r="F63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>100Sober</v>
       </c>
       <c r="G63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>ThankGod</v>
       </c>
       <c r="H63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>MadeIt</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K63" s="1">
         <v>78</v>
@@ -5118,21 +5118,21 @@
       </c>
       <c r="F64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>Depressing</v>
       </c>
       <c r="G64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>HardTimes</v>
       </c>
       <c r="H64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>HELPME</v>
       </c>
       <c r="I64">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J64">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K64" s="1">
         <v>145</v>
@@ -5162,21 +5162,21 @@
       </c>
       <c r="F65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>Drained</v>
       </c>
       <c r="G65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>HELPME</v>
       </c>
       <c r="H65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>HELPME</v>
       </c>
       <c r="I65">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J65">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K65" s="1">
         <v>82</v>
@@ -5206,21 +5206,21 @@
       </c>
       <c r="F66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="G66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>CrapStaff</v>
       </c>
       <c r="H66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I66">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J66">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K66" s="1">
         <v>175</v>
@@ -5254,17 +5254,17 @@
       </c>
       <c r="G67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>CrapStaff</v>
       </c>
       <c r="H67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="I67">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J67">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K67" s="1">
         <v>91</v>
@@ -5294,21 +5294,21 @@
       </c>
       <c r="F68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>WEStrong</v>
       </c>
       <c r="G68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>WEStrong</v>
       </c>
       <c r="H68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="I68">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J68">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K68" s="1">
         <v>150</v>
@@ -5338,21 +5338,21 @@
       </c>
       <c r="F69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="G69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>WEStrong</v>
       </c>
       <c r="H69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>WEStrong</v>
       </c>
       <c r="I69">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J69">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K69" s="1">
         <v>110</v>
@@ -5382,21 +5382,21 @@
       </c>
       <c r="F70" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="G70" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>SplitUp</v>
       </c>
       <c r="H70" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>SplitUp</v>
       </c>
       <c r="I70">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J70">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K70" s="1">
         <v>60</v>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="F71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="G71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -5434,13 +5434,13 @@
       </c>
       <c r="H71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="I71">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J71">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K71" s="1">
         <v>70</v>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="F72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -5478,13 +5478,13 @@
       </c>
       <c r="H72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>OurLastHope</v>
       </c>
       <c r="I72">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J72">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K72" s="1">
         <v>147</v>
@@ -5514,21 +5514,21 @@
       </c>
       <c r="F73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="G73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="H73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="I73">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J73">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K73" s="1">
         <v>90</v>
@@ -5558,21 +5558,21 @@
       </c>
       <c r="F74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>People'sVoice</v>
       </c>
       <c r="G74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="H74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>VoteAgain</v>
       </c>
       <c r="I74">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J74">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K74" s="1">
         <v>100</v>
@@ -5602,21 +5602,21 @@
       </c>
       <c r="F75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="G75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>People'sVoice</v>
       </c>
       <c r="H75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="I75">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J75">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K75" s="1">
         <v>156</v>
@@ -5646,21 +5646,21 @@
       </c>
       <c r="F76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="G76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="H76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="I76">
         <v>100</v>
       </c>
       <c r="J76">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K76" s="1">
         <v>80</v>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="F77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="G77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -5698,13 +5698,13 @@
       </c>
       <c r="H77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>NoFaith</v>
       </c>
       <c r="I77">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J77">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K77" s="1">
         <v>75</v>
@@ -5734,21 +5734,21 @@
       </c>
       <c r="F78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="G78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="H78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="I78">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J78">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K78" s="1">
         <v>121</v>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="F79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>RiotTIME</v>
       </c>
       <c r="G79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -5786,13 +5786,13 @@
       </c>
       <c r="H79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I79">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J79">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K79" s="1">
         <v>131</v>
@@ -5826,14 +5826,14 @@
       </c>
       <c r="G80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="H80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>BeSafe</v>
       </c>
       <c r="I80">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J80">
         <v>10000</v>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="G81" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="H81" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H81" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Justified!</v>
       </c>
       <c r="I81">
         <v>100</v>
       </c>
       <c r="J81">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K81" s="1">
         <v>132</v>
@@ -5910,21 +5910,21 @@
       </c>
       <c r="F82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>TooSoon</v>
       </c>
       <c r="G82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>WhatAShame</v>
       </c>
       <c r="H82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>Pathetic</v>
       </c>
       <c r="I82">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J82">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K82" s="1">
         <v>149</v>
@@ -5958,17 +5958,17 @@
       </c>
       <c r="G83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>FreeThem</v>
       </c>
       <c r="H83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>Pathetic</v>
       </c>
       <c r="I83">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J83">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K83" s="1">
         <v>89</v>
@@ -5998,21 +5998,21 @@
       </c>
       <c r="F84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="G84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="H84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="I84">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J84">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K84" s="1">
         <v>69</v>
@@ -6042,21 +6042,21 @@
       </c>
       <c r="F85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="G85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>Despicable!</v>
       </c>
       <c r="H85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="I85">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J85">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K85" s="1">
         <v>50</v>
@@ -6090,17 +6090,17 @@
       </c>
       <c r="G86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>ThankGod</v>
       </c>
       <c r="H86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>100Sober</v>
       </c>
       <c r="I86">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J86">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K86" s="1">
         <v>134</v>
@@ -6134,17 +6134,17 @@
       </c>
       <c r="G87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="H87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="I87">
         <v>100</v>
       </c>
       <c r="J87">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K87" s="1">
         <v>78</v>
@@ -6178,17 +6178,17 @@
       </c>
       <c r="G88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>God'sPlan</v>
       </c>
       <c r="H88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>WeLostThem</v>
       </c>
       <c r="I88">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J88">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K88" s="1">
         <v>145</v>
@@ -6218,21 +6218,21 @@
       </c>
       <c r="F89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>Depressing</v>
       </c>
       <c r="G89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>HardTimes</v>
       </c>
       <c r="H89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
         <v>Drained</v>
       </c>
       <c r="I89">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J89">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K89" s="1">
         <v>82</v>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="F90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>CrapStaff</v>
       </c>
       <c r="G90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -6270,13 +6270,13 @@
       </c>
       <c r="H90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="I90">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J90">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K90" s="1">
         <v>175</v>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="F91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="G91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -6314,13 +6314,13 @@
       </c>
       <c r="H91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I91">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J91">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K91" s="1">
         <v>91</v>
@@ -6350,21 +6350,21 @@
       </c>
       <c r="F92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="G92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="H92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="I92">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J92">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K92" s="1">
         <v>150</v>
@@ -6394,21 +6394,21 @@
       </c>
       <c r="F93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="G93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="H93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="I93">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J93">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K93" s="1">
         <v>110</v>
@@ -6438,21 +6438,21 @@
       </c>
       <c r="F94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="G94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>Desperate</v>
       </c>
       <c r="H94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>SplitUp</v>
       </c>
       <c r="I94">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J94">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K94" s="1">
         <v>60</v>
@@ -6482,21 +6482,21 @@
       </c>
       <c r="F95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="G95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>Outcast</v>
       </c>
       <c r="H95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>Desperate</v>
       </c>
       <c r="I95">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J95">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K95" s="1">
         <v>70</v>
@@ -6526,21 +6526,21 @@
       </c>
       <c r="F96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>Messiah</v>
       </c>
       <c r="H96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="I96">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J96">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K96" s="1">
         <v>147</v>
@@ -6570,21 +6570,21 @@
       </c>
       <c r="F97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Messiah</v>
       </c>
       <c r="I97">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J97">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K97" s="1">
         <v>90</v>
@@ -6614,21 +6614,21 @@
       </c>
       <c r="F98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="G98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="H98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>InGoodHands</v>
       </c>
       <c r="I98">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J98">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K98" s="1">
         <v>100</v>
@@ -6662,17 +6662,17 @@
       </c>
       <c r="G99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="H99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="I99">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J99">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K99" s="1">
         <v>156</v>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="F100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="G100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -6710,13 +6710,13 @@
       </c>
       <c r="H100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="I100">
         <v>100</v>
       </c>
       <c r="J100">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K100" s="1">
         <v>80</v>
@@ -6746,21 +6746,21 @@
       </c>
       <c r="F101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="G101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>ItsOver</v>
       </c>
       <c r="H101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>ItsOver</v>
       </c>
       <c r="I101">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J101">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K101" s="1">
         <v>75</v>
@@ -6794,17 +6794,17 @@
       </c>
       <c r="G102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="H102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
         <v>Pitchforks!!!</v>
       </c>
       <c r="I102">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J102">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K102" s="1">
         <v>121</v>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="F103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="G103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -6842,13 +6842,13 @@
       </c>
       <c r="H103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="I103">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J103">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K103" s="1">
         <v>131</v>
@@ -6878,18 +6878,18 @@
       </c>
       <c r="F104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="G104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>BeSafe</v>
       </c>
       <c r="H104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>Hero</v>
       </c>
       <c r="I104">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J104">
         <v>10000</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="F105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="G105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -6930,13 +6930,13 @@
       </c>
       <c r="H105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>Justified!</v>
       </c>
       <c r="I105">
         <v>100</v>
       </c>
       <c r="J105">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K105" s="1">
         <v>132</v>
@@ -6966,21 +6966,21 @@
       </c>
       <c r="F106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>FreeThem</v>
       </c>
       <c r="H106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>FreeThem</v>
       </c>
       <c r="I106">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J106">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K106" s="1">
         <v>149</v>
@@ -7014,17 +7014,17 @@
       </c>
       <c r="G107" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>WhatAShame</v>
       </c>
       <c r="H107" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H107" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>SoTragic</v>
       </c>
       <c r="I107">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J107">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K107" s="1">
         <v>89</v>
@@ -7054,21 +7054,21 @@
       </c>
       <c r="F108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="G108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="H108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I108">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J108">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K108" s="1">
         <v>69</v>
@@ -7098,21 +7098,21 @@
       </c>
       <c r="F109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>Despicable!</v>
       </c>
       <c r="G109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="H109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>AskingForIt</v>
       </c>
       <c r="I109">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J109">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K109" s="1">
         <v>50</v>
@@ -7142,21 +7142,21 @@
       </c>
       <c r="F110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="G110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>MadeIt</v>
       </c>
       <c r="H110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="I110">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J110">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K110" s="1">
         <v>134</v>
@@ -7186,21 +7186,21 @@
       </c>
       <c r="F111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>ThankGod</v>
       </c>
       <c r="G111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>MadeIt</v>
       </c>
       <c r="H111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>BackToUs</v>
       </c>
       <c r="I111">
         <v>100</v>
       </c>
       <c r="J111">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K111" s="1">
         <v>78</v>
@@ -7230,21 +7230,21 @@
       </c>
       <c r="F112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>Drained</v>
       </c>
       <c r="G112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>God'sPlan</v>
       </c>
       <c r="H112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
         <v>WeLostThem</v>
       </c>
       <c r="I112">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J112">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K112" s="1">
         <v>145</v>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="F113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="G113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -7282,13 +7282,13 @@
       </c>
       <c r="H113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>HardTimes</v>
       </c>
       <c r="I113">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J113">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K113" s="1">
         <v>82</v>
@@ -7322,17 +7322,17 @@
       </c>
       <c r="G114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="H114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="I114">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J114">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K114" s="1">
         <v>175</v>
@@ -7362,21 +7362,21 @@
       </c>
       <c r="F115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="G115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="H115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
         <v>OverpaidIdiots</v>
       </c>
       <c r="I115">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J115">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K115" s="1">
         <v>91</v>
@@ -7406,21 +7406,21 @@
       </c>
       <c r="F116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="G116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>WEStrong</v>
       </c>
       <c r="H116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
         <v>CommunityBuild</v>
       </c>
       <c r="I116">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J116">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K116" s="1">
         <v>150</v>
@@ -7454,17 +7454,17 @@
       </c>
       <c r="G117" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G117" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>WEStrong</v>
       </c>
       <c r="H117" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H117" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>WEStrong</v>
       </c>
       <c r="I117">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J117">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K117" s="1">
         <v>110</v>
@@ -7498,17 +7498,17 @@
       </c>
       <c r="G118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="H118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>Outcast</v>
       </c>
       <c r="I118">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J118">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K118" s="1">
         <v>60</v>
@@ -7538,21 +7538,21 @@
       </c>
       <c r="F119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="H119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>Desperate</v>
       </c>
       <c r="I119">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J119">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K119" s="1">
         <v>70</v>
@@ -7586,17 +7586,17 @@
       </c>
       <c r="G120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="H120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="I120">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J120">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K120" s="1">
         <v>147</v>
@@ -7626,21 +7626,21 @@
       </c>
       <c r="F121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="G121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="H121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
         <v>OurLastHope</v>
       </c>
       <c r="I121">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J121">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K121" s="1">
         <v>90</v>
@@ -7670,21 +7670,21 @@
       </c>
       <c r="F122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>RepeatElection</v>
       </c>
       <c r="G122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>RepeatElection</v>
       </c>
       <c r="H122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="I122">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J122">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K122" s="1">
         <v>100</v>
@@ -7718,17 +7718,17 @@
       </c>
       <c r="G123" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="H123" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H123" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="I123">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J123">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K123" s="1">
         <v>156</v>
@@ -7762,17 +7762,17 @@
       </c>
       <c r="G124" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G124" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="H124" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H124" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="I124">
         <v>100</v>
       </c>
       <c r="J124">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K124" s="1">
         <v>80</v>
@@ -7813,10 +7813,10 @@
         <v>NoFaith</v>
       </c>
       <c r="I125">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J125">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K125" s="1">
         <v>75</v>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="F126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="G126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -7854,13 +7854,13 @@
       </c>
       <c r="H126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="I126">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J126">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K126" s="1">
         <v>121</v>
@@ -7894,17 +7894,17 @@
       </c>
       <c r="G127" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G127" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="H127" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H127" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="I127">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J127">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K127" s="1">
         <v>131</v>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="F128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="G128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -7942,10 +7942,10 @@
       </c>
       <c r="H128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="I128">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J128">
         <v>10000</v>
@@ -7978,21 +7978,21 @@
       </c>
       <c r="F129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Hero</v>
       </c>
       <c r="G129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>Justice</v>
       </c>
       <c r="H129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>Justified!</v>
       </c>
       <c r="I129">
         <v>100</v>
       </c>
       <c r="J129">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K129" s="1">
         <v>132</v>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="F130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>SoTragic</v>
       </c>
       <c r="G130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -8030,13 +8030,13 @@
       </c>
       <c r="H130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>TooSoon</v>
       </c>
       <c r="I130">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J130">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K130" s="1">
         <v>149</v>
@@ -8070,17 +8070,17 @@
       </c>
       <c r="G131" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G131" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="H131" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H131" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="I131">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J131">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K131" s="1">
         <v>89</v>
@@ -8110,21 +8110,21 @@
       </c>
       <c r="F132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>AskingForIt</v>
       </c>
       <c r="G132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="I132">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J132">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K132" s="1">
         <v>69</v>
@@ -8154,21 +8154,21 @@
       </c>
       <c r="F133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>AskingForIt</v>
       </c>
       <c r="G133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I133">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J133">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K133" s="1">
         <v>50</v>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="F134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>BackToUs</v>
       </c>
       <c r="G134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -8206,13 +8206,13 @@
       </c>
       <c r="H134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="I134">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J134">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K134" s="1">
         <v>134</v>
@@ -8242,21 +8242,21 @@
       </c>
       <c r="F135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>MadeIt</v>
       </c>
       <c r="G135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>MadeIt</v>
       </c>
       <c r="H135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>BackToUs</v>
       </c>
       <c r="I135">
         <v>100</v>
       </c>
       <c r="J135">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K135" s="1">
         <v>78</v>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="F136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>HELPME</v>
       </c>
       <c r="G136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -8294,13 +8294,13 @@
       </c>
       <c r="H136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>WeLostThem</v>
       </c>
       <c r="I136">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J136">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K136" s="1">
         <v>145</v>
@@ -8330,21 +8330,21 @@
       </c>
       <c r="F137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="G137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>Drained</v>
       </c>
       <c r="H137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>HELPME</v>
       </c>
       <c r="I137">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J137">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K137" s="1">
         <v>82</v>
@@ -8374,21 +8374,21 @@
       </c>
       <c r="F138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>CrapStaff</v>
       </c>
       <c r="G138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="H138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>Refund</v>
       </c>
       <c r="I138">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J138">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K138" s="1">
         <v>175</v>
@@ -8418,21 +8418,21 @@
       </c>
       <c r="F139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="G139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="H139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="I139">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J139">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K139" s="1">
         <v>91</v>
@@ -8462,21 +8462,21 @@
       </c>
       <c r="F140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>WEStrong</v>
       </c>
       <c r="G140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="H140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="I140">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J140">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K140" s="1">
         <v>150</v>
@@ -8506,21 +8506,21 @@
       </c>
       <c r="F141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="G141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>WEStrong</v>
       </c>
       <c r="H141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>WEStrong</v>
       </c>
       <c r="I141">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J141">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K141" s="1">
         <v>110</v>
@@ -8550,21 +8550,21 @@
       </c>
       <c r="F142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="G142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="H142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>Outcast</v>
       </c>
       <c r="I142">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J142">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K142" s="1">
         <v>60</v>
@@ -8594,21 +8594,21 @@
       </c>
       <c r="F143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>SplitUp</v>
       </c>
       <c r="G143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>Desperate</v>
       </c>
       <c r="H143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>SplitUp</v>
       </c>
       <c r="I143">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J143">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K143" s="1">
         <v>70</v>
@@ -8642,17 +8642,17 @@
       </c>
       <c r="G144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I144">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J144">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K144" s="1">
         <v>147</v>
@@ -8682,21 +8682,21 @@
       </c>
       <c r="F145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Messiah</v>
       </c>
       <c r="H145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
         <v>Messiah</v>
       </c>
       <c r="I145">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J145">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K145" s="1">
         <v>90</v>
@@ -8730,17 +8730,17 @@
       </c>
       <c r="G146" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G146" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>RepeatElection</v>
       </c>
       <c r="H146" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H146" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="I146">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J146">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K146" s="1">
         <v>100</v>
@@ -8774,17 +8774,17 @@
       </c>
       <c r="G147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="H147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>People'sVoice</v>
       </c>
       <c r="I147">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J147">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K147" s="1">
         <v>156</v>
@@ -8814,11 +8814,11 @@
       </c>
       <c r="F148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>ItsOver</v>
       </c>
       <c r="G148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>NoFaith</v>
       </c>
       <c r="H148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -8828,7 +8828,7 @@
         <v>100</v>
       </c>
       <c r="J148">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K148" s="1">
         <v>80</v>
@@ -8858,21 +8858,21 @@
       </c>
       <c r="F149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>ItsOver</v>
       </c>
       <c r="G149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>ItsOver</v>
       </c>
       <c r="H149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
         <v>ItsOver</v>
       </c>
       <c r="I149">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J149">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K149" s="1">
         <v>75</v>
@@ -8902,21 +8902,21 @@
       </c>
       <c r="F150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="G150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>RaidingNight</v>
       </c>
       <c r="H150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
         <v>RaidingNight</v>
       </c>
       <c r="I150">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J150">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K150" s="1">
         <v>121</v>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="F151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>RiotTIME</v>
       </c>
       <c r="G151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -8954,13 +8954,13 @@
       </c>
       <c r="H151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="I151">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J151">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K151" s="1">
         <v>131</v>
@@ -8990,18 +8990,18 @@
       </c>
       <c r="F152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="G152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="H152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="I152">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J152">
         <v>10000</v>
@@ -9034,21 +9034,21 @@
       </c>
       <c r="F153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="G153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>Justice</v>
       </c>
       <c r="H153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>Justified!</v>
       </c>
       <c r="I153">
         <v>100</v>
       </c>
       <c r="J153">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K153" s="1">
         <v>132</v>
@@ -9078,21 +9078,21 @@
       </c>
       <c r="F154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>WhatAShame</v>
       </c>
       <c r="G154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>FreeThem</v>
       </c>
       <c r="H154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="I154">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J154">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K154" s="1">
         <v>149</v>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="F155" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F155" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G155" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G155" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -9130,13 +9130,13 @@
       </c>
       <c r="H155" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H155" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>Lowlife</v>
       </c>
       <c r="I155">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J155">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K155" s="1">
         <v>89</v>
@@ -9166,21 +9166,21 @@
       </c>
       <c r="F156" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F156" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>Despicable!</v>
       </c>
       <c r="G156" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G156" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>Despicable!</v>
       </c>
       <c r="H156" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H156" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
         <v>Despicable!</v>
       </c>
       <c r="I156">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J156">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K156" s="1">
         <v>69</v>
@@ -9210,21 +9210,21 @@
       </c>
       <c r="F157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="G157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>Despicable!</v>
       </c>
       <c r="I157">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J157">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K157" s="1">
         <v>50</v>
@@ -9254,21 +9254,21 @@
       </c>
       <c r="F158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>ThankGod</v>
       </c>
       <c r="G158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>MadeIt</v>
       </c>
       <c r="H158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>BestWishes</v>
       </c>
       <c r="I158">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J158">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K158" s="1">
         <v>134</v>
@@ -9298,21 +9298,21 @@
       </c>
       <c r="F159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>100Sober</v>
       </c>
       <c r="G159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>100Sober</v>
       </c>
       <c r="H159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="I159">
         <v>100</v>
       </c>
       <c r="J159">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K159" s="1">
         <v>78</v>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="F160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>God'sPlan</v>
       </c>
       <c r="G160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -9350,13 +9350,13 @@
       </c>
       <c r="H160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>Depressing</v>
       </c>
       <c r="I160">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J160">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K160" s="1">
         <v>145</v>
@@ -9386,21 +9386,21 @@
       </c>
       <c r="F161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="G161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="H161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
         <v>HardTimes</v>
       </c>
       <c r="I161">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J161">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K161" s="1">
         <v>82</v>
@@ -9430,21 +9430,21 @@
       </c>
       <c r="F162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="G162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="H162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>Refund</v>
       </c>
       <c r="I162">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J162">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K162" s="1">
         <v>175</v>
@@ -9474,21 +9474,21 @@
       </c>
       <c r="F163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="G163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>CrapStaff</v>
       </c>
       <c r="H163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>CrapStaff</v>
       </c>
       <c r="I163">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J163">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K163" s="1">
         <v>91</v>
@@ -9522,17 +9522,17 @@
       </c>
       <c r="G164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="H164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I164">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J164">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K164" s="1">
         <v>150</v>
@@ -9562,21 +9562,21 @@
       </c>
       <c r="F165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="G165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
         <v>OurWayOrHiWay</v>
       </c>
       <c r="I165">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J165">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K165" s="1">
         <v>110</v>
@@ -9606,21 +9606,21 @@
       </c>
       <c r="F166" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F166" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>SplitUp</v>
       </c>
       <c r="G166" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G166" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="H166" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H166" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>Outcast</v>
       </c>
       <c r="I166">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J166">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K166" s="1">
         <v>60</v>
@@ -9654,17 +9654,17 @@
       </c>
       <c r="G167" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G167" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="H167" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H167" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="I167">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J167">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K167" s="1">
         <v>70</v>
@@ -9698,17 +9698,17 @@
       </c>
       <c r="G168" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G168" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>Messiah</v>
       </c>
       <c r="H168" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H168" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>OurLastHope</v>
       </c>
       <c r="I168">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J168">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K168" s="1">
         <v>147</v>
@@ -9738,21 +9738,21 @@
       </c>
       <c r="F169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="G169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
         <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I169">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J169">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K169" s="1">
         <v>90</v>
@@ -9782,21 +9782,21 @@
       </c>
       <c r="F170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="G170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>People'sVoice</v>
       </c>
       <c r="H170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>InGoodHands</v>
       </c>
       <c r="I170">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J170">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K170" s="1">
         <v>100</v>
@@ -9826,21 +9826,21 @@
       </c>
       <c r="F171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>InGoodHands</v>
       </c>
       <c r="G171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>InGoodHands</v>
       </c>
       <c r="H171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="I171">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J171">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K171" s="1">
         <v>156</v>
@@ -9870,21 +9870,21 @@
       </c>
       <c r="F172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="G172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>NoFaith</v>
       </c>
       <c r="H172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="I172">
         <v>100</v>
       </c>
       <c r="J172">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K172" s="1">
         <v>80</v>
@@ -9914,21 +9914,21 @@
       </c>
       <c r="F173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>NoFaith</v>
       </c>
       <c r="G173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="I173">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J173">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K173" s="1">
         <v>75</v>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="F174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="G174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -9966,13 +9966,13 @@
       </c>
       <c r="H174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="I174">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J174">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K174" s="1">
         <v>121</v>
@@ -10002,21 +10002,21 @@
       </c>
       <c r="F175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>RaidingNight</v>
       </c>
       <c r="G175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>RaidingNight</v>
       </c>
       <c r="H175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I175">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J175">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K175" s="1">
         <v>131</v>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="F176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>BeSafe</v>
       </c>
       <c r="G176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -10054,10 +10054,10 @@
       </c>
       <c r="H176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>Justice</v>
       </c>
       <c r="I176">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J176">
         <v>10000</v>
@@ -10090,7 +10090,7 @@
       </c>
       <c r="F177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="G177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -10098,13 +10098,13 @@
       </c>
       <c r="H177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Justice</v>
       </c>
       <c r="I177">
         <v>100</v>
       </c>
       <c r="J177">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K177" s="1">
         <v>132</v>
@@ -10134,21 +10134,21 @@
       </c>
       <c r="F178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>Lowlife</v>
       </c>
       <c r="G178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>PrayForThem</v>
       </c>
       <c r="H178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>SoTragic</v>
       </c>
       <c r="I178">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J178">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K178" s="1">
         <v>149</v>
@@ -10182,17 +10182,17 @@
       </c>
       <c r="G179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>SoTragic</v>
       </c>
       <c r="H179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>PrayForThem</v>
       </c>
       <c r="I179">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J179">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K179" s="1">
         <v>89</v>
@@ -10222,21 +10222,21 @@
       </c>
       <c r="F180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="G180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="H180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="I180">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J180">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="K180" s="1">
         <v>69</v>
@@ -10266,21 +10266,21 @@
       </c>
       <c r="F181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="G181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>AskingForIt</v>
       </c>
       <c r="I181">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J181">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K181" s="1">
         <v>50</v>
@@ -10310,7 +10310,7 @@
       </c>
       <c r="F182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="G182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -10318,13 +10318,13 @@
       </c>
       <c r="H182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>ThankGod</v>
       </c>
       <c r="I182">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J182">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K182" s="1">
         <v>134</v>
@@ -10354,21 +10354,21 @@
       </c>
       <c r="F183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>BackToUs</v>
       </c>
       <c r="G183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="H183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>BestWishes</v>
       </c>
       <c r="I183">
         <v>100</v>
       </c>
       <c r="J183">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K183" s="1">
         <v>78</v>
@@ -10398,21 +10398,21 @@
       </c>
       <c r="F184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="G184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>Drained</v>
       </c>
       <c r="H184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="I184">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J184">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K184" s="1">
         <v>145</v>
@@ -10442,21 +10442,21 @@
       </c>
       <c r="F185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="G185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>HardTimes</v>
       </c>
       <c r="H185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="I185">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="J185">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K185" s="1">
         <v>82</v>
@@ -10490,17 +10490,17 @@
       </c>
       <c r="G186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="H186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I186">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J186">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="K186" s="1">
         <v>175</v>
@@ -10530,21 +10530,21 @@
       </c>
       <c r="F187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="G187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>Refund</v>
       </c>
       <c r="H187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>Refund</v>
       </c>
       <c r="I187">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J187">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K187" s="1">
         <v>91</v>
@@ -10574,21 +10574,21 @@
       </c>
       <c r="F188" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F188" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="G188" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G188" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>WEStrong</v>
       </c>
       <c r="H188" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H188" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I188">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J188">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K188" s="1">
         <v>150</v>
@@ -10618,21 +10618,21 @@
       </c>
       <c r="F189" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F189" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="G189" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G189" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="H189" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H189" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="I189">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J189">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="K189" s="1">
         <v>110</v>
@@ -10666,17 +10666,17 @@
       </c>
       <c r="G190" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G190" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="H190" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H190" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>SplitUp</v>
       </c>
       <c r="I190">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J190">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K190" s="1">
         <v>60</v>
@@ -10706,21 +10706,21 @@
       </c>
       <c r="F191" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F191" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G191" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G191" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>Desperate</v>
       </c>
       <c r="H191" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H191" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>SplitUp</v>
       </c>
       <c r="I191">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J191">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K191" s="1">
         <v>70</v>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="F192" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F192" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G192" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G192" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -10758,13 +10758,13 @@
       </c>
       <c r="H192" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H192" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I192">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J192">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K192" s="1">
         <v>147</v>
@@ -10794,21 +10794,21 @@
       </c>
       <c r="F193" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F193" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G193" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G193" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="H193" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H193" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="I193">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J193">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="K193" s="1">
         <v>90</v>
@@ -13576,7 +13576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53B4979-BA2F-42C6-BF9E-77AF10AFAE50}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptun\Desktop\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01EBD3E-6B21-4341-9728-7AEA55EDA54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281AC4BE-06BC-4C25-A5DB-E4612855B006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media Posts" sheetId="1" r:id="rId1"/>
@@ -1719,12 +1719,6 @@
     <t>NecessaryEvil</t>
   </si>
   <si>
-    <t>Good Morning. I am Braga Filha, your boss.|I will further speak with you as you work in our news department.</t>
-  </si>
-  <si>
-    <t>Welcome to your first day working for us at Under Choices Entertainment.|I've added your personal number to allow for more direct communication if necessary.|I hope that you enjoy your time working for us and that you abide by our expectations.|Contact me if you need extra guidance.</t>
-  </si>
-  <si>
     <t>This is a warning to certain staff members to stay inside your homes for the time being.|We don't want to risk our vital employees getting sick at this point in time.</t>
   </si>
   <si>
@@ -1783,6 +1777,12 @@
   </si>
   <si>
     <t>U.S.A.R. Plans Fireworks Display!!!</t>
+  </si>
+  <si>
+    <t>Good Morning. I am Braga Filha, your boss.|I will speak with you further as you work in our news department.</t>
+  </si>
+  <si>
+    <t>Welcome to your first day working for us at Under Choices Entertainment.|I've added your personal number to allow for more direct communication if necessary.|I hope that you enjoy your time working for us and that you abide by our expectations.</t>
   </si>
 </sst>
 </file>
@@ -2335,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L193" sqref="L193"/>
+    <sheetView topLeftCell="E133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="F2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="G2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="H2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>InGoodHands</v>
       </c>
       <c r="I2">
         <v>75</v>
@@ -2434,7 +2434,7 @@
         <v>150</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>235</v>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="G3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="H3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>InGoodHands</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -2478,7 +2478,7 @@
         <v>150</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>241</v>
@@ -2502,15 +2502,15 @@
       </c>
       <c r="F4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>NoFaith</v>
       </c>
       <c r="G4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="H4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="I4">
         <v>100</v>
@@ -2546,15 +2546,15 @@
       </c>
       <c r="F5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="I5">
         <v>125</v>
@@ -2590,15 +2590,15 @@
       </c>
       <c r="F6" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="G6" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="H6" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="I6">
         <v>200</v>
@@ -2634,11 +2634,11 @@
       </c>
       <c r="F7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="G7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="H7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -2678,15 +2678,15 @@
       </c>
       <c r="F8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Justified!</v>
       </c>
       <c r="G8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>BeSafe</v>
       </c>
       <c r="H8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="I8">
         <v>75</v>
@@ -2722,15 +2722,15 @@
       </c>
       <c r="F9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="G9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>BeSafe</v>
       </c>
       <c r="H9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="I9">
         <v>100</v>
@@ -2766,15 +2766,15 @@
       </c>
       <c r="F10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>Pathetic</v>
       </c>
       <c r="H10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>PrayForThem</v>
       </c>
       <c r="I10">
         <v>225</v>
@@ -2810,15 +2810,15 @@
       </c>
       <c r="F11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>TooSoon</v>
       </c>
       <c r="G11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>PrayForThem</v>
       </c>
       <c r="H11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>TooSoon</v>
       </c>
       <c r="I11">
         <v>175</v>
@@ -2854,15 +2854,15 @@
       </c>
       <c r="F12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>AskingForIt</v>
       </c>
       <c r="G12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="H12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="I12">
         <v>325</v>
@@ -2898,15 +2898,15 @@
       </c>
       <c r="F13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="G13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="H13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="I13">
         <v>200</v>
@@ -2942,15 +2942,15 @@
       </c>
       <c r="F14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>BackToUs</v>
       </c>
       <c r="G14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Recovered:)</v>
       </c>
       <c r="H14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="I14">
         <v>75</v>
@@ -2986,15 +2986,15 @@
       </c>
       <c r="F15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>Recovered:)</v>
       </c>
       <c r="G15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>ThankGod</v>
       </c>
       <c r="H15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="I15">
         <v>100</v>
@@ -3030,15 +3030,15 @@
       </c>
       <c r="F16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="G16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>God'sPlan</v>
       </c>
       <c r="H16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="I16">
         <v>200</v>
@@ -3074,15 +3074,15 @@
       </c>
       <c r="F17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>HELPME</v>
       </c>
       <c r="G17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="H17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>Depressing</v>
       </c>
       <c r="I17">
         <v>175</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="F18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>Refund</v>
       </c>
       <c r="G18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="H18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>CrapStaff</v>
       </c>
       <c r="I18">
         <v>350</v>
@@ -3162,15 +3162,15 @@
       </c>
       <c r="F19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="G19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="H19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="I19">
         <v>250</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="G20" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="H20" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -3250,15 +3250,15 @@
       </c>
       <c r="F21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="G21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -3298,11 +3298,11 @@
       </c>
       <c r="G22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>SplitUp</v>
       </c>
       <c r="H22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>Outcast</v>
       </c>
       <c r="I22">
         <v>150</v>
@@ -3338,15 +3338,15 @@
       </c>
       <c r="F23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>SplitUp</v>
       </c>
       <c r="G23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="H23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>Desperate</v>
       </c>
       <c r="I23">
         <v>200</v>
@@ -3382,15 +3382,15 @@
       </c>
       <c r="F24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>Messiah</v>
       </c>
       <c r="G24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>Messiah</v>
       </c>
       <c r="H24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>Messiah</v>
       </c>
       <c r="I24">
         <v>400</v>
@@ -3426,15 +3426,15 @@
       </c>
       <c r="F25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="H25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="I25">
         <v>150</v>
@@ -3470,15 +3470,15 @@
       </c>
       <c r="F26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>People'sVoice</v>
       </c>
       <c r="G26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="H26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>People'sVoice</v>
       </c>
       <c r="I26">
         <v>75</v>
@@ -3490,7 +3490,7 @@
         <v>150</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M26" s="19" t="s">
         <v>235</v>
@@ -3514,15 +3514,15 @@
       </c>
       <c r="F27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="G27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>VoteAgain</v>
       </c>
       <c r="H27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>RepeatElection</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -3534,7 +3534,7 @@
         <v>150</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M27" s="19" t="s">
         <v>241</v>
@@ -3558,11 +3558,11 @@
       </c>
       <c r="F28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="G28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="H28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -3602,15 +3602,15 @@
       </c>
       <c r="F29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="G29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="H29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>NoFaith</v>
       </c>
       <c r="I29">
         <v>125</v>
@@ -3646,15 +3646,15 @@
       </c>
       <c r="F30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="H30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="I30">
         <v>200</v>
@@ -3694,11 +3694,11 @@
       </c>
       <c r="G31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="H31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="I31">
         <v>125</v>
@@ -3734,15 +3734,15 @@
       </c>
       <c r="F32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>BeSafe</v>
       </c>
       <c r="G32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="H32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Justice</v>
       </c>
       <c r="I32">
         <v>75</v>
@@ -3778,15 +3778,15 @@
       </c>
       <c r="F33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>Justified!</v>
       </c>
       <c r="G33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>BeSafe</v>
       </c>
       <c r="H33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="I33">
         <v>100</v>
@@ -3822,15 +3822,15 @@
       </c>
       <c r="F34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>SoTragic</v>
       </c>
       <c r="H34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>WhatAShame</v>
       </c>
       <c r="I34">
         <v>225</v>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="F35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>WhatAShame</v>
       </c>
       <c r="G35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="H35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>FreeThem</v>
       </c>
       <c r="I35">
         <v>175</v>
@@ -3910,15 +3910,15 @@
       </c>
       <c r="F36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="G36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="H36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>Despicable!</v>
       </c>
       <c r="I36">
         <v>325</v>
@@ -3954,15 +3954,15 @@
       </c>
       <c r="F37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="G37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="H37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I37">
         <v>200</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="F38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>MadeIt</v>
       </c>
       <c r="G38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="H38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>100Sober</v>
       </c>
       <c r="I38">
         <v>75</v>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="F39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Recovered:)</v>
       </c>
       <c r="G39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -4086,11 +4086,11 @@
       </c>
       <c r="F40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>HELPME</v>
       </c>
       <c r="G40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="H40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -4130,15 +4130,15 @@
       </c>
       <c r="F41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>WeLostThem</v>
       </c>
       <c r="G41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>HELPME</v>
       </c>
       <c r="H41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="I41">
         <v>175</v>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="F42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="G42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="H42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -4218,15 +4218,15 @@
       </c>
       <c r="F43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="G43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>Refund</v>
       </c>
       <c r="H43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="I43">
         <v>250</v>
@@ -4262,15 +4262,15 @@
       </c>
       <c r="F44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="G44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="H44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I44">
         <v>75</v>
@@ -4306,15 +4306,15 @@
       </c>
       <c r="F45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="G45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="H45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -4350,11 +4350,11 @@
       </c>
       <c r="F46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="G46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>Desperate</v>
       </c>
       <c r="H46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -4394,15 +4394,15 @@
       </c>
       <c r="F47" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G47" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="H47" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>Desperate</v>
       </c>
       <c r="I47">
         <v>200</v>
@@ -4438,15 +4438,15 @@
       </c>
       <c r="F48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="H48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="I48">
         <v>400</v>
@@ -4482,15 +4482,15 @@
       </c>
       <c r="F49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="G49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Messiah</v>
       </c>
       <c r="H49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I49">
         <v>150</v>
@@ -4526,15 +4526,15 @@
       </c>
       <c r="F50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="G50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>RepeatElection</v>
       </c>
       <c r="H50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="I50">
         <v>75</v>
@@ -4546,7 +4546,7 @@
         <v>150</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M50" s="19" t="s">
         <v>254</v>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="F51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>InGoodHands</v>
       </c>
       <c r="G51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="H51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H51" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>VoteAgain</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -4590,7 +4590,7 @@
         <v>150</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>255</v>
@@ -4614,15 +4614,15 @@
       </c>
       <c r="F52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="G52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="H52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="I52">
         <v>100</v>
@@ -4662,11 +4662,11 @@
       </c>
       <c r="G53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>ItsOver</v>
       </c>
       <c r="H53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="I53">
         <v>125</v>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="F54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="H54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="I54">
         <v>200</v>
@@ -4746,11 +4746,11 @@
       </c>
       <c r="F55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="G55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="H55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -4794,11 +4794,11 @@
       </c>
       <c r="G56" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="H56" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>Justice</v>
       </c>
       <c r="I56">
         <v>75</v>
@@ -4834,15 +4834,15 @@
       </c>
       <c r="F57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="G57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>BeSafe</v>
       </c>
       <c r="H57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>Justified!</v>
       </c>
       <c r="I57">
         <v>100</v>
@@ -4878,15 +4878,15 @@
       </c>
       <c r="F58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>WhatAShame</v>
       </c>
       <c r="G58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>Pathetic</v>
       </c>
       <c r="H58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>SoTragic</v>
       </c>
       <c r="I58">
         <v>225</v>
@@ -4922,15 +4922,15 @@
       </c>
       <c r="F59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>TooSoon</v>
       </c>
       <c r="G59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>PrayForThem</v>
       </c>
       <c r="H59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="I59">
         <v>175</v>
@@ -4966,15 +4966,15 @@
       </c>
       <c r="F60" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="G60" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H60" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>DeathCollection</v>
       </c>
       <c r="I60">
         <v>325</v>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="H61" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>AskingForIt</v>
       </c>
       <c r="I61">
         <v>200</v>
@@ -5054,15 +5054,15 @@
       </c>
       <c r="F62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>100Sober</v>
       </c>
       <c r="G62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>BestWishes</v>
       </c>
       <c r="H62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="I62">
         <v>75</v>
@@ -5098,11 +5098,11 @@
       </c>
       <c r="F63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="G63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="H63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -5142,15 +5142,15 @@
       </c>
       <c r="F64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>God'sPlan</v>
       </c>
       <c r="G64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>WeLostThem</v>
       </c>
       <c r="H64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="I64">
         <v>200</v>
@@ -5186,15 +5186,15 @@
       </c>
       <c r="F65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>Depressing</v>
       </c>
       <c r="G65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>HELPME</v>
       </c>
       <c r="H65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="I65">
         <v>175</v>
@@ -5230,15 +5230,15 @@
       </c>
       <c r="F66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>CrapStaff</v>
       </c>
       <c r="G66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I66">
         <v>350</v>
@@ -5274,15 +5274,15 @@
       </c>
       <c r="F67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>CrapStaff</v>
       </c>
       <c r="G67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="H67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="I67">
         <v>250</v>
@@ -5318,15 +5318,15 @@
       </c>
       <c r="F68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="G68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="H68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="I68">
         <v>75</v>
@@ -5362,15 +5362,15 @@
       </c>
       <c r="F69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="G69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="H69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -5406,15 +5406,15 @@
       </c>
       <c r="F70" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>Outcast</v>
       </c>
       <c r="G70" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="H70" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="I70">
         <v>150</v>
@@ -5450,15 +5450,15 @@
       </c>
       <c r="F71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="H71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>Outcast</v>
       </c>
       <c r="I71">
         <v>200</v>
@@ -5498,11 +5498,11 @@
       </c>
       <c r="G72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="H72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="I72">
         <v>400</v>
@@ -5538,15 +5538,15 @@
       </c>
       <c r="F73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>Messiah</v>
       </c>
       <c r="G73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>OurLastHope</v>
       </c>
       <c r="H73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="I73">
         <v>150</v>
@@ -5586,11 +5586,11 @@
       </c>
       <c r="G74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="H74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>People'sVoice</v>
       </c>
       <c r="I74">
         <v>75</v>
@@ -5626,15 +5626,15 @@
       </c>
       <c r="F75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="G75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="H75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>InGoodHands</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -5646,7 +5646,7 @@
         <v>150</v>
       </c>
       <c r="L75" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M75" s="19" t="s">
         <v>279</v>
@@ -5670,15 +5670,15 @@
       </c>
       <c r="F76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="G76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="H76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="I76">
         <v>100</v>
@@ -5714,15 +5714,15 @@
       </c>
       <c r="F77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="G77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="H77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="I77">
         <v>125</v>
@@ -5758,15 +5758,15 @@
       </c>
       <c r="F78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>RiotTIME</v>
       </c>
       <c r="G78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>RiotTIME</v>
       </c>
       <c r="H78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I78">
         <v>200</v>
@@ -5802,15 +5802,15 @@
       </c>
       <c r="F79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>RiotTIME</v>
       </c>
       <c r="G79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>RiotTIME</v>
       </c>
       <c r="H79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="I79">
         <v>125</v>
@@ -5846,15 +5846,15 @@
       </c>
       <c r="F80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="G80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="H80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Justified!</v>
       </c>
       <c r="I80">
         <v>75</v>
@@ -5890,15 +5890,15 @@
       </c>
       <c r="F81" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="G81" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>Hero</v>
       </c>
       <c r="H81" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H81" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>BeSafe</v>
       </c>
       <c r="I81">
         <v>100</v>
@@ -5938,11 +5938,11 @@
       </c>
       <c r="G82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>FreeThem</v>
       </c>
       <c r="H82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>PrayForThem</v>
       </c>
       <c r="I82">
         <v>225</v>
@@ -5978,15 +5978,15 @@
       </c>
       <c r="F83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>SoTragic</v>
       </c>
       <c r="G83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>Lowlife</v>
       </c>
       <c r="H83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="I83">
         <v>175</v>
@@ -6022,15 +6022,15 @@
       </c>
       <c r="F84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="G84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="H84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>DeathCollection</v>
       </c>
       <c r="I84">
         <v>325</v>
@@ -6070,11 +6070,11 @@
       </c>
       <c r="G85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="H85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="I85">
         <v>200</v>
@@ -6114,11 +6114,11 @@
       </c>
       <c r="G86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>BackToUs</v>
       </c>
       <c r="H86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="I86">
         <v>75</v>
@@ -6154,15 +6154,15 @@
       </c>
       <c r="F87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="G87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>BestWishes</v>
       </c>
       <c r="H87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>Recovered:)</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -6198,15 +6198,15 @@
       </c>
       <c r="F88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="G88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>HardTimes</v>
       </c>
       <c r="H88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="I88">
         <v>200</v>
@@ -6242,15 +6242,15 @@
       </c>
       <c r="F89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>God'sPlan</v>
       </c>
       <c r="G89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>HELPME</v>
       </c>
       <c r="H89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="I89">
         <v>175</v>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="F90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="G90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="H90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="I90">
         <v>350</v>
@@ -6330,15 +6330,15 @@
       </c>
       <c r="F91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="G91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="H91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I91">
         <v>250</v>
@@ -6378,11 +6378,11 @@
       </c>
       <c r="G92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="I92">
         <v>75</v>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="F93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="G93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="H93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="I93">
         <v>50</v>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="F94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="G94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="H94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="I94">
         <v>150</v>
@@ -6506,15 +6506,15 @@
       </c>
       <c r="F95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>SplitUp</v>
       </c>
       <c r="G95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="H95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="I95">
         <v>200</v>
@@ -6550,15 +6550,15 @@
       </c>
       <c r="F96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>OurLastHope</v>
       </c>
       <c r="H96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I96">
         <v>400</v>
@@ -6594,15 +6594,15 @@
       </c>
       <c r="F97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="H97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="I97">
         <v>150</v>
@@ -6642,11 +6642,11 @@
       </c>
       <c r="G98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>VoteAgain</v>
       </c>
       <c r="H98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>RepeatElection</v>
       </c>
       <c r="I98">
         <v>75</v>
@@ -6682,15 +6682,15 @@
       </c>
       <c r="F99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="G99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>VoteAgain</v>
       </c>
       <c r="H99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="I99">
         <v>50</v>
@@ -6702,7 +6702,7 @@
         <v>150</v>
       </c>
       <c r="L99" s="20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M99" s="19" t="s">
         <v>303</v>
@@ -6726,15 +6726,15 @@
       </c>
       <c r="F100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>ItsOver</v>
       </c>
       <c r="G100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>ItsOver</v>
       </c>
       <c r="H100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="I100">
         <v>100</v>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="F101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>NoFaith</v>
       </c>
       <c r="G101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="H101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="I101">
         <v>125</v>
@@ -6814,15 +6814,15 @@
       </c>
       <c r="F102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>RaidingNight</v>
       </c>
       <c r="G102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="H102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="I102">
         <v>200</v>
@@ -6858,15 +6858,15 @@
       </c>
       <c r="F103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>RiotTIME</v>
       </c>
       <c r="G103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>RiotTIME</v>
       </c>
       <c r="H103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="I103">
         <v>125</v>
@@ -6902,15 +6902,15 @@
       </c>
       <c r="F104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="G104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Justice</v>
       </c>
       <c r="H104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="I104">
         <v>75</v>
@@ -6946,15 +6946,15 @@
       </c>
       <c r="F105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>Justice</v>
       </c>
       <c r="G105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="H105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="I105">
         <v>100</v>
@@ -6990,15 +6990,15 @@
       </c>
       <c r="F106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>PrayForThem</v>
       </c>
       <c r="H106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>TooSoon</v>
       </c>
       <c r="I106">
         <v>225</v>
@@ -7034,15 +7034,15 @@
       </c>
       <c r="F107" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>PrayForThem</v>
       </c>
       <c r="G107" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="H107" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H107" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>Lowlife</v>
       </c>
       <c r="I107">
         <v>175</v>
@@ -7078,15 +7078,15 @@
       </c>
       <c r="F108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="G108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I108">
         <v>325</v>
@@ -7122,11 +7122,11 @@
       </c>
       <c r="F109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="G109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -7166,11 +7166,11 @@
       </c>
       <c r="F110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>BackToUs</v>
       </c>
       <c r="G110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>ThankGod</v>
       </c>
       <c r="H110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -7210,15 +7210,15 @@
       </c>
       <c r="F111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>BestWishes</v>
       </c>
       <c r="G111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>BestWishes</v>
       </c>
       <c r="H111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="I111">
         <v>100</v>
@@ -7254,15 +7254,15 @@
       </c>
       <c r="F112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>Drained</v>
       </c>
       <c r="G112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="H112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="I112">
         <v>200</v>
@@ -7298,15 +7298,15 @@
       </c>
       <c r="F113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>Drained</v>
       </c>
       <c r="G113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>God'sPlan</v>
       </c>
       <c r="H113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="I113">
         <v>175</v>
@@ -7342,15 +7342,15 @@
       </c>
       <c r="F114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="G114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="H114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>Refund</v>
       </c>
       <c r="I114">
         <v>350</v>
@@ -7390,11 +7390,11 @@
       </c>
       <c r="G115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="I115">
         <v>250</v>
@@ -7430,15 +7430,15 @@
       </c>
       <c r="F116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="G116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="H116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="I116">
         <v>75</v>
@@ -7474,11 +7474,11 @@
       </c>
       <c r="F117" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F117" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="G117" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G117" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="H117" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H117" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -7518,15 +7518,15 @@
       </c>
       <c r="F118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="H118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="I118">
         <v>150</v>
@@ -7562,15 +7562,15 @@
       </c>
       <c r="F119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>SplitUp</v>
       </c>
       <c r="H119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>Outcast</v>
       </c>
       <c r="I119">
         <v>200</v>
@@ -7606,15 +7606,15 @@
       </c>
       <c r="F120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>Messiah</v>
       </c>
       <c r="G120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="H120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="I120">
         <v>400</v>
@@ -7650,15 +7650,15 @@
       </c>
       <c r="F121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="H121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>Messiah</v>
       </c>
       <c r="I121">
         <v>150</v>
@@ -7694,15 +7694,15 @@
       </c>
       <c r="F122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>People'sVoice</v>
       </c>
       <c r="G122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="H122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="I122">
         <v>75</v>
@@ -7714,7 +7714,7 @@
         <v>100</v>
       </c>
       <c r="L122" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M122" s="19" t="s">
         <v>326</v>
@@ -7738,15 +7738,15 @@
       </c>
       <c r="F123" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F123" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="G123" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="H123" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H123" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="I123">
         <v>50</v>
@@ -7782,15 +7782,15 @@
       </c>
       <c r="F124" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F124" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="G124" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G124" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H124" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H124" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="I124">
         <v>100</v>
@@ -7826,15 +7826,15 @@
       </c>
       <c r="F125" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F125" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G125" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G125" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>NoFaith</v>
       </c>
       <c r="H125" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H125" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="I125">
         <v>125</v>
@@ -7870,15 +7870,15 @@
       </c>
       <c r="F126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="G126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="H126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I126">
         <v>200</v>
@@ -7914,11 +7914,11 @@
       </c>
       <c r="F127" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F127" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G127" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G127" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="H127" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H127" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -7958,15 +7958,15 @@
       </c>
       <c r="F128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="G128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>Justified!</v>
       </c>
       <c r="H128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>BeSafe</v>
       </c>
       <c r="I128">
         <v>75</v>
@@ -8002,15 +8002,15 @@
       </c>
       <c r="F129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>BeSafe</v>
       </c>
       <c r="G129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>Hero</v>
       </c>
       <c r="H129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Hero</v>
       </c>
       <c r="I129">
         <v>100</v>
@@ -8050,11 +8050,11 @@
       </c>
       <c r="G130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>SoTragic</v>
       </c>
       <c r="H130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>WhatAShame</v>
       </c>
       <c r="I130">
         <v>225</v>
@@ -8090,15 +8090,15 @@
       </c>
       <c r="F131" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F131" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>WhatAShame</v>
       </c>
       <c r="G131" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G131" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>WhatAShame</v>
       </c>
       <c r="H131" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H131" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>FreeThem</v>
       </c>
       <c r="I131">
         <v>175</v>
@@ -8134,15 +8134,15 @@
       </c>
       <c r="F132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="G132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="H132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="I132">
         <v>325</v>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="F133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="G133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="H133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>Despicable!</v>
       </c>
       <c r="I133">
         <v>200</v>
@@ -8222,15 +8222,15 @@
       </c>
       <c r="F134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>Recovered:)</v>
       </c>
       <c r="G134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>BackToUs</v>
       </c>
       <c r="H134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>BackToUs</v>
       </c>
       <c r="I134">
         <v>75</v>
@@ -8266,15 +8266,15 @@
       </c>
       <c r="F135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>MadeIt</v>
       </c>
       <c r="G135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="H135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>Recovered:)</v>
       </c>
       <c r="I135">
         <v>100</v>
@@ -8310,15 +8310,15 @@
       </c>
       <c r="F136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="G136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>WeLostThem</v>
       </c>
       <c r="H136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>God'sPlan</v>
       </c>
       <c r="I136">
         <v>200</v>
@@ -8354,15 +8354,15 @@
       </c>
       <c r="F137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>Drained</v>
       </c>
       <c r="G137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>WeLostThem</v>
       </c>
       <c r="H137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>God'sPlan</v>
       </c>
       <c r="I137">
         <v>175</v>
@@ -8398,15 +8398,15 @@
       </c>
       <c r="F138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>CrapStaff</v>
       </c>
       <c r="G138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="H138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="I138">
         <v>350</v>
@@ -8442,15 +8442,15 @@
       </c>
       <c r="F139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="G139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>Refund</v>
       </c>
       <c r="H139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I139">
         <v>250</v>
@@ -8486,15 +8486,15 @@
       </c>
       <c r="F140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="G140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="H140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="I140">
         <v>75</v>
@@ -8530,15 +8530,15 @@
       </c>
       <c r="F141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="G141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="H141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>WEStrong</v>
       </c>
       <c r="I141">
         <v>50</v>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="F142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="H142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>Desperate</v>
       </c>
       <c r="I142">
         <v>150</v>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="F143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -8662,15 +8662,15 @@
       </c>
       <c r="F144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="G144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="H144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="I144">
         <v>400</v>
@@ -8682,7 +8682,7 @@
         <v>100</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M144" t="s">
         <v>348</v>
@@ -8706,15 +8706,15 @@
       </c>
       <c r="F145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="G145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="I145">
         <v>150</v>
@@ -8750,15 +8750,15 @@
       </c>
       <c r="F146" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F146" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>People'sVoice</v>
       </c>
       <c r="G146" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G146" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>InGoodHands</v>
       </c>
       <c r="H146" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H146" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>RepeatElection</v>
       </c>
       <c r="I146">
         <v>75</v>
@@ -8770,7 +8770,7 @@
         <v>100</v>
       </c>
       <c r="L146" s="20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M146" s="19" t="s">
         <v>350</v>
@@ -8794,15 +8794,15 @@
       </c>
       <c r="F147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>People'sVoice</v>
       </c>
       <c r="G147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>People'sVoice</v>
       </c>
       <c r="H147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="I147">
         <v>50</v>
@@ -8814,7 +8814,7 @@
         <v>150</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M147" t="s">
         <v>351</v>
@@ -8838,15 +8838,15 @@
       </c>
       <c r="F148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>NoFaith</v>
       </c>
       <c r="G148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>NoFaith</v>
       </c>
       <c r="H148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="I148">
         <v>100</v>
@@ -8882,15 +8882,15 @@
       </c>
       <c r="F149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>NoFaith</v>
       </c>
       <c r="G149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="H149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="I149">
         <v>125</v>
@@ -8926,15 +8926,15 @@
       </c>
       <c r="F150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="H150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="I150">
         <v>200</v>
@@ -8970,15 +8970,15 @@
       </c>
       <c r="F151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="G151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="H151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="I151">
         <v>125</v>
@@ -9018,11 +9018,11 @@
       </c>
       <c r="G152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Hero</v>
       </c>
       <c r="H152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Justified!</v>
       </c>
       <c r="I152">
         <v>75</v>
@@ -9058,15 +9058,15 @@
       </c>
       <c r="F153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>Justice</v>
       </c>
       <c r="G153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>BeSafe</v>
       </c>
       <c r="H153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>Justice</v>
       </c>
       <c r="I153">
         <v>100</v>
@@ -9106,11 +9106,11 @@
       </c>
       <c r="G154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>TooSoon</v>
       </c>
       <c r="H154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>WhatAShame</v>
       </c>
       <c r="I154">
         <v>225</v>
@@ -9150,11 +9150,11 @@
       </c>
       <c r="G155" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G155" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>Lowlife</v>
       </c>
       <c r="H155" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H155" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>Pathetic</v>
       </c>
       <c r="I155">
         <v>175</v>
@@ -9194,11 +9194,11 @@
       </c>
       <c r="G156" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G156" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="H156" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H156" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I156">
         <v>325</v>
@@ -9238,11 +9238,11 @@
       </c>
       <c r="G157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I157">
         <v>200</v>
@@ -9278,15 +9278,15 @@
       </c>
       <c r="F158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>MadeIt</v>
       </c>
       <c r="G158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>BackToUs</v>
       </c>
       <c r="H158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="I158">
         <v>75</v>
@@ -9322,15 +9322,15 @@
       </c>
       <c r="F159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>BackToUs</v>
       </c>
       <c r="G159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>Recovered:)</v>
       </c>
       <c r="H159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>BestWishes</v>
       </c>
       <c r="I159">
         <v>100</v>
@@ -9366,15 +9366,15 @@
       </c>
       <c r="F160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>WeLostThem</v>
       </c>
       <c r="G160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>HELPME</v>
       </c>
       <c r="H160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>Drained</v>
       </c>
       <c r="I160">
         <v>200</v>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="G161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>WeLostThem</v>
       </c>
       <c r="H161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -9454,15 +9454,15 @@
       </c>
       <c r="F162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="G162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="I162">
         <v>350</v>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="F163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="G163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="H163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I163">
         <v>250</v>
@@ -9542,15 +9542,15 @@
       </c>
       <c r="F164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="G164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="H164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I164">
         <v>75</v>
@@ -9586,15 +9586,15 @@
       </c>
       <c r="F165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="G165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>WEStrong</v>
       </c>
       <c r="H165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="I165">
         <v>50</v>
@@ -9634,11 +9634,11 @@
       </c>
       <c r="G166" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G166" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="H166" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H166" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="I166">
         <v>150</v>
@@ -9674,7 +9674,7 @@
       </c>
       <c r="F167" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F167" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>SplitUp</v>
       </c>
       <c r="G167" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G167" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="H167" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H167" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="I167">
         <v>200</v>
@@ -9718,15 +9718,15 @@
       </c>
       <c r="F168" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F168" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>Messiah</v>
       </c>
       <c r="G168" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G168" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="H168" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H168" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>Messiah</v>
       </c>
       <c r="I168">
         <v>400</v>
@@ -9762,15 +9762,15 @@
       </c>
       <c r="F169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="G169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="H169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="I169">
         <v>150</v>
@@ -9806,15 +9806,15 @@
       </c>
       <c r="F170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="G170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="H170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>InGoodHands</v>
       </c>
       <c r="I170">
         <v>75</v>
@@ -9826,7 +9826,7 @@
         <v>100</v>
       </c>
       <c r="L170" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M170" t="s">
         <v>374</v>
@@ -9850,15 +9850,15 @@
       </c>
       <c r="F171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="G171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>RepeatElection</v>
       </c>
       <c r="H171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>ReElect!!!</v>
       </c>
       <c r="I171">
         <v>50</v>
@@ -9870,7 +9870,7 @@
         <v>150</v>
       </c>
       <c r="L171" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M171" s="19" t="s">
         <v>375</v>
@@ -9894,15 +9894,15 @@
       </c>
       <c r="F172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="H172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>NoFaith</v>
       </c>
       <c r="I172">
         <v>100</v>
@@ -9938,15 +9938,15 @@
       </c>
       <c r="F173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>ItsOver</v>
       </c>
       <c r="G173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="H173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>ItsOver</v>
       </c>
       <c r="I173">
         <v>125</v>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="F174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="H174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="I174">
         <v>200</v>
@@ -10026,15 +10026,15 @@
       </c>
       <c r="F175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>RiotTIME</v>
       </c>
       <c r="G175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="H175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="I175">
         <v>125</v>
@@ -10070,11 +10070,11 @@
       </c>
       <c r="F176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>Hero</v>
       </c>
       <c r="G176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>Justified!</v>
       </c>
       <c r="H176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -10114,15 +10114,15 @@
       </c>
       <c r="F177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Justice</v>
       </c>
       <c r="G177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>BeSafe</v>
       </c>
       <c r="H177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="I177">
         <v>100</v>
@@ -10158,11 +10158,11 @@
       </c>
       <c r="F178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>PrayForThem</v>
       </c>
       <c r="H178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -10202,15 +10202,15 @@
       </c>
       <c r="F179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="G179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>TooSoon</v>
       </c>
       <c r="H179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="I179">
         <v>175</v>
@@ -10246,15 +10246,15 @@
       </c>
       <c r="F180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>DeathCollection</v>
       </c>
       <c r="G180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="H180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>Despicable!</v>
       </c>
       <c r="I180">
         <v>325</v>
@@ -10294,11 +10294,11 @@
       </c>
       <c r="G181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="H181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="I181">
         <v>200</v>
@@ -10334,15 +10334,15 @@
       </c>
       <c r="F182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>ThankGod</v>
       </c>
       <c r="G182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>MadeIt</v>
       </c>
       <c r="H182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>100Sober</v>
       </c>
       <c r="I182">
         <v>75</v>
@@ -10382,11 +10382,11 @@
       </c>
       <c r="G183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>BestWishes</v>
       </c>
       <c r="H183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>ThankGod</v>
       </c>
       <c r="I183">
         <v>100</v>
@@ -10422,15 +10422,15 @@
       </c>
       <c r="F184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="G184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="H184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>HardTimes</v>
       </c>
       <c r="I184">
         <v>200</v>
@@ -10466,11 +10466,11 @@
       </c>
       <c r="F185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>HELPME</v>
       </c>
       <c r="G185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="H185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -10510,15 +10510,15 @@
       </c>
       <c r="F186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="G186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="H186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="I186">
         <v>350</v>
@@ -10554,15 +10554,15 @@
       </c>
       <c r="F187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="G187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="H187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="I187">
         <v>250</v>
@@ -10602,11 +10602,11 @@
       </c>
       <c r="G188" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G188" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>WEStrong</v>
       </c>
       <c r="H188" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H188" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="I188">
         <v>75</v>
@@ -10642,15 +10642,15 @@
       </c>
       <c r="F189" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F189" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="G189" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G189" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="H189" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H189" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I189">
         <v>50</v>
@@ -10686,15 +10686,15 @@
       </c>
       <c r="F190" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F190" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>Desperate</v>
       </c>
       <c r="G190" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G190" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="H190" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H190" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="I190">
         <v>150</v>
@@ -10730,7 +10730,7 @@
       </c>
       <c r="F191" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F191" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="G191" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G191" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="H191" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H191" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="I191">
         <v>200</v>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="F192" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F192" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>Messiah</v>
       </c>
       <c r="G192" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G192" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="H192" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H192" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="I192">
         <v>400</v>
@@ -10818,15 +10818,15 @@
       </c>
       <c r="F193" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F193" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G193" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G193" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H193" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H193" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="I193">
         <v>150</v>
@@ -10862,15 +10862,15 @@
       </c>
       <c r="F194" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F194" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="G194" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G194" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>People'sVoice</v>
       </c>
       <c r="H194" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H194" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>InGoodHands</v>
       </c>
       <c r="I194">
         <v>100</v>
@@ -10910,11 +10910,11 @@
       </c>
       <c r="G195" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G195" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>VoteAgain</v>
       </c>
       <c r="H195" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H195" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>InGoodHands</v>
       </c>
       <c r="I195">
         <v>100</v>
@@ -10926,7 +10926,7 @@
         <v>150</v>
       </c>
       <c r="L195" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M195" t="s">
         <v>399</v>
@@ -10950,15 +10950,15 @@
       </c>
       <c r="F196" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F196" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G196" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G196" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H196" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H196" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="I196">
         <v>100</v>
@@ -10994,11 +10994,11 @@
       </c>
       <c r="F197" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F197" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G197" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G197" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H197" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H197" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -11038,15 +11038,15 @@
       </c>
       <c r="F198" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F198" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="G198" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G198" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="H198" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H198" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I198">
         <v>100</v>
@@ -11082,15 +11082,15 @@
       </c>
       <c r="F199" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F199" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="G199" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G199" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>RiotTIME</v>
       </c>
       <c r="H199" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H199" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I199">
         <v>100</v>
@@ -11126,15 +11126,15 @@
       </c>
       <c r="F200" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F200" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>Justice</v>
       </c>
       <c r="G200" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G200" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>Justice</v>
       </c>
       <c r="H200" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H200" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="I200">
         <v>100</v>
@@ -11170,11 +11170,11 @@
       </c>
       <c r="F201" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F201" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="G201" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G201" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="H201" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H201" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -11218,11 +11218,11 @@
       </c>
       <c r="G202" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G202" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>TooSoon</v>
       </c>
       <c r="H202" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H202" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>WhatAShame</v>
       </c>
       <c r="I202">
         <v>100</v>
@@ -11258,15 +11258,15 @@
       </c>
       <c r="F203" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F203" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>Pathetic</v>
       </c>
       <c r="G203" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G203" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>WhatAShame</v>
       </c>
       <c r="H203" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H203" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>Pathetic</v>
       </c>
       <c r="I203">
         <v>100</v>
@@ -11302,15 +11302,15 @@
       </c>
       <c r="F204" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F204" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="G204" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G204" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="H204" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H204" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>Despicable!</v>
       </c>
       <c r="I204">
         <v>100</v>
@@ -11346,11 +11346,11 @@
       </c>
       <c r="F205" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F205" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="G205" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G205" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="H205" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H205" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -11390,15 +11390,15 @@
       </c>
       <c r="F206" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F206" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>BackToUs</v>
       </c>
       <c r="G206" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G206" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>Recovered:)</v>
       </c>
       <c r="H206" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H206" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>BackToUs</v>
       </c>
       <c r="I206">
         <v>100</v>
@@ -11434,15 +11434,15 @@
       </c>
       <c r="F207" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F207" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>Recovered:)</v>
       </c>
       <c r="G207" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G207" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="H207" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H207" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>ThankGod</v>
       </c>
       <c r="I207">
         <v>100</v>
@@ -11478,15 +11478,15 @@
       </c>
       <c r="F208" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F208" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>WeLostThem</v>
       </c>
       <c r="G208" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G208" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>HELPME</v>
       </c>
       <c r="H208" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H208" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>WeLostThem</v>
       </c>
       <c r="I208">
         <v>100</v>
@@ -11522,15 +11522,15 @@
       </c>
       <c r="F209" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F209" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>God'sPlan</v>
       </c>
       <c r="G209" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G209" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>WeLostThem</v>
       </c>
       <c r="H209" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H209" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>God'sPlan</v>
       </c>
       <c r="I209">
         <v>100</v>
@@ -11566,15 +11566,15 @@
       </c>
       <c r="F210" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F210" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="G210" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G210" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="H210" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H210" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="I210">
         <v>100</v>
@@ -11610,15 +11610,15 @@
       </c>
       <c r="F211" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F211" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>Refund</v>
       </c>
       <c r="G211" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G211" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="H211" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H211" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>Refund</v>
       </c>
       <c r="I211">
         <v>100</v>
@@ -11654,15 +11654,15 @@
       </c>
       <c r="F212" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F212" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="G212" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G212" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="H212" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H212" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="I212">
         <v>100</v>
@@ -11698,15 +11698,15 @@
       </c>
       <c r="F213" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F213" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="G213" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G213" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="H213" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H213" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="I213">
         <v>100</v>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="F214" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F214" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="G214" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G214" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>Desperate</v>
       </c>
       <c r="H214" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H214" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="F215" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F215" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="G215" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G215" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="H215" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H215" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="I215">
         <v>100</v>
@@ -11830,15 +11830,15 @@
       </c>
       <c r="F216" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F216" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>Messiah</v>
       </c>
       <c r="G216" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G216" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="H216" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H216" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="I216">
         <v>100</v>
@@ -11874,15 +11874,15 @@
       </c>
       <c r="F217" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F217" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="G217" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G217" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="H217" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H217" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="I217">
         <v>100</v>
@@ -11927,7 +11927,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14036,7 +14036,7 @@
         <v>432</v>
       </c>
       <c r="E1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -14376,7 +14376,7 @@
         <v>451</v>
       </c>
       <c r="E21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -14393,7 +14393,7 @@
         <v>473</v>
       </c>
       <c r="E22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -14444,7 +14444,7 @@
         <v>473</v>
       </c>
       <c r="E25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -14663,8 +14663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53B4979-BA2F-42C6-BF9E-77AF10AFAE50}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14714,7 +14714,7 @@
         <v>443</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -14770,7 +14770,7 @@
         <v>443</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -14798,7 +14798,7 @@
         <v>443</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -14868,7 +14868,7 @@
         <v>443</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -15008,7 +15008,7 @@
         <v>443</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -15022,7 +15022,7 @@
         <v>443</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -15036,7 +15036,7 @@
         <v>443</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Narrative/Game Data.xlsx
+++ b/Source/Narrative/Game Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptun\Desktop\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281AC4BE-06BC-4C25-A5DB-E4612855B006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90EDA76-1127-4812-BB93-735F62D6325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media Posts" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="575">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -225,9 +225,6 @@
     <t>The Government Cuts Toilet Paper Funding</t>
   </si>
   <si>
-    <t>Government "Misplaces" Billions In Tax Revenue</t>
-  </si>
-  <si>
     <t>Tike Myson Beats Rogan Jaul In 1 Round!</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
     <t>Why Government's Streaming Increases Depression</t>
   </si>
   <si>
-    <t>Anger At Governments Website Ban List</t>
-  </si>
-  <si>
     <t>Anime Enthusiasts Create Sword Art Online IRL</t>
   </si>
   <si>
@@ -1743,9 +1737,6 @@
     <t>Police Man Tazes Sprays and Beats Young Graffiti Artist!!!</t>
   </si>
   <si>
-    <t>Governments Ban on Sadness!</t>
-  </si>
-  <si>
     <t>Dog Rescued From Sewer Pipes</t>
   </si>
   <si>
@@ -1783,6 +1774,18 @@
   </si>
   <si>
     <t>Welcome to your first day working for us at Under Choices Entertainment.|I've added your personal number to allow for more direct communication if necessary.|I hope that you enjoy your time working for us and that you abide by our expectations.</t>
+  </si>
+  <si>
+    <t>Government "Misplaces" Billions In Tax Revenue!!!</t>
+  </si>
+  <si>
+    <t>Anger At Governments Website Ban List!!!</t>
+  </si>
+  <si>
+    <t>Governments Ban on Sadness</t>
+  </si>
+  <si>
+    <t>Pigeons</t>
   </si>
 </sst>
 </file>
@@ -2335,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView topLeftCell="E133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2366,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2414,15 +2417,15 @@
       </c>
       <c r="F2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="G2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="H2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="I2">
         <v>75</v>
@@ -2434,10 +2437,10 @@
         <v>150</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2458,15 +2461,15 @@
       </c>
       <c r="F3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="G3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>RepeatElection</v>
       </c>
       <c r="H3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>VoteAgain</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -2478,10 +2481,10 @@
         <v>150</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2502,15 +2505,15 @@
       </c>
       <c r="F4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="G4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>ItsOver</v>
       </c>
       <c r="I4">
         <v>100</v>
@@ -2525,7 +2528,7 @@
         <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2546,15 +2549,15 @@
       </c>
       <c r="F5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="G5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>NoFaith</v>
       </c>
       <c r="H5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>ItsOver</v>
       </c>
       <c r="I5">
         <v>125</v>
@@ -2569,7 +2572,7 @@
         <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2598,7 +2601,7 @@
       </c>
       <c r="H6" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="I6">
         <v>200</v>
@@ -2613,7 +2616,7 @@
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2634,15 +2637,15 @@
       </c>
       <c r="F7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>RiotTIME</v>
       </c>
       <c r="H7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="I7">
         <v>125</v>
@@ -2654,10 +2657,10 @@
         <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2678,11 +2681,11 @@
       </c>
       <c r="F8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>Justice</v>
       </c>
       <c r="G8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="H8" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -2698,10 +2701,10 @@
         <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2722,7 +2725,7 @@
       </c>
       <c r="F9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>BeSafe</v>
       </c>
       <c r="G9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -2730,7 +2733,7 @@
       </c>
       <c r="H9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>Hero</v>
       </c>
       <c r="I9">
         <v>100</v>
@@ -2742,10 +2745,10 @@
         <v>150</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2766,15 +2769,15 @@
       </c>
       <c r="F10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>Lowlife</v>
       </c>
       <c r="G10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>TooSoon</v>
       </c>
       <c r="H10" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>SoTragic</v>
       </c>
       <c r="I10">
         <v>225</v>
@@ -2786,10 +2789,10 @@
         <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2810,15 +2813,15 @@
       </c>
       <c r="F11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>Pathetic</v>
       </c>
       <c r="G11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>Pathetic</v>
       </c>
       <c r="H11" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>Lowlife</v>
       </c>
       <c r="I11">
         <v>175</v>
@@ -2830,10 +2833,10 @@
         <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2854,15 +2857,14 @@
       </c>
       <c r="F12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="G12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
-      </c>
-      <c r="H12" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="H12" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>NoJustice!!!</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>574</v>
       </c>
       <c r="I12">
         <v>325</v>
@@ -2874,10 +2876,10 @@
         <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2898,15 +2900,15 @@
       </c>
       <c r="F13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="G13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="H13" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="I13">
         <v>200</v>
@@ -2918,10 +2920,10 @@
         <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2942,15 +2944,15 @@
       </c>
       <c r="F14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>MadeIt</v>
       </c>
       <c r="G14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="H14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>ThankGod</v>
       </c>
       <c r="I14">
         <v>75</v>
@@ -2965,7 +2967,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2986,15 +2988,15 @@
       </c>
       <c r="F15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>ThankGod</v>
       </c>
       <c r="G15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>MadeIt</v>
       </c>
       <c r="H15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>ThankGod</v>
       </c>
       <c r="I15">
         <v>100</v>
@@ -3009,7 +3011,7 @@
         <v>43</v>
       </c>
       <c r="M15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3034,11 +3036,11 @@
       </c>
       <c r="G16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>WeLostThem</v>
       </c>
       <c r="H16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="I16">
         <v>200</v>
@@ -3050,10 +3052,10 @@
         <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3082,7 +3084,7 @@
       </c>
       <c r="H17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>Drained</v>
       </c>
       <c r="I17">
         <v>175</v>
@@ -3097,7 +3099,7 @@
         <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3118,15 +3120,15 @@
       </c>
       <c r="F18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="G18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="H18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="I18">
         <v>350</v>
@@ -3138,10 +3140,10 @@
         <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3162,11 +3164,11 @@
       </c>
       <c r="F19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="G19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="H19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -3182,10 +3184,10 @@
         <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3206,15 +3208,15 @@
       </c>
       <c r="F20" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="G20" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>WEStrong</v>
       </c>
       <c r="H20" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I20">
         <v>75</v>
@@ -3229,7 +3231,7 @@
         <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3250,7 +3252,7 @@
       </c>
       <c r="F21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>WEStrong</v>
       </c>
       <c r="G21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -3258,7 +3260,7 @@
       </c>
       <c r="H21" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -3273,7 +3275,7 @@
         <v>48</v>
       </c>
       <c r="M21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3294,15 +3296,15 @@
       </c>
       <c r="F22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>Outcast</v>
       </c>
       <c r="G22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="H22" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>SplitUp</v>
       </c>
       <c r="I22">
         <v>150</v>
@@ -3317,7 +3319,7 @@
         <v>49</v>
       </c>
       <c r="M22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3342,11 +3344,11 @@
       </c>
       <c r="G23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="H23" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>Outcast</v>
       </c>
       <c r="I23">
         <v>200</v>
@@ -3361,7 +3363,7 @@
         <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3382,15 +3384,15 @@
       </c>
       <c r="F24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="G24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H24" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="I24">
         <v>400</v>
@@ -3405,7 +3407,7 @@
         <v>51</v>
       </c>
       <c r="M24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3426,15 +3428,15 @@
       </c>
       <c r="F25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="G25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="H25" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="I25">
         <v>150</v>
@@ -3449,7 +3451,7 @@
         <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3470,15 +3472,15 @@
       </c>
       <c r="F26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>RepeatElection</v>
       </c>
       <c r="G26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>InGoodHands</v>
       </c>
       <c r="H26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="I26">
         <v>75</v>
@@ -3490,10 +3492,10 @@
         <v>150</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3514,15 +3516,15 @@
       </c>
       <c r="F27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>InGoodHands</v>
       </c>
       <c r="G27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="H27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>VoteAgain</v>
       </c>
       <c r="I27">
         <v>50</v>
@@ -3534,10 +3536,10 @@
         <v>150</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3558,15 +3560,15 @@
       </c>
       <c r="F28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="H28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="I28">
         <v>100</v>
@@ -3581,7 +3583,7 @@
         <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3606,11 +3608,11 @@
       </c>
       <c r="G29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="H29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>ItsOver</v>
       </c>
       <c r="I29">
         <v>125</v>
@@ -3625,7 +3627,7 @@
         <v>33</v>
       </c>
       <c r="M29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3646,15 +3648,15 @@
       </c>
       <c r="F30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="G30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="H30" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="I30">
         <v>200</v>
@@ -3669,7 +3671,7 @@
         <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3690,15 +3692,15 @@
       </c>
       <c r="F31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>RaidingNight</v>
       </c>
       <c r="G31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="H31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="I31">
         <v>125</v>
@@ -3710,10 +3712,10 @@
         <v>50</v>
       </c>
       <c r="L31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M31" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3734,15 +3736,15 @@
       </c>
       <c r="F32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="G32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="H32" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>BeSafe</v>
       </c>
       <c r="I32">
         <v>75</v>
@@ -3754,10 +3756,10 @@
         <v>100</v>
       </c>
       <c r="L32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3778,15 +3780,15 @@
       </c>
       <c r="F33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="G33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>Justice</v>
       </c>
       <c r="H33" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>Justice</v>
       </c>
       <c r="I33">
         <v>100</v>
@@ -3798,10 +3800,10 @@
         <v>150</v>
       </c>
       <c r="L33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M33" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3822,15 +3824,15 @@
       </c>
       <c r="F34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>WhatAShame</v>
       </c>
       <c r="G34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>FreeThem</v>
       </c>
       <c r="H34" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>Pathetic</v>
       </c>
       <c r="I34">
         <v>225</v>
@@ -3842,10 +3844,10 @@
         <v>100</v>
       </c>
       <c r="L34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M34" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -3866,15 +3868,15 @@
       </c>
       <c r="F35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>SoTragic</v>
       </c>
       <c r="G35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>PrayForThem</v>
       </c>
       <c r="H35" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>Lowlife</v>
       </c>
       <c r="I35">
         <v>175</v>
@@ -3886,10 +3888,10 @@
         <v>100</v>
       </c>
       <c r="L35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M35" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3914,11 +3916,11 @@
       </c>
       <c r="G36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="H36" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="I36">
         <v>325</v>
@@ -3930,10 +3932,10 @@
         <v>50</v>
       </c>
       <c r="L36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3954,7 +3956,7 @@
       </c>
       <c r="F37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>AskingForIt</v>
       </c>
       <c r="G37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -3962,7 +3964,7 @@
       </c>
       <c r="H37" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="I37">
         <v>200</v>
@@ -3974,10 +3976,10 @@
         <v>50</v>
       </c>
       <c r="L37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3998,15 +4000,15 @@
       </c>
       <c r="F38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>BestWishes</v>
       </c>
       <c r="G38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>ThankGod</v>
       </c>
       <c r="H38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>MadeIt</v>
       </c>
       <c r="I38">
         <v>75</v>
@@ -4021,7 +4023,7 @@
         <v>42</v>
       </c>
       <c r="M38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -4042,15 +4044,15 @@
       </c>
       <c r="F39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>ThankGod</v>
       </c>
       <c r="G39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>100Sober</v>
       </c>
       <c r="H39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>MadeIt</v>
       </c>
       <c r="I39">
         <v>100</v>
@@ -4065,7 +4067,7 @@
         <v>43</v>
       </c>
       <c r="M39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4086,15 +4088,15 @@
       </c>
       <c r="F40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>WeLostThem</v>
       </c>
       <c r="G40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>HELPME</v>
       </c>
       <c r="H40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="I40">
         <v>200</v>
@@ -4106,10 +4108,10 @@
         <v>100</v>
       </c>
       <c r="L40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4130,15 +4132,15 @@
       </c>
       <c r="F41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>HELPME</v>
       </c>
       <c r="G41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="H41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="I41">
         <v>175</v>
@@ -4153,7 +4155,7 @@
         <v>45</v>
       </c>
       <c r="M41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4174,11 +4176,11 @@
       </c>
       <c r="F42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="G42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="H42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -4194,10 +4196,10 @@
         <v>50</v>
       </c>
       <c r="L42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -4218,15 +4220,15 @@
       </c>
       <c r="F43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="G43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="H43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="I43">
         <v>250</v>
@@ -4238,10 +4240,10 @@
         <v>50</v>
       </c>
       <c r="L43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -4262,15 +4264,15 @@
       </c>
       <c r="F44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="G44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="H44" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>WEStrong</v>
       </c>
       <c r="I44">
         <v>75</v>
@@ -4285,7 +4287,7 @@
         <v>47</v>
       </c>
       <c r="M44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -4306,15 +4308,15 @@
       </c>
       <c r="F45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="G45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>RallyTogether!</v>
       </c>
       <c r="H45" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="I45">
         <v>50</v>
@@ -4329,7 +4331,7 @@
         <v>48</v>
       </c>
       <c r="M45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -4350,15 +4352,15 @@
       </c>
       <c r="F46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="G46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="H46" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>SplitUp</v>
       </c>
       <c r="I46">
         <v>150</v>
@@ -4373,7 +4375,7 @@
         <v>49</v>
       </c>
       <c r="M46" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4398,11 +4400,11 @@
       </c>
       <c r="G47" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>Desperate</v>
       </c>
       <c r="H47" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>WeNeedChange</v>
       </c>
       <c r="I47">
         <v>200</v>
@@ -4417,7 +4419,7 @@
         <v>50</v>
       </c>
       <c r="M47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -4438,15 +4440,15 @@
       </c>
       <c r="F48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="G48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>Messiah</v>
       </c>
       <c r="H48" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>OurLastHope</v>
       </c>
       <c r="I48">
         <v>400</v>
@@ -4461,7 +4463,7 @@
         <v>51</v>
       </c>
       <c r="M48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4482,15 +4484,15 @@
       </c>
       <c r="F49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>Messiah</v>
       </c>
       <c r="G49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="H49" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="I49">
         <v>150</v>
@@ -4505,7 +4507,7 @@
         <v>52</v>
       </c>
       <c r="M49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -4530,11 +4532,11 @@
       </c>
       <c r="G50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="H50" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>People'sVoice</v>
       </c>
       <c r="I50">
         <v>75</v>
@@ -4546,10 +4548,10 @@
         <v>150</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -4574,11 +4576,11 @@
       </c>
       <c r="G51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>VoteAgain</v>
       </c>
       <c r="H51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H51" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>KeepThemIN!</v>
       </c>
       <c r="I51">
         <v>50</v>
@@ -4590,10 +4592,10 @@
         <v>150</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -4614,7 +4616,7 @@
       </c>
       <c r="F52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="G52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -4622,7 +4624,7 @@
       </c>
       <c r="H52" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>ItsOver</v>
       </c>
       <c r="I52">
         <v>100</v>
@@ -4634,10 +4636,10 @@
         <v>100</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -4658,11 +4660,11 @@
       </c>
       <c r="F53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="G53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -4681,7 +4683,7 @@
         <v>53</v>
       </c>
       <c r="M53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -4702,7 +4704,7 @@
       </c>
       <c r="F54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="G54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -4710,7 +4712,7 @@
       </c>
       <c r="H54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="I54">
         <v>200</v>
@@ -4722,10 +4724,10 @@
         <v>50</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>54</v>
+        <v>571</v>
       </c>
       <c r="M54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4750,11 +4752,11 @@
       </c>
       <c r="G55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="H55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="I55">
         <v>125</v>
@@ -4766,10 +4768,10 @@
         <v>50</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>107</v>
+        <v>572</v>
       </c>
       <c r="M55" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -4790,15 +4792,15 @@
       </c>
       <c r="F56" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>Hero</v>
       </c>
       <c r="G56" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FightBackTeam!</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="H56" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>Justified!</v>
       </c>
       <c r="I56">
         <v>75</v>
@@ -4810,10 +4812,10 @@
         <v>100</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -4834,7 +4836,7 @@
       </c>
       <c r="F57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="G57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -4842,7 +4844,7 @@
       </c>
       <c r="H57" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="I57">
         <v>100</v>
@@ -4854,10 +4856,10 @@
         <v>150</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -4878,11 +4880,11 @@
       </c>
       <c r="F58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>Lowlife</v>
       </c>
       <c r="G58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>Lowlife</v>
       </c>
       <c r="H58" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -4898,10 +4900,10 @@
         <v>100</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4922,15 +4924,15 @@
       </c>
       <c r="F59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>Pathetic</v>
       </c>
       <c r="G59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="H59" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>Lowlife</v>
       </c>
       <c r="I59">
         <v>175</v>
@@ -4942,10 +4944,10 @@
         <v>100</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4970,11 +4972,11 @@
       </c>
       <c r="G60" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>AskingForIt</v>
       </c>
       <c r="H60" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I60">
         <v>325</v>
@@ -4986,10 +4988,10 @@
         <v>50</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5014,11 +5016,11 @@
       </c>
       <c r="G61" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H61" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="I61">
         <v>200</v>
@@ -5030,10 +5032,10 @@
         <v>50</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5058,11 +5060,11 @@
       </c>
       <c r="G62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>Recovered:)</v>
       </c>
       <c r="H62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>MadeIt</v>
       </c>
       <c r="I62">
         <v>75</v>
@@ -5074,10 +5076,10 @@
         <v>150</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -5098,15 +5100,15 @@
       </c>
       <c r="F63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>BestWishes</v>
       </c>
       <c r="G63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>Recovered:)</v>
       </c>
       <c r="H63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>Recovered:)</v>
       </c>
       <c r="I63">
         <v>100</v>
@@ -5118,10 +5120,10 @@
         <v>100</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -5142,7 +5144,7 @@
       </c>
       <c r="F64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="G64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -5150,7 +5152,7 @@
       </c>
       <c r="H64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>God'sPlan</v>
       </c>
       <c r="I64">
         <v>200</v>
@@ -5162,10 +5164,10 @@
         <v>100</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M64" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -5186,15 +5188,15 @@
       </c>
       <c r="F65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Depressing</v>
+        <v>HardTimes</v>
       </c>
       <c r="G65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>HardTimes</v>
       </c>
       <c r="H65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>HardTimes</v>
       </c>
       <c r="I65">
         <v>175</v>
@@ -5206,10 +5208,10 @@
         <v>100</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M65" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -5230,15 +5232,15 @@
       </c>
       <c r="F66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="G66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>CrapStaff</v>
       </c>
       <c r="H66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="I66">
         <v>350</v>
@@ -5250,10 +5252,10 @@
         <v>50</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M66" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -5278,7 +5280,7 @@
       </c>
       <c r="G67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="H67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -5294,10 +5296,10 @@
         <v>50</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M67" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -5318,15 +5320,15 @@
       </c>
       <c r="F68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="G68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H68" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I68">
         <v>75</v>
@@ -5338,10 +5340,10 @@
         <v>150</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M68" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -5362,15 +5364,15 @@
       </c>
       <c r="F69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="G69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="H69" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurWayOrHiWay</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -5382,10 +5384,10 @@
         <v>100</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M69" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -5406,15 +5408,15 @@
       </c>
       <c r="F70" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G70" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="H70" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="I70">
         <v>150</v>
@@ -5426,10 +5428,10 @@
         <v>50</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M70" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -5454,11 +5456,11 @@
       </c>
       <c r="G71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>Desperate</v>
       </c>
       <c r="H71" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="I71">
         <v>200</v>
@@ -5470,10 +5472,10 @@
         <v>100</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M71" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -5494,15 +5496,15 @@
       </c>
       <c r="F72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="G72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H72" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="I72">
         <v>400</v>
@@ -5514,10 +5516,10 @@
         <v>100</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -5538,15 +5540,15 @@
       </c>
       <c r="F73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="G73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H73" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I73">
         <v>150</v>
@@ -5558,10 +5560,10 @@
         <v>100</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -5582,7 +5584,7 @@
       </c>
       <c r="F74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="G74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -5590,7 +5592,7 @@
       </c>
       <c r="H74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>RepeatElection</v>
       </c>
       <c r="I74">
         <v>75</v>
@@ -5602,10 +5604,10 @@
         <v>150</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -5626,15 +5628,15 @@
       </c>
       <c r="F75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>People'sVoice</v>
       </c>
       <c r="G75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="H75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="I75">
         <v>50</v>
@@ -5646,10 +5648,10 @@
         <v>150</v>
       </c>
       <c r="L75" s="20" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M75" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -5670,15 +5672,15 @@
       </c>
       <c r="F76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="G76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="H76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H76" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="I76">
         <v>100</v>
@@ -5690,10 +5692,10 @@
         <v>100</v>
       </c>
       <c r="L76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M76" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -5714,15 +5716,15 @@
       </c>
       <c r="F77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="G77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="H77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H77" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="I77">
         <v>125</v>
@@ -5734,10 +5736,10 @@
         <v>100</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M77" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -5758,15 +5760,15 @@
       </c>
       <c r="F78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="G78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="H78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H78" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="I78">
         <v>200</v>
@@ -5778,10 +5780,10 @@
         <v>50</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M78" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -5802,15 +5804,15 @@
       </c>
       <c r="F79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="G79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="H79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H79" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>RiotTIME</v>
       </c>
       <c r="I79">
         <v>125</v>
@@ -5822,10 +5824,10 @@
         <v>50</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M79" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -5846,15 +5848,15 @@
       </c>
       <c r="F80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="G80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Hero</v>
       </c>
       <c r="H80" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="I80">
         <v>75</v>
@@ -5866,10 +5868,10 @@
         <v>100</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M80" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -5890,15 +5892,15 @@
       </c>
       <c r="F81" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="G81" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="H81" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H81" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="I81">
         <v>100</v>
@@ -5910,10 +5912,10 @@
         <v>150</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -5934,15 +5936,15 @@
       </c>
       <c r="F82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>WhatAShame</v>
       </c>
       <c r="G82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>Lowlife</v>
       </c>
       <c r="H82" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="I82">
         <v>225</v>
@@ -5954,10 +5956,10 @@
         <v>100</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M82" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5978,15 +5980,15 @@
       </c>
       <c r="F83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>FreeThem</v>
       </c>
       <c r="G83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>GodLeftChat</v>
       </c>
       <c r="H83" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>WhatAShame</v>
       </c>
       <c r="I83">
         <v>175</v>
@@ -6001,7 +6003,7 @@
         <v>38</v>
       </c>
       <c r="M83" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -6026,11 +6028,11 @@
       </c>
       <c r="G84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="H84" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>Despicable!</v>
       </c>
       <c r="I84">
         <v>325</v>
@@ -6042,10 +6044,10 @@
         <v>50</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M84" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -6066,11 +6068,11 @@
       </c>
       <c r="F85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="G85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H85" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -6086,10 +6088,10 @@
         <v>50</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M85" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -6110,7 +6112,7 @@
       </c>
       <c r="F86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>MadeIt</v>
       </c>
       <c r="G86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -6118,7 +6120,7 @@
       </c>
       <c r="H86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Hugs&amp;Kisses</v>
+        <v>BackToUs</v>
       </c>
       <c r="I86">
         <v>75</v>
@@ -6130,10 +6132,10 @@
         <v>150</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -6154,7 +6156,7 @@
       </c>
       <c r="F87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>MadeIt</v>
       </c>
       <c r="G87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -6162,7 +6164,7 @@
       </c>
       <c r="H87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -6174,10 +6176,10 @@
         <v>100</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -6198,7 +6200,7 @@
       </c>
       <c r="F88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="G88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -6206,7 +6208,7 @@
       </c>
       <c r="H88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>HELPME</v>
       </c>
       <c r="I88">
         <v>200</v>
@@ -6218,10 +6220,10 @@
         <v>100</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -6242,15 +6244,15 @@
       </c>
       <c r="F89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>WeLostThem</v>
       </c>
       <c r="G89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>HardTimes</v>
       </c>
       <c r="H89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H89" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>I'mSoLost</v>
       </c>
       <c r="I89">
         <v>175</v>
@@ -6262,10 +6264,10 @@
         <v>100</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M89" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -6286,15 +6288,15 @@
       </c>
       <c r="F90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="G90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="H90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H90" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="I90">
         <v>350</v>
@@ -6306,10 +6308,10 @@
         <v>50</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -6334,11 +6336,11 @@
       </c>
       <c r="G91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>LONGWaitTimes</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="H91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H91" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="I91">
         <v>250</v>
@@ -6350,10 +6352,10 @@
         <v>50</v>
       </c>
       <c r="L91" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M91" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -6374,7 +6376,7 @@
       </c>
       <c r="F92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>WEStrong</v>
       </c>
       <c r="G92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -6382,7 +6384,7 @@
       </c>
       <c r="H92" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H92" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>JoinTheCAUSE</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="I92">
         <v>75</v>
@@ -6394,10 +6396,10 @@
         <v>150</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -6418,15 +6420,15 @@
       </c>
       <c r="F93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="G93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="H93" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I93">
         <v>50</v>
@@ -6438,10 +6440,10 @@
         <v>100</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M93" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -6462,15 +6464,15 @@
       </c>
       <c r="F94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>SplitUp</v>
       </c>
       <c r="G94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>Desperate</v>
       </c>
       <c r="H94" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="I94">
         <v>150</v>
@@ -6482,10 +6484,10 @@
         <v>50</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M94" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -6506,15 +6508,15 @@
       </c>
       <c r="F95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="G95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>Desperate</v>
       </c>
       <c r="H95" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="I95">
         <v>200</v>
@@ -6526,10 +6528,10 @@
         <v>100</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M95" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -6550,15 +6552,15 @@
       </c>
       <c r="F96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="G96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OurLastHope</v>
+        <v>MartyrUS!!</v>
       </c>
       <c r="H96" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Divide&amp;CONQUER</v>
+        <v>OurLastHope</v>
       </c>
       <c r="I96">
         <v>400</v>
@@ -6570,10 +6572,10 @@
         <v>100</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M96" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -6598,11 +6600,11 @@
       </c>
       <c r="G97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>OurLastHope</v>
       </c>
       <c r="H97" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="I97">
         <v>150</v>
@@ -6614,10 +6616,10 @@
         <v>100</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M97" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -6638,11 +6640,11 @@
       </c>
       <c r="F98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>RepeatElection</v>
       </c>
       <c r="G98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="H98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H98" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -6658,10 +6660,10 @@
         <v>150</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -6682,15 +6684,15 @@
       </c>
       <c r="F99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v>VoteAgain</v>
       </c>
       <c r="G99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>VoteAgain</v>
+        <v>InGoodHands</v>
       </c>
       <c r="H99" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H99" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ReElect!!!</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="I99">
         <v>50</v>
@@ -6702,10 +6704,10 @@
         <v>150</v>
       </c>
       <c r="L99" s="20" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -6726,15 +6728,15 @@
       </c>
       <c r="F100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="G100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="H100" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H100" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="I100">
         <v>100</v>
@@ -6746,10 +6748,10 @@
         <v>100</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -6770,15 +6772,15 @@
       </c>
       <c r="F101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="G101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>ItsOver</v>
       </c>
       <c r="H101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H101" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>NoFaith</v>
       </c>
       <c r="I101">
         <v>125</v>
@@ -6790,10 +6792,10 @@
         <v>100</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M101" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -6814,11 +6816,11 @@
       </c>
       <c r="F102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RaidingNight</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="G102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="H102" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H102" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -6834,10 +6836,10 @@
         <v>50</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M102" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -6858,15 +6860,15 @@
       </c>
       <c r="F103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>RaidingNight</v>
       </c>
       <c r="G103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="H103" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H103" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>RaidingNight</v>
       </c>
       <c r="I103">
         <v>125</v>
@@ -6878,10 +6880,10 @@
         <v>50</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M103" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -6902,15 +6904,15 @@
       </c>
       <c r="F104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Justified!</v>
       </c>
       <c r="G104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="H104" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H104" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>ComeTogether!!</v>
+        <v>Justice</v>
       </c>
       <c r="I104">
         <v>75</v>
@@ -6922,10 +6924,10 @@
         <v>100</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M104" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -6946,7 +6948,7 @@
       </c>
       <c r="F105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="G105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -6954,7 +6956,7 @@
       </c>
       <c r="H105" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H105" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>Justice</v>
       </c>
       <c r="I105">
         <v>100</v>
@@ -6966,10 +6968,10 @@
         <v>150</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M105" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -6990,11 +6992,11 @@
       </c>
       <c r="F106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>WhatAShame</v>
       </c>
       <c r="G106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>FreeThem</v>
       </c>
       <c r="H106" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H106" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -7010,10 +7012,10 @@
         <v>100</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M106" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -7034,11 +7036,11 @@
       </c>
       <c r="F107" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>WhatAShame</v>
       </c>
       <c r="G107" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>FreeThem</v>
       </c>
       <c r="H107" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H107" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -7057,7 +7059,7 @@
         <v>39</v>
       </c>
       <c r="M107" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -7078,7 +7080,7 @@
       </c>
       <c r="F108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="G108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -7086,7 +7088,7 @@
       </c>
       <c r="H108" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H108" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>AskingForIt</v>
       </c>
       <c r="I108">
         <v>325</v>
@@ -7098,10 +7100,10 @@
         <v>50</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M108" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -7122,15 +7124,15 @@
       </c>
       <c r="F109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="G109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H109" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H109" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="I109">
         <v>200</v>
@@ -7142,10 +7144,10 @@
         <v>50</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M109" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -7166,11 +7168,11 @@
       </c>
       <c r="F110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Recovered:)</v>
       </c>
       <c r="G110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>BackToUs</v>
       </c>
       <c r="H110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H110" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -7186,10 +7188,10 @@
         <v>150</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M110" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -7210,15 +7212,15 @@
       </c>
       <c r="F111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>100Sober</v>
       </c>
       <c r="G111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="H111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H111" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>Recovered:)</v>
       </c>
       <c r="I111">
         <v>100</v>
@@ -7230,10 +7232,10 @@
         <v>100</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M111" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -7254,15 +7256,15 @@
       </c>
       <c r="F112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="G112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>HardTimes</v>
       </c>
       <c r="H112" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H112" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>WeLostThem</v>
       </c>
       <c r="I112">
         <v>200</v>
@@ -7274,10 +7276,10 @@
         <v>100</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M112" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -7302,11 +7304,11 @@
       </c>
       <c r="G113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>WeLostThem</v>
       </c>
       <c r="H113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H113" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>WeLostThem</v>
       </c>
       <c r="I113">
         <v>175</v>
@@ -7318,10 +7320,10 @@
         <v>100</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M113" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -7342,15 +7344,15 @@
       </c>
       <c r="F114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>Refund</v>
       </c>
       <c r="G114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H114" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="I114">
         <v>350</v>
@@ -7362,10 +7364,10 @@
         <v>50</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M114" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -7386,15 +7388,15 @@
       </c>
       <c r="F115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="G115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="H115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H115" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="I115">
         <v>250</v>
@@ -7406,10 +7408,10 @@
         <v>50</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M115" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -7430,15 +7432,15 @@
       </c>
       <c r="F116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>WEStrong</v>
       </c>
       <c r="G116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="H116" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H116" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>RallyTogether!</v>
+        <v>JoinTheCAUSE</v>
       </c>
       <c r="I116">
         <v>75</v>
@@ -7450,10 +7452,10 @@
         <v>150</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M116" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -7478,11 +7480,11 @@
       </c>
       <c r="G117" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G117" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="H117" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H117" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="I117">
         <v>50</v>
@@ -7494,10 +7496,10 @@
         <v>100</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M117" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -7518,15 +7520,15 @@
       </c>
       <c r="F118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>Desperate</v>
       </c>
       <c r="G118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="H118" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H118" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AlwaysThem</v>
+        <v>Outcast</v>
       </c>
       <c r="I118">
         <v>150</v>
@@ -7538,10 +7540,10 @@
         <v>50</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M118" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -7562,15 +7564,15 @@
       </c>
       <c r="F119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>Outcast</v>
       </c>
       <c r="G119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="H119" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H119" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Outcast</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="I119">
         <v>200</v>
@@ -7582,10 +7584,10 @@
         <v>100</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M119" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -7606,7 +7608,7 @@
       </c>
       <c r="F120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="G120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -7614,7 +7616,7 @@
       </c>
       <c r="H120" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H120" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I120">
         <v>400</v>
@@ -7626,10 +7628,10 @@
         <v>100</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M120" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -7650,15 +7652,15 @@
       </c>
       <c r="F121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>OurLastHope</v>
       </c>
       <c r="G121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="H121" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H121" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I121">
         <v>150</v>
@@ -7670,10 +7672,10 @@
         <v>100</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M121" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -7694,15 +7696,15 @@
       </c>
       <c r="F122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="G122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>RepeatElection</v>
       </c>
       <c r="H122" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H122" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>VoteAgain</v>
       </c>
       <c r="I122">
         <v>75</v>
@@ -7714,10 +7716,10 @@
         <v>100</v>
       </c>
       <c r="L122" s="20" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M122" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -7742,11 +7744,11 @@
       </c>
       <c r="G123" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v xml:space="preserve">Saviours </v>
       </c>
       <c r="H123" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H123" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetsThingsDone</v>
+        <v>RepeatElection</v>
       </c>
       <c r="I123">
         <v>50</v>
@@ -7758,10 +7760,10 @@
         <v>150</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M123" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -7782,15 +7784,15 @@
       </c>
       <c r="F124" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F124" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>ItsOver</v>
       </c>
       <c r="G124" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G124" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="H124" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H124" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NotAgainnnn</v>
+        <v>ItsOver</v>
       </c>
       <c r="I124">
         <v>100</v>
@@ -7802,10 +7804,10 @@
         <v>150</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M124" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -7826,15 +7828,15 @@
       </c>
       <c r="F125" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F125" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="G125" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G125" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="H125" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H125" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WhatAJoke</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="I125">
         <v>125</v>
@@ -7846,10 +7848,10 @@
         <v>100</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -7870,7 +7872,7 @@
       </c>
       <c r="F126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="G126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -7878,7 +7880,7 @@
       </c>
       <c r="H126" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H126" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="I126">
         <v>200</v>
@@ -7890,10 +7892,10 @@
         <v>100</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M126" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -7918,11 +7920,11 @@
       </c>
       <c r="G127" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G127" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>GetEmOUT</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="H127" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H127" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I127">
         <v>125</v>
@@ -7934,10 +7936,10 @@
         <v>50</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -7958,15 +7960,15 @@
       </c>
       <c r="F128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="G128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="H128" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H128" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>Justice</v>
       </c>
       <c r="I128">
         <v>75</v>
@@ -7981,7 +7983,7 @@
         <v>36</v>
       </c>
       <c r="M128" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -8002,15 +8004,15 @@
       </c>
       <c r="F129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>Hero</v>
       </c>
       <c r="G129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="H129" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H129" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>StrongerTogether</v>
       </c>
       <c r="I129">
         <v>100</v>
@@ -8022,10 +8024,10 @@
         <v>100</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M129" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -8046,15 +8048,15 @@
       </c>
       <c r="F130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>SoTragic</v>
       </c>
       <c r="G130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>SoTragic</v>
+        <v>FreeThem</v>
       </c>
       <c r="H130" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H130" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>SoTragic</v>
       </c>
       <c r="I130">
         <v>225</v>
@@ -8069,7 +8071,7 @@
         <v>44</v>
       </c>
       <c r="M130" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -8094,11 +8096,11 @@
       </c>
       <c r="G131" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G131" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>SoTragic</v>
       </c>
       <c r="H131" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H131" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>FreeThem</v>
+        <v>PrayForThem</v>
       </c>
       <c r="I131">
         <v>175</v>
@@ -8110,10 +8112,10 @@
         <v>100</v>
       </c>
       <c r="L131" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M131" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -8134,15 +8136,15 @@
       </c>
       <c r="F132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="G132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="H132" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H132" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="I132">
         <v>325</v>
@@ -8157,7 +8159,7 @@
         <v>40</v>
       </c>
       <c r="M132" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -8178,15 +8180,15 @@
       </c>
       <c r="F133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="G133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>AskingForIt</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H133" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H133" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="I133">
         <v>200</v>
@@ -8198,10 +8200,10 @@
         <v>50</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M133" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -8222,15 +8224,15 @@
       </c>
       <c r="F134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>ThankGod</v>
       </c>
       <c r="G134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="H134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H134" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="I134">
         <v>75</v>
@@ -8242,10 +8244,10 @@
         <v>50</v>
       </c>
       <c r="L134" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M134" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -8266,15 +8268,15 @@
       </c>
       <c r="F135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>BackToUs</v>
       </c>
       <c r="G135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Safe&amp;Sound</v>
+        <v>100Sober</v>
       </c>
       <c r="H135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H135" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>BestWishes</v>
       </c>
       <c r="I135">
         <v>100</v>
@@ -8286,10 +8288,10 @@
         <v>150</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M135" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -8310,11 +8312,11 @@
       </c>
       <c r="F136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>Drained</v>
       </c>
       <c r="G136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>God'sPlan</v>
       </c>
       <c r="H136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H136" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -8330,10 +8332,10 @@
         <v>100</v>
       </c>
       <c r="L136" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M136" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -8354,15 +8356,15 @@
       </c>
       <c r="F137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>WeLostThem</v>
       </c>
       <c r="G137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>Depressing</v>
       </c>
       <c r="H137" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H137" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>God'sPlan</v>
+        <v>WeLostThem</v>
       </c>
       <c r="I137">
         <v>175</v>
@@ -8374,10 +8376,10 @@
         <v>100</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M137" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -8398,7 +8400,7 @@
       </c>
       <c r="F138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrapStaff</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="G138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -8406,7 +8408,7 @@
       </c>
       <c r="H138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H138" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>CrapStaff</v>
       </c>
       <c r="I138">
         <v>350</v>
@@ -8421,7 +8423,7 @@
         <v>46</v>
       </c>
       <c r="M138" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -8442,15 +8444,15 @@
       </c>
       <c r="F139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>CrapStaff</v>
       </c>
       <c r="G139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H139" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="I139">
         <v>250</v>
@@ -8462,10 +8464,10 @@
         <v>50</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M139" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -8490,11 +8492,11 @@
       </c>
       <c r="G140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="H140" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H140" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>CommunityBuild</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="I140">
         <v>75</v>
@@ -8506,10 +8508,10 @@
         <v>50</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M140" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -8530,7 +8532,7 @@
       </c>
       <c r="F141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>CommunityBuild</v>
       </c>
       <c r="G141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -8538,7 +8540,7 @@
       </c>
       <c r="H141" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H141" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="I141">
         <v>50</v>
@@ -8550,10 +8552,10 @@
         <v>150</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M141" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -8574,15 +8576,15 @@
       </c>
       <c r="F142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>SplitUp</v>
       </c>
       <c r="G142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="H142" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H142" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="I142">
         <v>150</v>
@@ -8594,10 +8596,10 @@
         <v>100</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M142" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -8618,15 +8620,15 @@
       </c>
       <c r="F143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>Outcast</v>
       </c>
       <c r="G143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="H143" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H143" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WeNeedChange</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="I143">
         <v>200</v>
@@ -8638,10 +8640,10 @@
         <v>50</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M143" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -8662,15 +8664,15 @@
       </c>
       <c r="F144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>NecessaryEvil</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="G144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="H144" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H144" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="I144">
         <v>400</v>
@@ -8682,10 +8684,10 @@
         <v>100</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M144" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -8710,11 +8712,11 @@
       </c>
       <c r="G145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>OurLastHope</v>
       </c>
       <c r="H145" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H145" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MartyrUS!!</v>
+        <v>MessEmUP!!!</v>
       </c>
       <c r="I145">
         <v>150</v>
@@ -8726,10 +8728,10 @@
         <v>100</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M145" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -8754,11 +8756,11 @@
       </c>
       <c r="G146" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G146" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="H146" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H146" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>VoteAgain</v>
       </c>
       <c r="I146">
         <v>75</v>
@@ -8770,10 +8772,10 @@
         <v>100</v>
       </c>
       <c r="L146" s="20" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M146" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -8794,15 +8796,15 @@
       </c>
       <c r="F147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>InGoodHands</v>
       </c>
       <c r="G147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>People'sVoice</v>
+        <v>ReElect!!!</v>
       </c>
       <c r="H147" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H147" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v xml:space="preserve">Saviours </v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="I147">
         <v>50</v>
@@ -8814,10 +8816,10 @@
         <v>150</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M147" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -8838,7 +8840,7 @@
       </c>
       <c r="F148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>Where'sTioSammy</v>
       </c>
       <c r="G148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -8846,7 +8848,7 @@
       </c>
       <c r="H148" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H148" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>WhatAJoke</v>
       </c>
       <c r="I148">
         <v>100</v>
@@ -8858,10 +8860,10 @@
         <v>150</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M148" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -8882,15 +8884,15 @@
       </c>
       <c r="F149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>ItsDownhill</v>
       </c>
       <c r="G149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>WeAreDoomed</v>
+        <v>NoFaith</v>
       </c>
       <c r="H149" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H149" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsDownhill</v>
+        <v>NoFaith</v>
       </c>
       <c r="I149">
         <v>125</v>
@@ -8902,10 +8904,10 @@
         <v>100</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M149" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -8926,15 +8928,15 @@
       </c>
       <c r="F150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Pitchforks!!!</v>
+        <v>BurnItDOWN</v>
       </c>
       <c r="G150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="H150" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H150" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>LeRevolution!</v>
+        <v>GetEmOUT</v>
       </c>
       <c r="I150">
         <v>200</v>
@@ -8946,10 +8948,10 @@
         <v>100</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M150" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -8970,11 +8972,11 @@
       </c>
       <c r="F151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>Pitchforks!!!</v>
       </c>
       <c r="G151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="H151" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H151" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -8990,10 +8992,10 @@
         <v>50</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M151" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -9014,15 +9016,15 @@
       </c>
       <c r="F152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="G152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="H152" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H152" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="I152">
         <v>75</v>
@@ -9034,10 +9036,10 @@
         <v>50</v>
       </c>
       <c r="L152" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M152" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -9058,15 +9060,15 @@
       </c>
       <c r="F153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>Justified!</v>
       </c>
       <c r="G153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>ComeTogether!!</v>
       </c>
       <c r="H153" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H153" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>StandUp!!!</v>
       </c>
       <c r="I153">
         <v>100</v>
@@ -9078,10 +9080,10 @@
         <v>100</v>
       </c>
       <c r="L153" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M153" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -9102,7 +9104,7 @@
       </c>
       <c r="F154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>Lowlife</v>
       </c>
       <c r="G154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -9110,7 +9112,7 @@
       </c>
       <c r="H154" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H154" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>WhatAShame</v>
+        <v>TooSoon</v>
       </c>
       <c r="I154">
         <v>225</v>
@@ -9122,10 +9124,10 @@
         <v>150</v>
       </c>
       <c r="L154" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M154" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -9150,11 +9152,11 @@
       </c>
       <c r="G155" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G155" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Lowlife</v>
+        <v>PrayForThem</v>
       </c>
       <c r="H155" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H155" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Pathetic</v>
+        <v>PrayForThem</v>
       </c>
       <c r="I155">
         <v>175</v>
@@ -9166,10 +9168,10 @@
         <v>100</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M155" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -9190,7 +9192,7 @@
       </c>
       <c r="F156" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F156" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>DeathCollection</v>
       </c>
       <c r="G156" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G156" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -9213,7 +9215,7 @@
         <v>35</v>
       </c>
       <c r="M156" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -9234,15 +9236,15 @@
       </c>
       <c r="F157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>Despicable!</v>
       </c>
       <c r="G157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BetterOffDead</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H157" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H157" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PaybackTime</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="I157">
         <v>200</v>
@@ -9254,10 +9256,10 @@
         <v>50</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M157" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -9278,11 +9280,11 @@
       </c>
       <c r="F158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MadeIt</v>
+        <v>Recovered:)</v>
       </c>
       <c r="G158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>Hugs&amp;Kisses</v>
       </c>
       <c r="H158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H158" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -9298,10 +9300,10 @@
         <v>50</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M158" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -9322,15 +9324,15 @@
       </c>
       <c r="F159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BackToUs</v>
+        <v>MadeIt</v>
       </c>
       <c r="G159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Recovered:)</v>
+        <v>100Sober</v>
       </c>
       <c r="H159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H159" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>Safe&amp;Sound</v>
       </c>
       <c r="I159">
         <v>100</v>
@@ -9342,10 +9344,10 @@
         <v>150</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M159" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -9366,15 +9368,15 @@
       </c>
       <c r="F160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="G160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HELPME</v>
+        <v>Depressing</v>
       </c>
       <c r="H160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H160" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>Depressing</v>
       </c>
       <c r="I160">
         <v>200</v>
@@ -9386,10 +9388,10 @@
         <v>100</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M160" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -9410,15 +9412,15 @@
       </c>
       <c r="F161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>HELPME</v>
       </c>
       <c r="G161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>WeLostThem</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="H161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H161" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="I161">
         <v>175</v>
@@ -9430,10 +9432,10 @@
         <v>100</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M161" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -9454,7 +9456,7 @@
       </c>
       <c r="F162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="G162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -9462,7 +9464,7 @@
       </c>
       <c r="H162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H162" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>MoneyWasted</v>
+        <v>LONGWaitTimes</v>
       </c>
       <c r="I162">
         <v>350</v>
@@ -9474,10 +9476,10 @@
         <v>100</v>
       </c>
       <c r="L162" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M162" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -9498,11 +9500,11 @@
       </c>
       <c r="F163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>CrappyHealthCare</v>
       </c>
       <c r="G163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Refund</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H163" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -9518,10 +9520,10 @@
         <v>50</v>
       </c>
       <c r="L163" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M163" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -9542,15 +9544,15 @@
       </c>
       <c r="F164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="G164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>OpenMinded!</v>
+        <v>ALWAYSSupport</v>
       </c>
       <c r="H164" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H164" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>WEStrong</v>
       </c>
       <c r="I164">
         <v>75</v>
@@ -9562,10 +9564,10 @@
         <v>50</v>
       </c>
       <c r="L164" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M164" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -9586,11 +9588,11 @@
       </c>
       <c r="F165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ALWAYSSupport</v>
+        <v>OurWayOrHiWay</v>
       </c>
       <c r="G165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>WEStrong</v>
+        <v>OpenMinded!</v>
       </c>
       <c r="H165" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H165" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -9606,10 +9608,10 @@
         <v>150</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M165" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -9630,11 +9632,11 @@
       </c>
       <c r="F166" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F166" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>AlwaysThem</v>
       </c>
       <c r="G166" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G166" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>ItsTheOnlyWay</v>
+        <v>SplitUp</v>
       </c>
       <c r="H166" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H166" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
@@ -9650,10 +9652,10 @@
         <v>100</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M166" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -9674,15 +9676,15 @@
       </c>
       <c r="F167" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F167" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>SplitUp</v>
+        <v>ItsTheOnlyWay</v>
       </c>
       <c r="G167" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G167" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Desperate</v>
+        <v>TimeToFixIt</v>
       </c>
       <c r="H167" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H167" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>TimeToFixIt</v>
+        <v>Outcast</v>
       </c>
       <c r="I167">
         <v>200</v>
@@ -9694,10 +9696,10 @@
         <v>50</v>
       </c>
       <c r="L167" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M167" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -9722,11 +9724,11 @@
       </c>
       <c r="G168" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G168" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="H168" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H168" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>Messiah</v>
+        <v>AgainstUS!!</v>
       </c>
       <c r="I168">
         <v>400</v>
@@ -9738,10 +9740,10 @@
         <v>100</v>
       </c>
       <c r="L168" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M168" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -9762,15 +9764,15 @@
       </c>
       <c r="F169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Divide&amp;CONQUER</v>
       </c>
       <c r="G169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>MessEmUP!!!</v>
+        <v>Messiah</v>
       </c>
       <c r="H169" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H169" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Radicalism", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$26:$B$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$26:$B$32)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$26:$C$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$26:$C$32)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$26:$D$32,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$26:$D$32)),1),Null))))</f>
-        <v>AgainstUS!!</v>
+        <v>NecessaryEvil</v>
       </c>
       <c r="I169">
         <v>150</v>
@@ -9782,10 +9784,10 @@
         <v>100</v>
       </c>
       <c r="L169" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M169" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -9806,15 +9808,15 @@
       </c>
       <c r="F170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>InGoodHands</v>
       </c>
       <c r="G170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>KeepThemIN!</v>
+        <v>VoteAgain</v>
       </c>
       <c r="H170" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H170" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>InGoodHands</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="I170">
         <v>75</v>
@@ -9826,10 +9828,10 @@
         <v>100</v>
       </c>
       <c r="L170" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M170" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -9854,7 +9856,7 @@
       </c>
       <c r="G171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RepeatElection</v>
+        <v>GetsThingsDone</v>
       </c>
       <c r="H171" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H171" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -9870,10 +9872,10 @@
         <v>150</v>
       </c>
       <c r="L171" s="20" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M171" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -9898,11 +9900,11 @@
       </c>
       <c r="G172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>I'maSitDown</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="H172" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H172" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>NoFaith</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="I172">
         <v>100</v>
@@ -9914,10 +9916,10 @@
         <v>150</v>
       </c>
       <c r="L172" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M172" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -9938,15 +9940,15 @@
       </c>
       <c r="F173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>I'maSitDown</v>
       </c>
       <c r="G173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>Where'sTioSammy</v>
+        <v>WeAreDoomed</v>
       </c>
       <c r="H173" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H173" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ItsOver</v>
+        <v>NotAgainnnn</v>
       </c>
       <c r="I173">
         <v>125</v>
@@ -9958,10 +9960,10 @@
         <v>100</v>
       </c>
       <c r="L173" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M173" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -9986,11 +9988,11 @@
       </c>
       <c r="G174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>ToTheTorches!</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="H174" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H174" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>CoupDeTahhh</v>
+        <v>ToTheTorches!</v>
       </c>
       <c r="I174">
         <v>200</v>
@@ -10002,10 +10004,10 @@
         <v>100</v>
       </c>
       <c r="L174" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M174" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -10026,7 +10028,7 @@
       </c>
       <c r="F175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="F175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>RiotTIME</v>
+        <v>LeRevolution!</v>
       </c>
       <c r="G175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="G175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
@@ -10034,7 +10036,7 @@
       </c>
       <c r="H175" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="H175" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] = "Government", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$2:$B$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$2:$B$9)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$2:$C$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$2:$C$9)),1),IF( Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$2:$D$9,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$2:$D$9)),1),Null))))</f>
-        <v>BurnItDOWN</v>
+        <v>CoupDeTahhh</v>
       </c>
       <c r="I175">
         <v>125</v>
@@ -10046,10 +10048,10 @@
         <v>50</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M175" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -10070,15 +10072,15 @@
       </c>
       <c r="F176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Hero</v>
+        <v>Justified!</v>
       </c>
       <c r="G176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justified!</v>
+        <v>Justice</v>
       </c>
       <c r="H176" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H176" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StrongerTogether</v>
+        <v>Hero</v>
       </c>
       <c r="I176">
         <v>75</v>
@@ -10090,10 +10092,10 @@
         <v>50</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M176" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -10114,15 +10116,15 @@
       </c>
       <c r="F177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Justice</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="G177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>BeSafe</v>
+        <v>Justice</v>
       </c>
       <c r="H177" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H177" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>StandUp!!!</v>
+        <v>FightBackTeam!</v>
       </c>
       <c r="I177">
         <v>100</v>
@@ -10137,7 +10139,7 @@
         <v>37</v>
       </c>
       <c r="M177" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -10158,15 +10160,15 @@
       </c>
       <c r="F178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>TooSoon</v>
       </c>
       <c r="G178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>PrayForThem</v>
+        <v>Pathetic</v>
       </c>
       <c r="H178" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H178" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TooSoon</v>
+        <v>Lowlife</v>
       </c>
       <c r="I178">
         <v>225</v>
@@ -10178,10 +10180,10 @@
         <v>150</v>
       </c>
       <c r="L178" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M178" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -10202,7 +10204,7 @@
       </c>
       <c r="F179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>PrayForThem</v>
       </c>
       <c r="G179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
@@ -10210,7 +10212,7 @@
       </c>
       <c r="H179" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H179" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>GodLeftChat</v>
+        <v>PrayForThem</v>
       </c>
       <c r="I179">
         <v>175</v>
@@ -10222,10 +10224,10 @@
         <v>100</v>
       </c>
       <c r="L179" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M179" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -10246,15 +10248,15 @@
       </c>
       <c r="F180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>DeathCollection</v>
+        <v>BetterOffDead</v>
       </c>
       <c r="G180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>PaybackTime</v>
       </c>
       <c r="H180" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H180" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Despicable!</v>
+        <v>TakeEmDOWN!!!</v>
       </c>
       <c r="I180">
         <v>325</v>
@@ -10266,10 +10268,10 @@
         <v>100</v>
       </c>
       <c r="L180" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M180" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -10290,15 +10292,15 @@
       </c>
       <c r="F181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="F181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>Eye-ForAn-Eye</v>
+        <v>Despicable!</v>
       </c>
       <c r="G181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>NoJustice!!!</v>
+        <v>Eye-ForAn-Eye</v>
       </c>
       <c r="H181" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H181" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Violence", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$10:$B$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$10:$B$17)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$10:$C$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$10:$C$17)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$10:$D$17,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$10:$D$17)),1),Null))))</f>
-        <v>TakeEmDOWN!!!</v>
+        <v>NoJustice!!!</v>
       </c>
       <c r="I181">
         <v>200</v>
@@ -10310,10 +10312,10 @@
         <v>50</v>
       </c>
       <c r="L181" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M181" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -10334,7 +10336,7 @@
       </c>
       <c r="F182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>BackToUs</v>
       </c>
       <c r="G182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -10342,7 +10344,7 @@
       </c>
       <c r="H182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H182" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>100Sober</v>
+        <v>BestWishes</v>
       </c>
       <c r="I182">
         <v>75</v>
@@ -10354,10 +10356,10 @@
         <v>50</v>
       </c>
       <c r="L182" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M182" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -10378,15 +10380,15 @@
       </c>
       <c r="F183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>BestWishes</v>
       </c>
       <c r="G183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>BestWishes</v>
+        <v>100Sober</v>
       </c>
       <c r="H183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H183" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankGod</v>
+        <v>Recovered:)</v>
       </c>
       <c r="I183">
         <v>100</v>
@@ -10398,10 +10400,10 @@
         <v>150</v>
       </c>
       <c r="L183" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M183" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -10422,7 +10424,7 @@
       </c>
       <c r="F184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>I'mSoLost</v>
+        <v>God'sPlan</v>
       </c>
       <c r="G184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
@@ -10430,7 +10432,7 @@
       </c>
       <c r="H184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H184" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>HardTimes</v>
+        <v>Depressing</v>
       </c>
       <c r="I184">
         <v>200</v>
@@ -10442,10 +10444,10 @@
         <v>100</v>
       </c>
       <c r="L184" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M184" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -10470,11 +10472,11 @@
       </c>
       <c r="G185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>ThankYouAll</v>
+        <v>God'sPlan</v>
       </c>
       <c r="H185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H185" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>Drained</v>
+        <v>ThankYouAll</v>
       </c>
       <c r="I185">
         <v>175</v>
@@ -10486,10 +10488,10 @@
         <v>100</v>
       </c>
       <c r="L185" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M185" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -10510,15 +10512,15 @@
       </c>
       <c r="F186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>Refund</v>
       </c>
       <c r="G186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>MoneyWasted</v>
       </c>
       <c r="H186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H186" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>UnderStaffed!!</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="I186">
         <v>350</v>
@@ -10530,10 +10532,10 @@
         <v>100</v>
       </c>
       <c r="L186" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M186" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -10554,15 +10556,15 @@
       </c>
       <c r="F187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>OverpaidIdiots</v>
+        <v>TaxedForThis?</v>
       </c>
       <c r="G187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>CrappyHealthCare</v>
+        <v>UnderStaffed!!</v>
       </c>
       <c r="H187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H187" ca="1">IF(Table1[[#This Row],[Subject (Government, Violence, Health, Radicalism)]] ="Health", IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Happy", INDEX('Hashtag Source'!$B$18:$B$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$B$18:$B$25)),1), IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]] = "Sad", INDEX('Hashtag Source'!$C$18:$C$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$C$18:$C$25)),1),IF(Table1[[#This Row],[Reaction (Happy, Sad, Angry)]]= "Angry", INDEX('Hashtag Source'!$D$18:$D$25,RANDBETWEEN(1,ROWS('Hashtag Source'!$D$18:$D$25)),1),Null))))</f>
-        <v>TaxedForThis?</v>
+        <v>OverpaidIdiots</v>
       </c>
       <c r="I187">
         <v>250</v>
@@ -10574,10 +10576,10 @@
         <v>50</v>
       </c>
       <c r="L187" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M187" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -10602,11 +10604,11 @@
       </c>
       <c r="G188" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="G188" ca="1">IF(Table1[[#This Row],[Subject (Government, Viole